--- a/src/spz/templates/export/spanisch_hueber.xlsx
+++ b/src/spz/templates/export/spanisch_hueber.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" updateLinks="never" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urvdp\Documents\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC15F82C-2DFE-462A-B025-AFB9EC6FC757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -25,12 +24,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Notenliste!$H$1:$M$29</definedName>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$20,"&gt;"""),)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$J$30</definedName>
     <definedName name="ECTS">OFFSET(Einstellungen!$H$2,,,COUNTIF(Einstellungen!$H$2:$H$20,"&gt;"""),)</definedName>
     <definedName name="KURSNAME">OFFSET(Einstellungen!$A$2,,,COUNTIF(Einstellungen!$A$2:$A$20,"&gt;"""),)</definedName>
     <definedName name="NIVEAU">OFFSET(Einstellungen!$D$2,,,COUNTIF(Einstellungen!$D$2:$D$22,"&gt;"""),)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$J$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="151">
   <si>
     <t>Name</t>
   </si>
@@ -622,11 +621,14 @@
   <si>
     <t>attendance.hide_grade_str</t>
   </si>
+  <si>
+    <t>Leistungs-punkte</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#"/>
@@ -1177,6 +1179,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1234,14 +1240,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
@@ -1356,7 +1358,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1606,54 +1608,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:L2" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="B1:L2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:L2" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="B1:L2"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="LP" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{997C5176-9425-4CF7-BE29-F0CD4F66AFDB}" name="Telefon" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{0C9FB7AD-DA72-43EE-AA26-E537760E90AB}" name="bestanden" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{E0D82138-D581-4631-A97C-D5FBC4F95678}" name="Teilnahmeschein" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="10"/>
+    <tableColumn id="1" name="Nachname" dataDxfId="20"/>
+    <tableColumn id="2" name="Vorname" dataDxfId="19"/>
+    <tableColumn id="3" name="Hochschule" dataDxfId="18"/>
+    <tableColumn id="4" name="Matrikelnummer" dataDxfId="17"/>
+    <tableColumn id="7" name="Note" dataDxfId="16"/>
+    <tableColumn id="9" name="LP" dataDxfId="15"/>
+    <tableColumn id="5" name="E-Mail" dataDxfId="14"/>
+    <tableColumn id="10" name="Telefon" dataDxfId="13"/>
+    <tableColumn id="11" name="bestanden" dataDxfId="12"/>
+    <tableColumn id="8" name="Teilnahmeschein" dataDxfId="11"/>
+    <tableColumn id="6" name="Schein erhalten" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
+  <autoFilter ref="A1:H26"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="1" name="Matrikelnummer" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="7">
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="LP" dataDxfId="7">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!Q2&lt;&gt;0,Notenliste!Q2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="4" name="Note" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="4">
+    <tableColumn id="5" name="Datum" dataDxfId="4">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
+    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="3"/>
+    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="2"/>
+    <tableColumn id="8" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1691,9 +1693,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1728,7 +1730,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1763,7 +1765,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1936,7 +1938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -1944,24 +1946,24 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="13" customWidth="1"/>
-    <col min="6" max="7" width="8.109375" style="13" customWidth="1"/>
-    <col min="8" max="9" width="37.109375" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" customWidth="1"/>
-    <col min="13" max="13" width="45.109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.44140625" hidden="1"/>
+    <col min="5" max="5" width="18.42578125" style="13" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" style="13" customWidth="1"/>
+    <col min="8" max="9" width="37.140625" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>24</v>
       </c>
@@ -2005,7 +2007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2043,7 +2045,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2051,7 +2053,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2059,7 +2061,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2067,7 +2069,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2075,7 +2077,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2083,7 +2085,7 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2091,7 +2093,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2099,7 +2101,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2107,7 +2109,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2115,7 +2117,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2123,7 +2125,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2131,7 +2133,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2139,7 +2141,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2147,7 +2149,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2155,7 +2157,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2163,7 +2165,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2171,7 +2173,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2179,7 +2181,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2187,7 +2189,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2195,7 +2197,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2203,7 +2205,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2211,17 +2213,17 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2237,7 +2239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2247,544 +2249,544 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.95" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.9" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="5.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" customWidth="1"/>
     <col min="13" max="13" width="8" style="2" customWidth="1"/>
-    <col min="14" max="15" width="2.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="5.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.6640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.6640625" style="1" hidden="1"/>
+    <col min="14" max="15" width="2.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" hidden="1"/>
     <col min="23" max="23" width="16" style="1" hidden="1"/>
-    <col min="24" max="24" width="17.6640625" style="1" hidden="1"/>
+    <col min="24" max="24" width="17.7109375" style="1" hidden="1"/>
     <col min="25" max="25" width="3" style="1" hidden="1"/>
-    <col min="26" max="250" width="11.44140625" style="1" hidden="1"/>
-    <col min="251" max="251" width="15.44140625" style="1" hidden="1"/>
-    <col min="252" max="252" width="11.44140625" style="1" hidden="1"/>
-    <col min="253" max="253" width="15.6640625" style="1" hidden="1"/>
-    <col min="254" max="254" width="21.6640625" style="1" hidden="1"/>
-    <col min="255" max="257" width="11.44140625" style="1" hidden="1"/>
+    <col min="26" max="250" width="11.42578125" style="1" hidden="1"/>
+    <col min="251" max="251" width="15.42578125" style="1" hidden="1"/>
+    <col min="252" max="252" width="11.42578125" style="1" hidden="1"/>
+    <col min="253" max="253" width="15.7109375" style="1" hidden="1"/>
+    <col min="254" max="254" width="21.7109375" style="1" hidden="1"/>
+    <col min="255" max="257" width="11.42578125" style="1" hidden="1"/>
     <col min="258" max="258" width="16" style="1" hidden="1"/>
-    <col min="259" max="259" width="20.44140625" style="1" hidden="1"/>
-    <col min="260" max="506" width="11.44140625" style="1" hidden="1"/>
-    <col min="507" max="507" width="15.44140625" style="1" hidden="1"/>
-    <col min="508" max="508" width="11.44140625" style="1" hidden="1"/>
-    <col min="509" max="509" width="15.6640625" style="1" hidden="1"/>
-    <col min="510" max="510" width="21.6640625" style="1" hidden="1"/>
-    <col min="511" max="513" width="11.44140625" style="1" hidden="1"/>
+    <col min="259" max="259" width="20.42578125" style="1" hidden="1"/>
+    <col min="260" max="506" width="11.42578125" style="1" hidden="1"/>
+    <col min="507" max="507" width="15.42578125" style="1" hidden="1"/>
+    <col min="508" max="508" width="11.42578125" style="1" hidden="1"/>
+    <col min="509" max="509" width="15.7109375" style="1" hidden="1"/>
+    <col min="510" max="510" width="21.7109375" style="1" hidden="1"/>
+    <col min="511" max="513" width="11.42578125" style="1" hidden="1"/>
     <col min="514" max="514" width="16" style="1" hidden="1"/>
-    <col min="515" max="515" width="20.44140625" style="1" hidden="1"/>
-    <col min="516" max="762" width="11.44140625" style="1" hidden="1"/>
-    <col min="763" max="763" width="15.44140625" style="1" hidden="1"/>
-    <col min="764" max="764" width="11.44140625" style="1" hidden="1"/>
-    <col min="765" max="765" width="15.6640625" style="1" hidden="1"/>
-    <col min="766" max="766" width="21.6640625" style="1" hidden="1"/>
-    <col min="767" max="769" width="11.44140625" style="1" hidden="1"/>
+    <col min="515" max="515" width="20.42578125" style="1" hidden="1"/>
+    <col min="516" max="762" width="11.42578125" style="1" hidden="1"/>
+    <col min="763" max="763" width="15.42578125" style="1" hidden="1"/>
+    <col min="764" max="764" width="11.42578125" style="1" hidden="1"/>
+    <col min="765" max="765" width="15.7109375" style="1" hidden="1"/>
+    <col min="766" max="766" width="21.7109375" style="1" hidden="1"/>
+    <col min="767" max="769" width="11.42578125" style="1" hidden="1"/>
     <col min="770" max="770" width="16" style="1" hidden="1"/>
-    <col min="771" max="771" width="20.44140625" style="1" hidden="1"/>
-    <col min="772" max="1018" width="11.44140625" style="1" hidden="1"/>
-    <col min="1019" max="1019" width="15.44140625" style="1" hidden="1"/>
-    <col min="1020" max="1020" width="11.44140625" style="1" hidden="1"/>
-    <col min="1021" max="1021" width="15.6640625" style="1" hidden="1"/>
-    <col min="1022" max="1022" width="21.6640625" style="1" hidden="1"/>
-    <col min="1023" max="1025" width="11.44140625" style="1" hidden="1"/>
+    <col min="771" max="771" width="20.42578125" style="1" hidden="1"/>
+    <col min="772" max="1018" width="11.42578125" style="1" hidden="1"/>
+    <col min="1019" max="1019" width="15.42578125" style="1" hidden="1"/>
+    <col min="1020" max="1020" width="11.42578125" style="1" hidden="1"/>
+    <col min="1021" max="1021" width="15.7109375" style="1" hidden="1"/>
+    <col min="1022" max="1022" width="21.7109375" style="1" hidden="1"/>
+    <col min="1023" max="1025" width="11.42578125" style="1" hidden="1"/>
     <col min="1026" max="1026" width="16" style="1" hidden="1"/>
-    <col min="1027" max="1027" width="20.44140625" style="1" hidden="1"/>
-    <col min="1028" max="1274" width="11.44140625" style="1" hidden="1"/>
-    <col min="1275" max="1275" width="15.44140625" style="1" hidden="1"/>
-    <col min="1276" max="1276" width="11.44140625" style="1" hidden="1"/>
-    <col min="1277" max="1277" width="15.6640625" style="1" hidden="1"/>
-    <col min="1278" max="1278" width="21.6640625" style="1" hidden="1"/>
-    <col min="1279" max="1281" width="11.44140625" style="1" hidden="1"/>
+    <col min="1027" max="1027" width="20.42578125" style="1" hidden="1"/>
+    <col min="1028" max="1274" width="11.42578125" style="1" hidden="1"/>
+    <col min="1275" max="1275" width="15.42578125" style="1" hidden="1"/>
+    <col min="1276" max="1276" width="11.42578125" style="1" hidden="1"/>
+    <col min="1277" max="1277" width="15.7109375" style="1" hidden="1"/>
+    <col min="1278" max="1278" width="21.7109375" style="1" hidden="1"/>
+    <col min="1279" max="1281" width="11.42578125" style="1" hidden="1"/>
     <col min="1282" max="1282" width="16" style="1" hidden="1"/>
-    <col min="1283" max="1283" width="20.44140625" style="1" hidden="1"/>
-    <col min="1284" max="1530" width="11.44140625" style="1" hidden="1"/>
-    <col min="1531" max="1531" width="15.44140625" style="1" hidden="1"/>
-    <col min="1532" max="1532" width="11.44140625" style="1" hidden="1"/>
-    <col min="1533" max="1533" width="15.6640625" style="1" hidden="1"/>
-    <col min="1534" max="1534" width="21.6640625" style="1" hidden="1"/>
-    <col min="1535" max="1537" width="11.44140625" style="1" hidden="1"/>
+    <col min="1283" max="1283" width="20.42578125" style="1" hidden="1"/>
+    <col min="1284" max="1530" width="11.42578125" style="1" hidden="1"/>
+    <col min="1531" max="1531" width="15.42578125" style="1" hidden="1"/>
+    <col min="1532" max="1532" width="11.42578125" style="1" hidden="1"/>
+    <col min="1533" max="1533" width="15.7109375" style="1" hidden="1"/>
+    <col min="1534" max="1534" width="21.7109375" style="1" hidden="1"/>
+    <col min="1535" max="1537" width="11.42578125" style="1" hidden="1"/>
     <col min="1538" max="1538" width="16" style="1" hidden="1"/>
-    <col min="1539" max="1539" width="20.44140625" style="1" hidden="1"/>
-    <col min="1540" max="1786" width="11.44140625" style="1" hidden="1"/>
-    <col min="1787" max="1787" width="15.44140625" style="1" hidden="1"/>
-    <col min="1788" max="1788" width="11.44140625" style="1" hidden="1"/>
-    <col min="1789" max="1789" width="15.6640625" style="1" hidden="1"/>
-    <col min="1790" max="1790" width="21.6640625" style="1" hidden="1"/>
-    <col min="1791" max="1793" width="11.44140625" style="1" hidden="1"/>
+    <col min="1539" max="1539" width="20.42578125" style="1" hidden="1"/>
+    <col min="1540" max="1786" width="11.42578125" style="1" hidden="1"/>
+    <col min="1787" max="1787" width="15.42578125" style="1" hidden="1"/>
+    <col min="1788" max="1788" width="11.42578125" style="1" hidden="1"/>
+    <col min="1789" max="1789" width="15.7109375" style="1" hidden="1"/>
+    <col min="1790" max="1790" width="21.7109375" style="1" hidden="1"/>
+    <col min="1791" max="1793" width="11.42578125" style="1" hidden="1"/>
     <col min="1794" max="1794" width="16" style="1" hidden="1"/>
-    <col min="1795" max="1795" width="20.44140625" style="1" hidden="1"/>
-    <col min="1796" max="2042" width="11.44140625" style="1" hidden="1"/>
-    <col min="2043" max="2043" width="15.44140625" style="1" hidden="1"/>
-    <col min="2044" max="2044" width="11.44140625" style="1" hidden="1"/>
-    <col min="2045" max="2045" width="15.6640625" style="1" hidden="1"/>
-    <col min="2046" max="2046" width="21.6640625" style="1" hidden="1"/>
-    <col min="2047" max="2049" width="11.44140625" style="1" hidden="1"/>
+    <col min="1795" max="1795" width="20.42578125" style="1" hidden="1"/>
+    <col min="1796" max="2042" width="11.42578125" style="1" hidden="1"/>
+    <col min="2043" max="2043" width="15.42578125" style="1" hidden="1"/>
+    <col min="2044" max="2044" width="11.42578125" style="1" hidden="1"/>
+    <col min="2045" max="2045" width="15.7109375" style="1" hidden="1"/>
+    <col min="2046" max="2046" width="21.7109375" style="1" hidden="1"/>
+    <col min="2047" max="2049" width="11.42578125" style="1" hidden="1"/>
     <col min="2050" max="2050" width="16" style="1" hidden="1"/>
-    <col min="2051" max="2051" width="20.44140625" style="1" hidden="1"/>
-    <col min="2052" max="2298" width="11.44140625" style="1" hidden="1"/>
-    <col min="2299" max="2299" width="15.44140625" style="1" hidden="1"/>
-    <col min="2300" max="2300" width="11.44140625" style="1" hidden="1"/>
-    <col min="2301" max="2301" width="15.6640625" style="1" hidden="1"/>
-    <col min="2302" max="2302" width="21.6640625" style="1" hidden="1"/>
-    <col min="2303" max="2305" width="11.44140625" style="1" hidden="1"/>
+    <col min="2051" max="2051" width="20.42578125" style="1" hidden="1"/>
+    <col min="2052" max="2298" width="11.42578125" style="1" hidden="1"/>
+    <col min="2299" max="2299" width="15.42578125" style="1" hidden="1"/>
+    <col min="2300" max="2300" width="11.42578125" style="1" hidden="1"/>
+    <col min="2301" max="2301" width="15.7109375" style="1" hidden="1"/>
+    <col min="2302" max="2302" width="21.7109375" style="1" hidden="1"/>
+    <col min="2303" max="2305" width="11.42578125" style="1" hidden="1"/>
     <col min="2306" max="2306" width="16" style="1" hidden="1"/>
-    <col min="2307" max="2307" width="20.44140625" style="1" hidden="1"/>
-    <col min="2308" max="2554" width="11.44140625" style="1" hidden="1"/>
-    <col min="2555" max="2555" width="15.44140625" style="1" hidden="1"/>
-    <col min="2556" max="2556" width="11.44140625" style="1" hidden="1"/>
-    <col min="2557" max="2557" width="15.6640625" style="1" hidden="1"/>
-    <col min="2558" max="2558" width="21.6640625" style="1" hidden="1"/>
-    <col min="2559" max="2561" width="11.44140625" style="1" hidden="1"/>
+    <col min="2307" max="2307" width="20.42578125" style="1" hidden="1"/>
+    <col min="2308" max="2554" width="11.42578125" style="1" hidden="1"/>
+    <col min="2555" max="2555" width="15.42578125" style="1" hidden="1"/>
+    <col min="2556" max="2556" width="11.42578125" style="1" hidden="1"/>
+    <col min="2557" max="2557" width="15.7109375" style="1" hidden="1"/>
+    <col min="2558" max="2558" width="21.7109375" style="1" hidden="1"/>
+    <col min="2559" max="2561" width="11.42578125" style="1" hidden="1"/>
     <col min="2562" max="2562" width="16" style="1" hidden="1"/>
-    <col min="2563" max="2563" width="20.44140625" style="1" hidden="1"/>
-    <col min="2564" max="2810" width="11.44140625" style="1" hidden="1"/>
-    <col min="2811" max="2811" width="15.44140625" style="1" hidden="1"/>
-    <col min="2812" max="2812" width="11.44140625" style="1" hidden="1"/>
-    <col min="2813" max="2813" width="15.6640625" style="1" hidden="1"/>
-    <col min="2814" max="2814" width="21.6640625" style="1" hidden="1"/>
-    <col min="2815" max="2817" width="11.44140625" style="1" hidden="1"/>
+    <col min="2563" max="2563" width="20.42578125" style="1" hidden="1"/>
+    <col min="2564" max="2810" width="11.42578125" style="1" hidden="1"/>
+    <col min="2811" max="2811" width="15.42578125" style="1" hidden="1"/>
+    <col min="2812" max="2812" width="11.42578125" style="1" hidden="1"/>
+    <col min="2813" max="2813" width="15.7109375" style="1" hidden="1"/>
+    <col min="2814" max="2814" width="21.7109375" style="1" hidden="1"/>
+    <col min="2815" max="2817" width="11.42578125" style="1" hidden="1"/>
     <col min="2818" max="2818" width="16" style="1" hidden="1"/>
-    <col min="2819" max="2819" width="20.44140625" style="1" hidden="1"/>
-    <col min="2820" max="3066" width="11.44140625" style="1" hidden="1"/>
-    <col min="3067" max="3067" width="15.44140625" style="1" hidden="1"/>
-    <col min="3068" max="3068" width="11.44140625" style="1" hidden="1"/>
-    <col min="3069" max="3069" width="15.6640625" style="1" hidden="1"/>
-    <col min="3070" max="3070" width="21.6640625" style="1" hidden="1"/>
-    <col min="3071" max="3073" width="11.44140625" style="1" hidden="1"/>
+    <col min="2819" max="2819" width="20.42578125" style="1" hidden="1"/>
+    <col min="2820" max="3066" width="11.42578125" style="1" hidden="1"/>
+    <col min="3067" max="3067" width="15.42578125" style="1" hidden="1"/>
+    <col min="3068" max="3068" width="11.42578125" style="1" hidden="1"/>
+    <col min="3069" max="3069" width="15.7109375" style="1" hidden="1"/>
+    <col min="3070" max="3070" width="21.7109375" style="1" hidden="1"/>
+    <col min="3071" max="3073" width="11.42578125" style="1" hidden="1"/>
     <col min="3074" max="3074" width="16" style="1" hidden="1"/>
-    <col min="3075" max="3075" width="20.44140625" style="1" hidden="1"/>
-    <col min="3076" max="3322" width="11.44140625" style="1" hidden="1"/>
-    <col min="3323" max="3323" width="15.44140625" style="1" hidden="1"/>
-    <col min="3324" max="3324" width="11.44140625" style="1" hidden="1"/>
-    <col min="3325" max="3325" width="15.6640625" style="1" hidden="1"/>
-    <col min="3326" max="3326" width="21.6640625" style="1" hidden="1"/>
-    <col min="3327" max="3329" width="11.44140625" style="1" hidden="1"/>
+    <col min="3075" max="3075" width="20.42578125" style="1" hidden="1"/>
+    <col min="3076" max="3322" width="11.42578125" style="1" hidden="1"/>
+    <col min="3323" max="3323" width="15.42578125" style="1" hidden="1"/>
+    <col min="3324" max="3324" width="11.42578125" style="1" hidden="1"/>
+    <col min="3325" max="3325" width="15.7109375" style="1" hidden="1"/>
+    <col min="3326" max="3326" width="21.7109375" style="1" hidden="1"/>
+    <col min="3327" max="3329" width="11.42578125" style="1" hidden="1"/>
     <col min="3330" max="3330" width="16" style="1" hidden="1"/>
-    <col min="3331" max="3331" width="20.44140625" style="1" hidden="1"/>
-    <col min="3332" max="3578" width="11.44140625" style="1" hidden="1"/>
-    <col min="3579" max="3579" width="15.44140625" style="1" hidden="1"/>
-    <col min="3580" max="3580" width="11.44140625" style="1" hidden="1"/>
-    <col min="3581" max="3581" width="15.6640625" style="1" hidden="1"/>
-    <col min="3582" max="3582" width="21.6640625" style="1" hidden="1"/>
-    <col min="3583" max="3585" width="11.44140625" style="1" hidden="1"/>
+    <col min="3331" max="3331" width="20.42578125" style="1" hidden="1"/>
+    <col min="3332" max="3578" width="11.42578125" style="1" hidden="1"/>
+    <col min="3579" max="3579" width="15.42578125" style="1" hidden="1"/>
+    <col min="3580" max="3580" width="11.42578125" style="1" hidden="1"/>
+    <col min="3581" max="3581" width="15.7109375" style="1" hidden="1"/>
+    <col min="3582" max="3582" width="21.7109375" style="1" hidden="1"/>
+    <col min="3583" max="3585" width="11.42578125" style="1" hidden="1"/>
     <col min="3586" max="3586" width="16" style="1" hidden="1"/>
-    <col min="3587" max="3587" width="20.44140625" style="1" hidden="1"/>
-    <col min="3588" max="3834" width="11.44140625" style="1" hidden="1"/>
-    <col min="3835" max="3835" width="15.44140625" style="1" hidden="1"/>
-    <col min="3836" max="3836" width="11.44140625" style="1" hidden="1"/>
-    <col min="3837" max="3837" width="15.6640625" style="1" hidden="1"/>
-    <col min="3838" max="3838" width="21.6640625" style="1" hidden="1"/>
-    <col min="3839" max="3841" width="11.44140625" style="1" hidden="1"/>
+    <col min="3587" max="3587" width="20.42578125" style="1" hidden="1"/>
+    <col min="3588" max="3834" width="11.42578125" style="1" hidden="1"/>
+    <col min="3835" max="3835" width="15.42578125" style="1" hidden="1"/>
+    <col min="3836" max="3836" width="11.42578125" style="1" hidden="1"/>
+    <col min="3837" max="3837" width="15.7109375" style="1" hidden="1"/>
+    <col min="3838" max="3838" width="21.7109375" style="1" hidden="1"/>
+    <col min="3839" max="3841" width="11.42578125" style="1" hidden="1"/>
     <col min="3842" max="3842" width="16" style="1" hidden="1"/>
-    <col min="3843" max="3843" width="20.44140625" style="1" hidden="1"/>
-    <col min="3844" max="4090" width="11.44140625" style="1" hidden="1"/>
-    <col min="4091" max="4091" width="15.44140625" style="1" hidden="1"/>
-    <col min="4092" max="4092" width="11.44140625" style="1" hidden="1"/>
-    <col min="4093" max="4093" width="15.6640625" style="1" hidden="1"/>
-    <col min="4094" max="4094" width="21.6640625" style="1" hidden="1"/>
-    <col min="4095" max="4097" width="11.44140625" style="1" hidden="1"/>
+    <col min="3843" max="3843" width="20.42578125" style="1" hidden="1"/>
+    <col min="3844" max="4090" width="11.42578125" style="1" hidden="1"/>
+    <col min="4091" max="4091" width="15.42578125" style="1" hidden="1"/>
+    <col min="4092" max="4092" width="11.42578125" style="1" hidden="1"/>
+    <col min="4093" max="4093" width="15.7109375" style="1" hidden="1"/>
+    <col min="4094" max="4094" width="21.7109375" style="1" hidden="1"/>
+    <col min="4095" max="4097" width="11.42578125" style="1" hidden="1"/>
     <col min="4098" max="4098" width="16" style="1" hidden="1"/>
-    <col min="4099" max="4099" width="20.44140625" style="1" hidden="1"/>
-    <col min="4100" max="4346" width="11.44140625" style="1" hidden="1"/>
-    <col min="4347" max="4347" width="15.44140625" style="1" hidden="1"/>
-    <col min="4348" max="4348" width="11.44140625" style="1" hidden="1"/>
-    <col min="4349" max="4349" width="15.6640625" style="1" hidden="1"/>
-    <col min="4350" max="4350" width="21.6640625" style="1" hidden="1"/>
-    <col min="4351" max="4353" width="11.44140625" style="1" hidden="1"/>
+    <col min="4099" max="4099" width="20.42578125" style="1" hidden="1"/>
+    <col min="4100" max="4346" width="11.42578125" style="1" hidden="1"/>
+    <col min="4347" max="4347" width="15.42578125" style="1" hidden="1"/>
+    <col min="4348" max="4348" width="11.42578125" style="1" hidden="1"/>
+    <col min="4349" max="4349" width="15.7109375" style="1" hidden="1"/>
+    <col min="4350" max="4350" width="21.7109375" style="1" hidden="1"/>
+    <col min="4351" max="4353" width="11.42578125" style="1" hidden="1"/>
     <col min="4354" max="4354" width="16" style="1" hidden="1"/>
-    <col min="4355" max="4355" width="20.44140625" style="1" hidden="1"/>
-    <col min="4356" max="4602" width="11.44140625" style="1" hidden="1"/>
-    <col min="4603" max="4603" width="15.44140625" style="1" hidden="1"/>
-    <col min="4604" max="4604" width="11.44140625" style="1" hidden="1"/>
-    <col min="4605" max="4605" width="15.6640625" style="1" hidden="1"/>
-    <col min="4606" max="4606" width="21.6640625" style="1" hidden="1"/>
-    <col min="4607" max="4609" width="11.44140625" style="1" hidden="1"/>
+    <col min="4355" max="4355" width="20.42578125" style="1" hidden="1"/>
+    <col min="4356" max="4602" width="11.42578125" style="1" hidden="1"/>
+    <col min="4603" max="4603" width="15.42578125" style="1" hidden="1"/>
+    <col min="4604" max="4604" width="11.42578125" style="1" hidden="1"/>
+    <col min="4605" max="4605" width="15.7109375" style="1" hidden="1"/>
+    <col min="4606" max="4606" width="21.7109375" style="1" hidden="1"/>
+    <col min="4607" max="4609" width="11.42578125" style="1" hidden="1"/>
     <col min="4610" max="4610" width="16" style="1" hidden="1"/>
-    <col min="4611" max="4611" width="20.44140625" style="1" hidden="1"/>
-    <col min="4612" max="4858" width="11.44140625" style="1" hidden="1"/>
-    <col min="4859" max="4859" width="15.44140625" style="1" hidden="1"/>
-    <col min="4860" max="4860" width="11.44140625" style="1" hidden="1"/>
-    <col min="4861" max="4861" width="15.6640625" style="1" hidden="1"/>
-    <col min="4862" max="4862" width="21.6640625" style="1" hidden="1"/>
-    <col min="4863" max="4865" width="11.44140625" style="1" hidden="1"/>
+    <col min="4611" max="4611" width="20.42578125" style="1" hidden="1"/>
+    <col min="4612" max="4858" width="11.42578125" style="1" hidden="1"/>
+    <col min="4859" max="4859" width="15.42578125" style="1" hidden="1"/>
+    <col min="4860" max="4860" width="11.42578125" style="1" hidden="1"/>
+    <col min="4861" max="4861" width="15.7109375" style="1" hidden="1"/>
+    <col min="4862" max="4862" width="21.7109375" style="1" hidden="1"/>
+    <col min="4863" max="4865" width="11.42578125" style="1" hidden="1"/>
     <col min="4866" max="4866" width="16" style="1" hidden="1"/>
-    <col min="4867" max="4867" width="20.44140625" style="1" hidden="1"/>
-    <col min="4868" max="5114" width="11.44140625" style="1" hidden="1"/>
-    <col min="5115" max="5115" width="15.44140625" style="1" hidden="1"/>
-    <col min="5116" max="5116" width="11.44140625" style="1" hidden="1"/>
-    <col min="5117" max="5117" width="15.6640625" style="1" hidden="1"/>
-    <col min="5118" max="5118" width="21.6640625" style="1" hidden="1"/>
-    <col min="5119" max="5121" width="11.44140625" style="1" hidden="1"/>
+    <col min="4867" max="4867" width="20.42578125" style="1" hidden="1"/>
+    <col min="4868" max="5114" width="11.42578125" style="1" hidden="1"/>
+    <col min="5115" max="5115" width="15.42578125" style="1" hidden="1"/>
+    <col min="5116" max="5116" width="11.42578125" style="1" hidden="1"/>
+    <col min="5117" max="5117" width="15.7109375" style="1" hidden="1"/>
+    <col min="5118" max="5118" width="21.7109375" style="1" hidden="1"/>
+    <col min="5119" max="5121" width="11.42578125" style="1" hidden="1"/>
     <col min="5122" max="5122" width="16" style="1" hidden="1"/>
-    <col min="5123" max="5123" width="20.44140625" style="1" hidden="1"/>
-    <col min="5124" max="5370" width="11.44140625" style="1" hidden="1"/>
-    <col min="5371" max="5371" width="15.44140625" style="1" hidden="1"/>
-    <col min="5372" max="5372" width="11.44140625" style="1" hidden="1"/>
-    <col min="5373" max="5373" width="15.6640625" style="1" hidden="1"/>
-    <col min="5374" max="5374" width="21.6640625" style="1" hidden="1"/>
-    <col min="5375" max="5377" width="11.44140625" style="1" hidden="1"/>
+    <col min="5123" max="5123" width="20.42578125" style="1" hidden="1"/>
+    <col min="5124" max="5370" width="11.42578125" style="1" hidden="1"/>
+    <col min="5371" max="5371" width="15.42578125" style="1" hidden="1"/>
+    <col min="5372" max="5372" width="11.42578125" style="1" hidden="1"/>
+    <col min="5373" max="5373" width="15.7109375" style="1" hidden="1"/>
+    <col min="5374" max="5374" width="21.7109375" style="1" hidden="1"/>
+    <col min="5375" max="5377" width="11.42578125" style="1" hidden="1"/>
     <col min="5378" max="5378" width="16" style="1" hidden="1"/>
-    <col min="5379" max="5379" width="20.44140625" style="1" hidden="1"/>
-    <col min="5380" max="5626" width="11.44140625" style="1" hidden="1"/>
-    <col min="5627" max="5627" width="15.44140625" style="1" hidden="1"/>
-    <col min="5628" max="5628" width="11.44140625" style="1" hidden="1"/>
-    <col min="5629" max="5629" width="15.6640625" style="1" hidden="1"/>
-    <col min="5630" max="5630" width="21.6640625" style="1" hidden="1"/>
-    <col min="5631" max="5633" width="11.44140625" style="1" hidden="1"/>
+    <col min="5379" max="5379" width="20.42578125" style="1" hidden="1"/>
+    <col min="5380" max="5626" width="11.42578125" style="1" hidden="1"/>
+    <col min="5627" max="5627" width="15.42578125" style="1" hidden="1"/>
+    <col min="5628" max="5628" width="11.42578125" style="1" hidden="1"/>
+    <col min="5629" max="5629" width="15.7109375" style="1" hidden="1"/>
+    <col min="5630" max="5630" width="21.7109375" style="1" hidden="1"/>
+    <col min="5631" max="5633" width="11.42578125" style="1" hidden="1"/>
     <col min="5634" max="5634" width="16" style="1" hidden="1"/>
-    <col min="5635" max="5635" width="20.44140625" style="1" hidden="1"/>
-    <col min="5636" max="5882" width="11.44140625" style="1" hidden="1"/>
-    <col min="5883" max="5883" width="15.44140625" style="1" hidden="1"/>
-    <col min="5884" max="5884" width="11.44140625" style="1" hidden="1"/>
-    <col min="5885" max="5885" width="15.6640625" style="1" hidden="1"/>
-    <col min="5886" max="5886" width="21.6640625" style="1" hidden="1"/>
-    <col min="5887" max="5889" width="11.44140625" style="1" hidden="1"/>
+    <col min="5635" max="5635" width="20.42578125" style="1" hidden="1"/>
+    <col min="5636" max="5882" width="11.42578125" style="1" hidden="1"/>
+    <col min="5883" max="5883" width="15.42578125" style="1" hidden="1"/>
+    <col min="5884" max="5884" width="11.42578125" style="1" hidden="1"/>
+    <col min="5885" max="5885" width="15.7109375" style="1" hidden="1"/>
+    <col min="5886" max="5886" width="21.7109375" style="1" hidden="1"/>
+    <col min="5887" max="5889" width="11.42578125" style="1" hidden="1"/>
     <col min="5890" max="5890" width="16" style="1" hidden="1"/>
-    <col min="5891" max="5891" width="20.44140625" style="1" hidden="1"/>
-    <col min="5892" max="6138" width="11.44140625" style="1" hidden="1"/>
-    <col min="6139" max="6139" width="15.44140625" style="1" hidden="1"/>
-    <col min="6140" max="6140" width="11.44140625" style="1" hidden="1"/>
-    <col min="6141" max="6141" width="15.6640625" style="1" hidden="1"/>
-    <col min="6142" max="6142" width="21.6640625" style="1" hidden="1"/>
-    <col min="6143" max="6145" width="11.44140625" style="1" hidden="1"/>
+    <col min="5891" max="5891" width="20.42578125" style="1" hidden="1"/>
+    <col min="5892" max="6138" width="11.42578125" style="1" hidden="1"/>
+    <col min="6139" max="6139" width="15.42578125" style="1" hidden="1"/>
+    <col min="6140" max="6140" width="11.42578125" style="1" hidden="1"/>
+    <col min="6141" max="6141" width="15.7109375" style="1" hidden="1"/>
+    <col min="6142" max="6142" width="21.7109375" style="1" hidden="1"/>
+    <col min="6143" max="6145" width="11.42578125" style="1" hidden="1"/>
     <col min="6146" max="6146" width="16" style="1" hidden="1"/>
-    <col min="6147" max="6147" width="20.44140625" style="1" hidden="1"/>
-    <col min="6148" max="6394" width="11.44140625" style="1" hidden="1"/>
-    <col min="6395" max="6395" width="15.44140625" style="1" hidden="1"/>
-    <col min="6396" max="6396" width="11.44140625" style="1" hidden="1"/>
-    <col min="6397" max="6397" width="15.6640625" style="1" hidden="1"/>
-    <col min="6398" max="6398" width="21.6640625" style="1" hidden="1"/>
-    <col min="6399" max="6401" width="11.44140625" style="1" hidden="1"/>
+    <col min="6147" max="6147" width="20.42578125" style="1" hidden="1"/>
+    <col min="6148" max="6394" width="11.42578125" style="1" hidden="1"/>
+    <col min="6395" max="6395" width="15.42578125" style="1" hidden="1"/>
+    <col min="6396" max="6396" width="11.42578125" style="1" hidden="1"/>
+    <col min="6397" max="6397" width="15.7109375" style="1" hidden="1"/>
+    <col min="6398" max="6398" width="21.7109375" style="1" hidden="1"/>
+    <col min="6399" max="6401" width="11.42578125" style="1" hidden="1"/>
     <col min="6402" max="6402" width="16" style="1" hidden="1"/>
-    <col min="6403" max="6403" width="20.44140625" style="1" hidden="1"/>
-    <col min="6404" max="6650" width="11.44140625" style="1" hidden="1"/>
-    <col min="6651" max="6651" width="15.44140625" style="1" hidden="1"/>
-    <col min="6652" max="6652" width="11.44140625" style="1" hidden="1"/>
-    <col min="6653" max="6653" width="15.6640625" style="1" hidden="1"/>
-    <col min="6654" max="6654" width="21.6640625" style="1" hidden="1"/>
-    <col min="6655" max="6657" width="11.44140625" style="1" hidden="1"/>
+    <col min="6403" max="6403" width="20.42578125" style="1" hidden="1"/>
+    <col min="6404" max="6650" width="11.42578125" style="1" hidden="1"/>
+    <col min="6651" max="6651" width="15.42578125" style="1" hidden="1"/>
+    <col min="6652" max="6652" width="11.42578125" style="1" hidden="1"/>
+    <col min="6653" max="6653" width="15.7109375" style="1" hidden="1"/>
+    <col min="6654" max="6654" width="21.7109375" style="1" hidden="1"/>
+    <col min="6655" max="6657" width="11.42578125" style="1" hidden="1"/>
     <col min="6658" max="6658" width="16" style="1" hidden="1"/>
-    <col min="6659" max="6659" width="20.44140625" style="1" hidden="1"/>
-    <col min="6660" max="6906" width="11.44140625" style="1" hidden="1"/>
-    <col min="6907" max="6907" width="15.44140625" style="1" hidden="1"/>
-    <col min="6908" max="6908" width="11.44140625" style="1" hidden="1"/>
-    <col min="6909" max="6909" width="15.6640625" style="1" hidden="1"/>
-    <col min="6910" max="6910" width="21.6640625" style="1" hidden="1"/>
-    <col min="6911" max="6913" width="11.44140625" style="1" hidden="1"/>
+    <col min="6659" max="6659" width="20.42578125" style="1" hidden="1"/>
+    <col min="6660" max="6906" width="11.42578125" style="1" hidden="1"/>
+    <col min="6907" max="6907" width="15.42578125" style="1" hidden="1"/>
+    <col min="6908" max="6908" width="11.42578125" style="1" hidden="1"/>
+    <col min="6909" max="6909" width="15.7109375" style="1" hidden="1"/>
+    <col min="6910" max="6910" width="21.7109375" style="1" hidden="1"/>
+    <col min="6911" max="6913" width="11.42578125" style="1" hidden="1"/>
     <col min="6914" max="6914" width="16" style="1" hidden="1"/>
-    <col min="6915" max="6915" width="20.44140625" style="1" hidden="1"/>
-    <col min="6916" max="7162" width="11.44140625" style="1" hidden="1"/>
-    <col min="7163" max="7163" width="15.44140625" style="1" hidden="1"/>
-    <col min="7164" max="7164" width="11.44140625" style="1" hidden="1"/>
-    <col min="7165" max="7165" width="15.6640625" style="1" hidden="1"/>
-    <col min="7166" max="7166" width="21.6640625" style="1" hidden="1"/>
-    <col min="7167" max="7169" width="11.44140625" style="1" hidden="1"/>
+    <col min="6915" max="6915" width="20.42578125" style="1" hidden="1"/>
+    <col min="6916" max="7162" width="11.42578125" style="1" hidden="1"/>
+    <col min="7163" max="7163" width="15.42578125" style="1" hidden="1"/>
+    <col min="7164" max="7164" width="11.42578125" style="1" hidden="1"/>
+    <col min="7165" max="7165" width="15.7109375" style="1" hidden="1"/>
+    <col min="7166" max="7166" width="21.7109375" style="1" hidden="1"/>
+    <col min="7167" max="7169" width="11.42578125" style="1" hidden="1"/>
     <col min="7170" max="7170" width="16" style="1" hidden="1"/>
-    <col min="7171" max="7171" width="20.44140625" style="1" hidden="1"/>
-    <col min="7172" max="7418" width="11.44140625" style="1" hidden="1"/>
-    <col min="7419" max="7419" width="15.44140625" style="1" hidden="1"/>
-    <col min="7420" max="7420" width="11.44140625" style="1" hidden="1"/>
-    <col min="7421" max="7421" width="15.6640625" style="1" hidden="1"/>
-    <col min="7422" max="7422" width="21.6640625" style="1" hidden="1"/>
-    <col min="7423" max="7425" width="11.44140625" style="1" hidden="1"/>
+    <col min="7171" max="7171" width="20.42578125" style="1" hidden="1"/>
+    <col min="7172" max="7418" width="11.42578125" style="1" hidden="1"/>
+    <col min="7419" max="7419" width="15.42578125" style="1" hidden="1"/>
+    <col min="7420" max="7420" width="11.42578125" style="1" hidden="1"/>
+    <col min="7421" max="7421" width="15.7109375" style="1" hidden="1"/>
+    <col min="7422" max="7422" width="21.7109375" style="1" hidden="1"/>
+    <col min="7423" max="7425" width="11.42578125" style="1" hidden="1"/>
     <col min="7426" max="7426" width="16" style="1" hidden="1"/>
-    <col min="7427" max="7427" width="20.44140625" style="1" hidden="1"/>
-    <col min="7428" max="7674" width="11.44140625" style="1" hidden="1"/>
-    <col min="7675" max="7675" width="15.44140625" style="1" hidden="1"/>
-    <col min="7676" max="7676" width="11.44140625" style="1" hidden="1"/>
-    <col min="7677" max="7677" width="15.6640625" style="1" hidden="1"/>
-    <col min="7678" max="7678" width="21.6640625" style="1" hidden="1"/>
-    <col min="7679" max="7681" width="11.44140625" style="1" hidden="1"/>
+    <col min="7427" max="7427" width="20.42578125" style="1" hidden="1"/>
+    <col min="7428" max="7674" width="11.42578125" style="1" hidden="1"/>
+    <col min="7675" max="7675" width="15.42578125" style="1" hidden="1"/>
+    <col min="7676" max="7676" width="11.42578125" style="1" hidden="1"/>
+    <col min="7677" max="7677" width="15.7109375" style="1" hidden="1"/>
+    <col min="7678" max="7678" width="21.7109375" style="1" hidden="1"/>
+    <col min="7679" max="7681" width="11.42578125" style="1" hidden="1"/>
     <col min="7682" max="7682" width="16" style="1" hidden="1"/>
-    <col min="7683" max="7683" width="20.44140625" style="1" hidden="1"/>
-    <col min="7684" max="7930" width="11.44140625" style="1" hidden="1"/>
-    <col min="7931" max="7931" width="15.44140625" style="1" hidden="1"/>
-    <col min="7932" max="7932" width="11.44140625" style="1" hidden="1"/>
-    <col min="7933" max="7933" width="15.6640625" style="1" hidden="1"/>
-    <col min="7934" max="7934" width="21.6640625" style="1" hidden="1"/>
-    <col min="7935" max="7937" width="11.44140625" style="1" hidden="1"/>
+    <col min="7683" max="7683" width="20.42578125" style="1" hidden="1"/>
+    <col min="7684" max="7930" width="11.42578125" style="1" hidden="1"/>
+    <col min="7931" max="7931" width="15.42578125" style="1" hidden="1"/>
+    <col min="7932" max="7932" width="11.42578125" style="1" hidden="1"/>
+    <col min="7933" max="7933" width="15.7109375" style="1" hidden="1"/>
+    <col min="7934" max="7934" width="21.7109375" style="1" hidden="1"/>
+    <col min="7935" max="7937" width="11.42578125" style="1" hidden="1"/>
     <col min="7938" max="7938" width="16" style="1" hidden="1"/>
-    <col min="7939" max="7939" width="20.44140625" style="1" hidden="1"/>
-    <col min="7940" max="8186" width="11.44140625" style="1" hidden="1"/>
-    <col min="8187" max="8187" width="15.44140625" style="1" hidden="1"/>
-    <col min="8188" max="8188" width="11.44140625" style="1" hidden="1"/>
-    <col min="8189" max="8189" width="15.6640625" style="1" hidden="1"/>
-    <col min="8190" max="8190" width="21.6640625" style="1" hidden="1"/>
-    <col min="8191" max="8193" width="11.44140625" style="1" hidden="1"/>
+    <col min="7939" max="7939" width="20.42578125" style="1" hidden="1"/>
+    <col min="7940" max="8186" width="11.42578125" style="1" hidden="1"/>
+    <col min="8187" max="8187" width="15.42578125" style="1" hidden="1"/>
+    <col min="8188" max="8188" width="11.42578125" style="1" hidden="1"/>
+    <col min="8189" max="8189" width="15.7109375" style="1" hidden="1"/>
+    <col min="8190" max="8190" width="21.7109375" style="1" hidden="1"/>
+    <col min="8191" max="8193" width="11.42578125" style="1" hidden="1"/>
     <col min="8194" max="8194" width="16" style="1" hidden="1"/>
-    <col min="8195" max="8195" width="20.44140625" style="1" hidden="1"/>
-    <col min="8196" max="8442" width="11.44140625" style="1" hidden="1"/>
-    <col min="8443" max="8443" width="15.44140625" style="1" hidden="1"/>
-    <col min="8444" max="8444" width="11.44140625" style="1" hidden="1"/>
-    <col min="8445" max="8445" width="15.6640625" style="1" hidden="1"/>
-    <col min="8446" max="8446" width="21.6640625" style="1" hidden="1"/>
-    <col min="8447" max="8449" width="11.44140625" style="1" hidden="1"/>
+    <col min="8195" max="8195" width="20.42578125" style="1" hidden="1"/>
+    <col min="8196" max="8442" width="11.42578125" style="1" hidden="1"/>
+    <col min="8443" max="8443" width="15.42578125" style="1" hidden="1"/>
+    <col min="8444" max="8444" width="11.42578125" style="1" hidden="1"/>
+    <col min="8445" max="8445" width="15.7109375" style="1" hidden="1"/>
+    <col min="8446" max="8446" width="21.7109375" style="1" hidden="1"/>
+    <col min="8447" max="8449" width="11.42578125" style="1" hidden="1"/>
     <col min="8450" max="8450" width="16" style="1" hidden="1"/>
-    <col min="8451" max="8451" width="20.44140625" style="1" hidden="1"/>
-    <col min="8452" max="8698" width="11.44140625" style="1" hidden="1"/>
-    <col min="8699" max="8699" width="15.44140625" style="1" hidden="1"/>
-    <col min="8700" max="8700" width="11.44140625" style="1" hidden="1"/>
-    <col min="8701" max="8701" width="15.6640625" style="1" hidden="1"/>
-    <col min="8702" max="8702" width="21.6640625" style="1" hidden="1"/>
-    <col min="8703" max="8705" width="11.44140625" style="1" hidden="1"/>
+    <col min="8451" max="8451" width="20.42578125" style="1" hidden="1"/>
+    <col min="8452" max="8698" width="11.42578125" style="1" hidden="1"/>
+    <col min="8699" max="8699" width="15.42578125" style="1" hidden="1"/>
+    <col min="8700" max="8700" width="11.42578125" style="1" hidden="1"/>
+    <col min="8701" max="8701" width="15.7109375" style="1" hidden="1"/>
+    <col min="8702" max="8702" width="21.7109375" style="1" hidden="1"/>
+    <col min="8703" max="8705" width="11.42578125" style="1" hidden="1"/>
     <col min="8706" max="8706" width="16" style="1" hidden="1"/>
-    <col min="8707" max="8707" width="20.44140625" style="1" hidden="1"/>
-    <col min="8708" max="8954" width="11.44140625" style="1" hidden="1"/>
-    <col min="8955" max="8955" width="15.44140625" style="1" hidden="1"/>
-    <col min="8956" max="8956" width="11.44140625" style="1" hidden="1"/>
-    <col min="8957" max="8957" width="15.6640625" style="1" hidden="1"/>
-    <col min="8958" max="8958" width="21.6640625" style="1" hidden="1"/>
-    <col min="8959" max="8961" width="11.44140625" style="1" hidden="1"/>
+    <col min="8707" max="8707" width="20.42578125" style="1" hidden="1"/>
+    <col min="8708" max="8954" width="11.42578125" style="1" hidden="1"/>
+    <col min="8955" max="8955" width="15.42578125" style="1" hidden="1"/>
+    <col min="8956" max="8956" width="11.42578125" style="1" hidden="1"/>
+    <col min="8957" max="8957" width="15.7109375" style="1" hidden="1"/>
+    <col min="8958" max="8958" width="21.7109375" style="1" hidden="1"/>
+    <col min="8959" max="8961" width="11.42578125" style="1" hidden="1"/>
     <col min="8962" max="8962" width="16" style="1" hidden="1"/>
-    <col min="8963" max="8963" width="20.44140625" style="1" hidden="1"/>
-    <col min="8964" max="9210" width="11.44140625" style="1" hidden="1"/>
-    <col min="9211" max="9211" width="15.44140625" style="1" hidden="1"/>
-    <col min="9212" max="9212" width="11.44140625" style="1" hidden="1"/>
-    <col min="9213" max="9213" width="15.6640625" style="1" hidden="1"/>
-    <col min="9214" max="9214" width="21.6640625" style="1" hidden="1"/>
-    <col min="9215" max="9217" width="11.44140625" style="1" hidden="1"/>
+    <col min="8963" max="8963" width="20.42578125" style="1" hidden="1"/>
+    <col min="8964" max="9210" width="11.42578125" style="1" hidden="1"/>
+    <col min="9211" max="9211" width="15.42578125" style="1" hidden="1"/>
+    <col min="9212" max="9212" width="11.42578125" style="1" hidden="1"/>
+    <col min="9213" max="9213" width="15.7109375" style="1" hidden="1"/>
+    <col min="9214" max="9214" width="21.7109375" style="1" hidden="1"/>
+    <col min="9215" max="9217" width="11.42578125" style="1" hidden="1"/>
     <col min="9218" max="9218" width="16" style="1" hidden="1"/>
-    <col min="9219" max="9219" width="20.44140625" style="1" hidden="1"/>
-    <col min="9220" max="9466" width="11.44140625" style="1" hidden="1"/>
-    <col min="9467" max="9467" width="15.44140625" style="1" hidden="1"/>
-    <col min="9468" max="9468" width="11.44140625" style="1" hidden="1"/>
-    <col min="9469" max="9469" width="15.6640625" style="1" hidden="1"/>
-    <col min="9470" max="9470" width="21.6640625" style="1" hidden="1"/>
-    <col min="9471" max="9473" width="11.44140625" style="1" hidden="1"/>
+    <col min="9219" max="9219" width="20.42578125" style="1" hidden="1"/>
+    <col min="9220" max="9466" width="11.42578125" style="1" hidden="1"/>
+    <col min="9467" max="9467" width="15.42578125" style="1" hidden="1"/>
+    <col min="9468" max="9468" width="11.42578125" style="1" hidden="1"/>
+    <col min="9469" max="9469" width="15.7109375" style="1" hidden="1"/>
+    <col min="9470" max="9470" width="21.7109375" style="1" hidden="1"/>
+    <col min="9471" max="9473" width="11.42578125" style="1" hidden="1"/>
     <col min="9474" max="9474" width="16" style="1" hidden="1"/>
-    <col min="9475" max="9475" width="20.44140625" style="1" hidden="1"/>
-    <col min="9476" max="9722" width="11.44140625" style="1" hidden="1"/>
-    <col min="9723" max="9723" width="15.44140625" style="1" hidden="1"/>
-    <col min="9724" max="9724" width="11.44140625" style="1" hidden="1"/>
-    <col min="9725" max="9725" width="15.6640625" style="1" hidden="1"/>
-    <col min="9726" max="9726" width="21.6640625" style="1" hidden="1"/>
-    <col min="9727" max="9729" width="11.44140625" style="1" hidden="1"/>
+    <col min="9475" max="9475" width="20.42578125" style="1" hidden="1"/>
+    <col min="9476" max="9722" width="11.42578125" style="1" hidden="1"/>
+    <col min="9723" max="9723" width="15.42578125" style="1" hidden="1"/>
+    <col min="9724" max="9724" width="11.42578125" style="1" hidden="1"/>
+    <col min="9725" max="9725" width="15.7109375" style="1" hidden="1"/>
+    <col min="9726" max="9726" width="21.7109375" style="1" hidden="1"/>
+    <col min="9727" max="9729" width="11.42578125" style="1" hidden="1"/>
     <col min="9730" max="9730" width="16" style="1" hidden="1"/>
-    <col min="9731" max="9731" width="20.44140625" style="1" hidden="1"/>
-    <col min="9732" max="9978" width="11.44140625" style="1" hidden="1"/>
-    <col min="9979" max="9979" width="15.44140625" style="1" hidden="1"/>
-    <col min="9980" max="9980" width="11.44140625" style="1" hidden="1"/>
-    <col min="9981" max="9981" width="15.6640625" style="1" hidden="1"/>
-    <col min="9982" max="9982" width="21.6640625" style="1" hidden="1"/>
-    <col min="9983" max="9985" width="11.44140625" style="1" hidden="1"/>
+    <col min="9731" max="9731" width="20.42578125" style="1" hidden="1"/>
+    <col min="9732" max="9978" width="11.42578125" style="1" hidden="1"/>
+    <col min="9979" max="9979" width="15.42578125" style="1" hidden="1"/>
+    <col min="9980" max="9980" width="11.42578125" style="1" hidden="1"/>
+    <col min="9981" max="9981" width="15.7109375" style="1" hidden="1"/>
+    <col min="9982" max="9982" width="21.7109375" style="1" hidden="1"/>
+    <col min="9983" max="9985" width="11.42578125" style="1" hidden="1"/>
     <col min="9986" max="9986" width="16" style="1" hidden="1"/>
-    <col min="9987" max="9987" width="20.44140625" style="1" hidden="1"/>
-    <col min="9988" max="10234" width="11.44140625" style="1" hidden="1"/>
-    <col min="10235" max="10235" width="15.44140625" style="1" hidden="1"/>
-    <col min="10236" max="10236" width="11.44140625" style="1" hidden="1"/>
-    <col min="10237" max="10237" width="15.6640625" style="1" hidden="1"/>
-    <col min="10238" max="10238" width="21.6640625" style="1" hidden="1"/>
-    <col min="10239" max="10241" width="11.44140625" style="1" hidden="1"/>
+    <col min="9987" max="9987" width="20.42578125" style="1" hidden="1"/>
+    <col min="9988" max="10234" width="11.42578125" style="1" hidden="1"/>
+    <col min="10235" max="10235" width="15.42578125" style="1" hidden="1"/>
+    <col min="10236" max="10236" width="11.42578125" style="1" hidden="1"/>
+    <col min="10237" max="10237" width="15.7109375" style="1" hidden="1"/>
+    <col min="10238" max="10238" width="21.7109375" style="1" hidden="1"/>
+    <col min="10239" max="10241" width="11.42578125" style="1" hidden="1"/>
     <col min="10242" max="10242" width="16" style="1" hidden="1"/>
-    <col min="10243" max="10243" width="20.44140625" style="1" hidden="1"/>
-    <col min="10244" max="10490" width="11.44140625" style="1" hidden="1"/>
-    <col min="10491" max="10491" width="15.44140625" style="1" hidden="1"/>
-    <col min="10492" max="10492" width="11.44140625" style="1" hidden="1"/>
-    <col min="10493" max="10493" width="15.6640625" style="1" hidden="1"/>
-    <col min="10494" max="10494" width="21.6640625" style="1" hidden="1"/>
-    <col min="10495" max="10497" width="11.44140625" style="1" hidden="1"/>
+    <col min="10243" max="10243" width="20.42578125" style="1" hidden="1"/>
+    <col min="10244" max="10490" width="11.42578125" style="1" hidden="1"/>
+    <col min="10491" max="10491" width="15.42578125" style="1" hidden="1"/>
+    <col min="10492" max="10492" width="11.42578125" style="1" hidden="1"/>
+    <col min="10493" max="10493" width="15.7109375" style="1" hidden="1"/>
+    <col min="10494" max="10494" width="21.7109375" style="1" hidden="1"/>
+    <col min="10495" max="10497" width="11.42578125" style="1" hidden="1"/>
     <col min="10498" max="10498" width="16" style="1" hidden="1"/>
-    <col min="10499" max="10499" width="20.44140625" style="1" hidden="1"/>
-    <col min="10500" max="10746" width="11.44140625" style="1" hidden="1"/>
-    <col min="10747" max="10747" width="15.44140625" style="1" hidden="1"/>
-    <col min="10748" max="10748" width="11.44140625" style="1" hidden="1"/>
-    <col min="10749" max="10749" width="15.6640625" style="1" hidden="1"/>
-    <col min="10750" max="10750" width="21.6640625" style="1" hidden="1"/>
-    <col min="10751" max="10753" width="11.44140625" style="1" hidden="1"/>
+    <col min="10499" max="10499" width="20.42578125" style="1" hidden="1"/>
+    <col min="10500" max="10746" width="11.42578125" style="1" hidden="1"/>
+    <col min="10747" max="10747" width="15.42578125" style="1" hidden="1"/>
+    <col min="10748" max="10748" width="11.42578125" style="1" hidden="1"/>
+    <col min="10749" max="10749" width="15.7109375" style="1" hidden="1"/>
+    <col min="10750" max="10750" width="21.7109375" style="1" hidden="1"/>
+    <col min="10751" max="10753" width="11.42578125" style="1" hidden="1"/>
     <col min="10754" max="10754" width="16" style="1" hidden="1"/>
-    <col min="10755" max="10755" width="20.44140625" style="1" hidden="1"/>
-    <col min="10756" max="11002" width="11.44140625" style="1" hidden="1"/>
-    <col min="11003" max="11003" width="15.44140625" style="1" hidden="1"/>
-    <col min="11004" max="11004" width="11.44140625" style="1" hidden="1"/>
-    <col min="11005" max="11005" width="15.6640625" style="1" hidden="1"/>
-    <col min="11006" max="11006" width="21.6640625" style="1" hidden="1"/>
-    <col min="11007" max="11009" width="11.44140625" style="1" hidden="1"/>
+    <col min="10755" max="10755" width="20.42578125" style="1" hidden="1"/>
+    <col min="10756" max="11002" width="11.42578125" style="1" hidden="1"/>
+    <col min="11003" max="11003" width="15.42578125" style="1" hidden="1"/>
+    <col min="11004" max="11004" width="11.42578125" style="1" hidden="1"/>
+    <col min="11005" max="11005" width="15.7109375" style="1" hidden="1"/>
+    <col min="11006" max="11006" width="21.7109375" style="1" hidden="1"/>
+    <col min="11007" max="11009" width="11.42578125" style="1" hidden="1"/>
     <col min="11010" max="11010" width="16" style="1" hidden="1"/>
-    <col min="11011" max="11011" width="20.44140625" style="1" hidden="1"/>
-    <col min="11012" max="11258" width="11.44140625" style="1" hidden="1"/>
-    <col min="11259" max="11259" width="15.44140625" style="1" hidden="1"/>
-    <col min="11260" max="11260" width="11.44140625" style="1" hidden="1"/>
-    <col min="11261" max="11261" width="15.6640625" style="1" hidden="1"/>
-    <col min="11262" max="11262" width="21.6640625" style="1" hidden="1"/>
-    <col min="11263" max="11265" width="11.44140625" style="1" hidden="1"/>
+    <col min="11011" max="11011" width="20.42578125" style="1" hidden="1"/>
+    <col min="11012" max="11258" width="11.42578125" style="1" hidden="1"/>
+    <col min="11259" max="11259" width="15.42578125" style="1" hidden="1"/>
+    <col min="11260" max="11260" width="11.42578125" style="1" hidden="1"/>
+    <col min="11261" max="11261" width="15.7109375" style="1" hidden="1"/>
+    <col min="11262" max="11262" width="21.7109375" style="1" hidden="1"/>
+    <col min="11263" max="11265" width="11.42578125" style="1" hidden="1"/>
     <col min="11266" max="11266" width="16" style="1" hidden="1"/>
-    <col min="11267" max="11267" width="20.44140625" style="1" hidden="1"/>
-    <col min="11268" max="11514" width="11.44140625" style="1" hidden="1"/>
-    <col min="11515" max="11515" width="15.44140625" style="1" hidden="1"/>
-    <col min="11516" max="11516" width="11.44140625" style="1" hidden="1"/>
-    <col min="11517" max="11517" width="15.6640625" style="1" hidden="1"/>
-    <col min="11518" max="11518" width="21.6640625" style="1" hidden="1"/>
-    <col min="11519" max="11521" width="11.44140625" style="1" hidden="1"/>
+    <col min="11267" max="11267" width="20.42578125" style="1" hidden="1"/>
+    <col min="11268" max="11514" width="11.42578125" style="1" hidden="1"/>
+    <col min="11515" max="11515" width="15.42578125" style="1" hidden="1"/>
+    <col min="11516" max="11516" width="11.42578125" style="1" hidden="1"/>
+    <col min="11517" max="11517" width="15.7109375" style="1" hidden="1"/>
+    <col min="11518" max="11518" width="21.7109375" style="1" hidden="1"/>
+    <col min="11519" max="11521" width="11.42578125" style="1" hidden="1"/>
     <col min="11522" max="11522" width="16" style="1" hidden="1"/>
-    <col min="11523" max="11523" width="20.44140625" style="1" hidden="1"/>
-    <col min="11524" max="11770" width="11.44140625" style="1" hidden="1"/>
-    <col min="11771" max="11771" width="15.44140625" style="1" hidden="1"/>
-    <col min="11772" max="11772" width="11.44140625" style="1" hidden="1"/>
-    <col min="11773" max="11773" width="15.6640625" style="1" hidden="1"/>
-    <col min="11774" max="11774" width="21.6640625" style="1" hidden="1"/>
-    <col min="11775" max="11777" width="11.44140625" style="1" hidden="1"/>
+    <col min="11523" max="11523" width="20.42578125" style="1" hidden="1"/>
+    <col min="11524" max="11770" width="11.42578125" style="1" hidden="1"/>
+    <col min="11771" max="11771" width="15.42578125" style="1" hidden="1"/>
+    <col min="11772" max="11772" width="11.42578125" style="1" hidden="1"/>
+    <col min="11773" max="11773" width="15.7109375" style="1" hidden="1"/>
+    <col min="11774" max="11774" width="21.7109375" style="1" hidden="1"/>
+    <col min="11775" max="11777" width="11.42578125" style="1" hidden="1"/>
     <col min="11778" max="11778" width="16" style="1" hidden="1"/>
-    <col min="11779" max="11779" width="20.44140625" style="1" hidden="1"/>
-    <col min="11780" max="12026" width="11.44140625" style="1" hidden="1"/>
-    <col min="12027" max="12027" width="15.44140625" style="1" hidden="1"/>
-    <col min="12028" max="12028" width="11.44140625" style="1" hidden="1"/>
-    <col min="12029" max="12029" width="15.6640625" style="1" hidden="1"/>
-    <col min="12030" max="12030" width="21.6640625" style="1" hidden="1"/>
-    <col min="12031" max="12033" width="11.44140625" style="1" hidden="1"/>
+    <col min="11779" max="11779" width="20.42578125" style="1" hidden="1"/>
+    <col min="11780" max="12026" width="11.42578125" style="1" hidden="1"/>
+    <col min="12027" max="12027" width="15.42578125" style="1" hidden="1"/>
+    <col min="12028" max="12028" width="11.42578125" style="1" hidden="1"/>
+    <col min="12029" max="12029" width="15.7109375" style="1" hidden="1"/>
+    <col min="12030" max="12030" width="21.7109375" style="1" hidden="1"/>
+    <col min="12031" max="12033" width="11.42578125" style="1" hidden="1"/>
     <col min="12034" max="12034" width="16" style="1" hidden="1"/>
-    <col min="12035" max="12035" width="20.44140625" style="1" hidden="1"/>
-    <col min="12036" max="12282" width="11.44140625" style="1" hidden="1"/>
-    <col min="12283" max="12283" width="15.44140625" style="1" hidden="1"/>
-    <col min="12284" max="12284" width="11.44140625" style="1" hidden="1"/>
-    <col min="12285" max="12285" width="15.6640625" style="1" hidden="1"/>
-    <col min="12286" max="12286" width="21.6640625" style="1" hidden="1"/>
-    <col min="12287" max="12289" width="11.44140625" style="1" hidden="1"/>
+    <col min="12035" max="12035" width="20.42578125" style="1" hidden="1"/>
+    <col min="12036" max="12282" width="11.42578125" style="1" hidden="1"/>
+    <col min="12283" max="12283" width="15.42578125" style="1" hidden="1"/>
+    <col min="12284" max="12284" width="11.42578125" style="1" hidden="1"/>
+    <col min="12285" max="12285" width="15.7109375" style="1" hidden="1"/>
+    <col min="12286" max="12286" width="21.7109375" style="1" hidden="1"/>
+    <col min="12287" max="12289" width="11.42578125" style="1" hidden="1"/>
     <col min="12290" max="12290" width="16" style="1" hidden="1"/>
-    <col min="12291" max="12291" width="20.44140625" style="1" hidden="1"/>
-    <col min="12292" max="12538" width="11.44140625" style="1" hidden="1"/>
-    <col min="12539" max="12539" width="15.44140625" style="1" hidden="1"/>
-    <col min="12540" max="12540" width="11.44140625" style="1" hidden="1"/>
-    <col min="12541" max="12541" width="15.6640625" style="1" hidden="1"/>
-    <col min="12542" max="12542" width="21.6640625" style="1" hidden="1"/>
-    <col min="12543" max="12545" width="11.44140625" style="1" hidden="1"/>
+    <col min="12291" max="12291" width="20.42578125" style="1" hidden="1"/>
+    <col min="12292" max="12538" width="11.42578125" style="1" hidden="1"/>
+    <col min="12539" max="12539" width="15.42578125" style="1" hidden="1"/>
+    <col min="12540" max="12540" width="11.42578125" style="1" hidden="1"/>
+    <col min="12541" max="12541" width="15.7109375" style="1" hidden="1"/>
+    <col min="12542" max="12542" width="21.7109375" style="1" hidden="1"/>
+    <col min="12543" max="12545" width="11.42578125" style="1" hidden="1"/>
     <col min="12546" max="12546" width="16" style="1" hidden="1"/>
-    <col min="12547" max="12547" width="20.44140625" style="1" hidden="1"/>
-    <col min="12548" max="12794" width="11.44140625" style="1" hidden="1"/>
-    <col min="12795" max="12795" width="15.44140625" style="1" hidden="1"/>
-    <col min="12796" max="12796" width="11.44140625" style="1" hidden="1"/>
-    <col min="12797" max="12797" width="15.6640625" style="1" hidden="1"/>
-    <col min="12798" max="12798" width="21.6640625" style="1" hidden="1"/>
-    <col min="12799" max="12801" width="11.44140625" style="1" hidden="1"/>
+    <col min="12547" max="12547" width="20.42578125" style="1" hidden="1"/>
+    <col min="12548" max="12794" width="11.42578125" style="1" hidden="1"/>
+    <col min="12795" max="12795" width="15.42578125" style="1" hidden="1"/>
+    <col min="12796" max="12796" width="11.42578125" style="1" hidden="1"/>
+    <col min="12797" max="12797" width="15.7109375" style="1" hidden="1"/>
+    <col min="12798" max="12798" width="21.7109375" style="1" hidden="1"/>
+    <col min="12799" max="12801" width="11.42578125" style="1" hidden="1"/>
     <col min="12802" max="12802" width="16" style="1" hidden="1"/>
-    <col min="12803" max="12803" width="20.44140625" style="1" hidden="1"/>
-    <col min="12804" max="13050" width="11.44140625" style="1" hidden="1"/>
-    <col min="13051" max="13051" width="15.44140625" style="1" hidden="1"/>
-    <col min="13052" max="13052" width="11.44140625" style="1" hidden="1"/>
-    <col min="13053" max="13053" width="15.6640625" style="1" hidden="1"/>
-    <col min="13054" max="13054" width="21.6640625" style="1" hidden="1"/>
-    <col min="13055" max="13057" width="11.44140625" style="1" hidden="1"/>
+    <col min="12803" max="12803" width="20.42578125" style="1" hidden="1"/>
+    <col min="12804" max="13050" width="11.42578125" style="1" hidden="1"/>
+    <col min="13051" max="13051" width="15.42578125" style="1" hidden="1"/>
+    <col min="13052" max="13052" width="11.42578125" style="1" hidden="1"/>
+    <col min="13053" max="13053" width="15.7109375" style="1" hidden="1"/>
+    <col min="13054" max="13054" width="21.7109375" style="1" hidden="1"/>
+    <col min="13055" max="13057" width="11.42578125" style="1" hidden="1"/>
     <col min="13058" max="13058" width="16" style="1" hidden="1"/>
-    <col min="13059" max="13059" width="20.44140625" style="1" hidden="1"/>
-    <col min="13060" max="13306" width="11.44140625" style="1" hidden="1"/>
-    <col min="13307" max="13307" width="15.44140625" style="1" hidden="1"/>
-    <col min="13308" max="13308" width="11.44140625" style="1" hidden="1"/>
-    <col min="13309" max="13309" width="15.6640625" style="1" hidden="1"/>
-    <col min="13310" max="13310" width="21.6640625" style="1" hidden="1"/>
-    <col min="13311" max="13313" width="11.44140625" style="1" hidden="1"/>
+    <col min="13059" max="13059" width="20.42578125" style="1" hidden="1"/>
+    <col min="13060" max="13306" width="11.42578125" style="1" hidden="1"/>
+    <col min="13307" max="13307" width="15.42578125" style="1" hidden="1"/>
+    <col min="13308" max="13308" width="11.42578125" style="1" hidden="1"/>
+    <col min="13309" max="13309" width="15.7109375" style="1" hidden="1"/>
+    <col min="13310" max="13310" width="21.7109375" style="1" hidden="1"/>
+    <col min="13311" max="13313" width="11.42578125" style="1" hidden="1"/>
     <col min="13314" max="13314" width="16" style="1" hidden="1"/>
-    <col min="13315" max="13315" width="20.44140625" style="1" hidden="1"/>
-    <col min="13316" max="13562" width="11.44140625" style="1" hidden="1"/>
-    <col min="13563" max="13563" width="15.44140625" style="1" hidden="1"/>
-    <col min="13564" max="13564" width="11.44140625" style="1" hidden="1"/>
-    <col min="13565" max="13565" width="15.6640625" style="1" hidden="1"/>
-    <col min="13566" max="13566" width="21.6640625" style="1" hidden="1"/>
-    <col min="13567" max="13569" width="11.44140625" style="1" hidden="1"/>
+    <col min="13315" max="13315" width="20.42578125" style="1" hidden="1"/>
+    <col min="13316" max="13562" width="11.42578125" style="1" hidden="1"/>
+    <col min="13563" max="13563" width="15.42578125" style="1" hidden="1"/>
+    <col min="13564" max="13564" width="11.42578125" style="1" hidden="1"/>
+    <col min="13565" max="13565" width="15.7109375" style="1" hidden="1"/>
+    <col min="13566" max="13566" width="21.7109375" style="1" hidden="1"/>
+    <col min="13567" max="13569" width="11.42578125" style="1" hidden="1"/>
     <col min="13570" max="13570" width="16" style="1" hidden="1"/>
-    <col min="13571" max="13571" width="20.44140625" style="1" hidden="1"/>
-    <col min="13572" max="13818" width="11.44140625" style="1" hidden="1"/>
-    <col min="13819" max="13819" width="15.44140625" style="1" hidden="1"/>
-    <col min="13820" max="13820" width="11.44140625" style="1" hidden="1"/>
-    <col min="13821" max="13821" width="15.6640625" style="1" hidden="1"/>
-    <col min="13822" max="13822" width="21.6640625" style="1" hidden="1"/>
-    <col min="13823" max="13825" width="11.44140625" style="1" hidden="1"/>
+    <col min="13571" max="13571" width="20.42578125" style="1" hidden="1"/>
+    <col min="13572" max="13818" width="11.42578125" style="1" hidden="1"/>
+    <col min="13819" max="13819" width="15.42578125" style="1" hidden="1"/>
+    <col min="13820" max="13820" width="11.42578125" style="1" hidden="1"/>
+    <col min="13821" max="13821" width="15.7109375" style="1" hidden="1"/>
+    <col min="13822" max="13822" width="21.7109375" style="1" hidden="1"/>
+    <col min="13823" max="13825" width="11.42578125" style="1" hidden="1"/>
     <col min="13826" max="13826" width="16" style="1" hidden="1"/>
-    <col min="13827" max="13827" width="20.44140625" style="1" hidden="1"/>
-    <col min="13828" max="14074" width="11.44140625" style="1" hidden="1"/>
-    <col min="14075" max="14075" width="15.44140625" style="1" hidden="1"/>
-    <col min="14076" max="14076" width="11.44140625" style="1" hidden="1"/>
-    <col min="14077" max="14077" width="15.6640625" style="1" hidden="1"/>
-    <col min="14078" max="14078" width="21.6640625" style="1" hidden="1"/>
-    <col min="14079" max="14081" width="11.44140625" style="1" hidden="1"/>
+    <col min="13827" max="13827" width="20.42578125" style="1" hidden="1"/>
+    <col min="13828" max="14074" width="11.42578125" style="1" hidden="1"/>
+    <col min="14075" max="14075" width="15.42578125" style="1" hidden="1"/>
+    <col min="14076" max="14076" width="11.42578125" style="1" hidden="1"/>
+    <col min="14077" max="14077" width="15.7109375" style="1" hidden="1"/>
+    <col min="14078" max="14078" width="21.7109375" style="1" hidden="1"/>
+    <col min="14079" max="14081" width="11.42578125" style="1" hidden="1"/>
     <col min="14082" max="14082" width="16" style="1" hidden="1"/>
-    <col min="14083" max="14083" width="20.44140625" style="1" hidden="1"/>
-    <col min="14084" max="14330" width="11.44140625" style="1" hidden="1"/>
-    <col min="14331" max="14331" width="15.44140625" style="1" hidden="1"/>
-    <col min="14332" max="14332" width="11.44140625" style="1" hidden="1"/>
-    <col min="14333" max="14333" width="15.6640625" style="1" hidden="1"/>
-    <col min="14334" max="14334" width="21.6640625" style="1" hidden="1"/>
-    <col min="14335" max="14337" width="11.44140625" style="1" hidden="1"/>
+    <col min="14083" max="14083" width="20.42578125" style="1" hidden="1"/>
+    <col min="14084" max="14330" width="11.42578125" style="1" hidden="1"/>
+    <col min="14331" max="14331" width="15.42578125" style="1" hidden="1"/>
+    <col min="14332" max="14332" width="11.42578125" style="1" hidden="1"/>
+    <col min="14333" max="14333" width="15.7109375" style="1" hidden="1"/>
+    <col min="14334" max="14334" width="21.7109375" style="1" hidden="1"/>
+    <col min="14335" max="14337" width="11.42578125" style="1" hidden="1"/>
     <col min="14338" max="14338" width="16" style="1" hidden="1"/>
-    <col min="14339" max="14339" width="20.44140625" style="1" hidden="1"/>
-    <col min="14340" max="14586" width="11.44140625" style="1" hidden="1"/>
-    <col min="14587" max="14587" width="15.44140625" style="1" hidden="1"/>
-    <col min="14588" max="14588" width="11.44140625" style="1" hidden="1"/>
-    <col min="14589" max="14589" width="15.6640625" style="1" hidden="1"/>
-    <col min="14590" max="14590" width="21.6640625" style="1" hidden="1"/>
-    <col min="14591" max="14593" width="11.44140625" style="1" hidden="1"/>
+    <col min="14339" max="14339" width="20.42578125" style="1" hidden="1"/>
+    <col min="14340" max="14586" width="11.42578125" style="1" hidden="1"/>
+    <col min="14587" max="14587" width="15.42578125" style="1" hidden="1"/>
+    <col min="14588" max="14588" width="11.42578125" style="1" hidden="1"/>
+    <col min="14589" max="14589" width="15.7109375" style="1" hidden="1"/>
+    <col min="14590" max="14590" width="21.7109375" style="1" hidden="1"/>
+    <col min="14591" max="14593" width="11.42578125" style="1" hidden="1"/>
     <col min="14594" max="14594" width="16" style="1" hidden="1"/>
-    <col min="14595" max="14595" width="20.44140625" style="1" hidden="1"/>
-    <col min="14596" max="14842" width="11.44140625" style="1" hidden="1"/>
-    <col min="14843" max="14843" width="15.44140625" style="1" hidden="1"/>
-    <col min="14844" max="14844" width="11.44140625" style="1" hidden="1"/>
-    <col min="14845" max="14845" width="15.6640625" style="1" hidden="1"/>
-    <col min="14846" max="14846" width="21.6640625" style="1" hidden="1"/>
-    <col min="14847" max="14849" width="11.44140625" style="1" hidden="1"/>
+    <col min="14595" max="14595" width="20.42578125" style="1" hidden="1"/>
+    <col min="14596" max="14842" width="11.42578125" style="1" hidden="1"/>
+    <col min="14843" max="14843" width="15.42578125" style="1" hidden="1"/>
+    <col min="14844" max="14844" width="11.42578125" style="1" hidden="1"/>
+    <col min="14845" max="14845" width="15.7109375" style="1" hidden="1"/>
+    <col min="14846" max="14846" width="21.7109375" style="1" hidden="1"/>
+    <col min="14847" max="14849" width="11.42578125" style="1" hidden="1"/>
     <col min="14850" max="14850" width="16" style="1" hidden="1"/>
-    <col min="14851" max="14851" width="20.44140625" style="1" hidden="1"/>
-    <col min="14852" max="15098" width="11.44140625" style="1" hidden="1"/>
-    <col min="15099" max="15099" width="15.44140625" style="1" hidden="1"/>
-    <col min="15100" max="15100" width="11.44140625" style="1" hidden="1"/>
-    <col min="15101" max="15101" width="15.6640625" style="1" hidden="1"/>
-    <col min="15102" max="15102" width="21.6640625" style="1" hidden="1"/>
-    <col min="15103" max="15105" width="11.44140625" style="1" hidden="1"/>
+    <col min="14851" max="14851" width="20.42578125" style="1" hidden="1"/>
+    <col min="14852" max="15098" width="11.42578125" style="1" hidden="1"/>
+    <col min="15099" max="15099" width="15.42578125" style="1" hidden="1"/>
+    <col min="15100" max="15100" width="11.42578125" style="1" hidden="1"/>
+    <col min="15101" max="15101" width="15.7109375" style="1" hidden="1"/>
+    <col min="15102" max="15102" width="21.7109375" style="1" hidden="1"/>
+    <col min="15103" max="15105" width="11.42578125" style="1" hidden="1"/>
     <col min="15106" max="15106" width="16" style="1" hidden="1"/>
-    <col min="15107" max="15107" width="20.44140625" style="1" hidden="1"/>
-    <col min="15108" max="15354" width="11.44140625" style="1" hidden="1"/>
-    <col min="15355" max="15355" width="15.44140625" style="1" hidden="1"/>
-    <col min="15356" max="15356" width="11.44140625" style="1" hidden="1"/>
-    <col min="15357" max="15357" width="15.6640625" style="1" hidden="1"/>
-    <col min="15358" max="15358" width="21.6640625" style="1" hidden="1"/>
-    <col min="15359" max="15361" width="11.44140625" style="1" hidden="1"/>
+    <col min="15107" max="15107" width="20.42578125" style="1" hidden="1"/>
+    <col min="15108" max="15354" width="11.42578125" style="1" hidden="1"/>
+    <col min="15355" max="15355" width="15.42578125" style="1" hidden="1"/>
+    <col min="15356" max="15356" width="11.42578125" style="1" hidden="1"/>
+    <col min="15357" max="15357" width="15.7109375" style="1" hidden="1"/>
+    <col min="15358" max="15358" width="21.7109375" style="1" hidden="1"/>
+    <col min="15359" max="15361" width="11.42578125" style="1" hidden="1"/>
     <col min="15362" max="15362" width="16" style="1" hidden="1"/>
-    <col min="15363" max="15363" width="20.44140625" style="1" hidden="1"/>
-    <col min="15364" max="15610" width="11.44140625" style="1" hidden="1"/>
-    <col min="15611" max="15611" width="15.44140625" style="1" hidden="1"/>
-    <col min="15612" max="15612" width="11.44140625" style="1" hidden="1"/>
-    <col min="15613" max="15613" width="15.6640625" style="1" hidden="1"/>
-    <col min="15614" max="15614" width="21.6640625" style="1" hidden="1"/>
-    <col min="15615" max="15617" width="11.44140625" style="1" hidden="1"/>
+    <col min="15363" max="15363" width="20.42578125" style="1" hidden="1"/>
+    <col min="15364" max="15610" width="11.42578125" style="1" hidden="1"/>
+    <col min="15611" max="15611" width="15.42578125" style="1" hidden="1"/>
+    <col min="15612" max="15612" width="11.42578125" style="1" hidden="1"/>
+    <col min="15613" max="15613" width="15.7109375" style="1" hidden="1"/>
+    <col min="15614" max="15614" width="21.7109375" style="1" hidden="1"/>
+    <col min="15615" max="15617" width="11.42578125" style="1" hidden="1"/>
     <col min="15618" max="15618" width="16" style="1" hidden="1"/>
-    <col min="15619" max="15619" width="20.44140625" style="1" hidden="1"/>
-    <col min="15620" max="15866" width="11.44140625" style="1" hidden="1"/>
-    <col min="15867" max="15867" width="15.44140625" style="1" hidden="1"/>
-    <col min="15868" max="15868" width="11.44140625" style="1" hidden="1"/>
-    <col min="15869" max="15869" width="15.6640625" style="1" hidden="1"/>
-    <col min="15870" max="15870" width="21.6640625" style="1" hidden="1"/>
-    <col min="15871" max="15873" width="11.44140625" style="1" hidden="1"/>
+    <col min="15619" max="15619" width="20.42578125" style="1" hidden="1"/>
+    <col min="15620" max="15866" width="11.42578125" style="1" hidden="1"/>
+    <col min="15867" max="15867" width="15.42578125" style="1" hidden="1"/>
+    <col min="15868" max="15868" width="11.42578125" style="1" hidden="1"/>
+    <col min="15869" max="15869" width="15.7109375" style="1" hidden="1"/>
+    <col min="15870" max="15870" width="21.7109375" style="1" hidden="1"/>
+    <col min="15871" max="15873" width="11.42578125" style="1" hidden="1"/>
     <col min="15874" max="15874" width="16" style="1" hidden="1"/>
-    <col min="15875" max="15875" width="20.44140625" style="1" hidden="1"/>
-    <col min="15876" max="16122" width="11.44140625" style="1" hidden="1"/>
-    <col min="16123" max="16123" width="15.44140625" style="1" hidden="1"/>
-    <col min="16124" max="16124" width="11.44140625" style="1" hidden="1"/>
-    <col min="16125" max="16125" width="15.6640625" style="1" hidden="1"/>
-    <col min="16126" max="16126" width="21.6640625" style="1" hidden="1"/>
-    <col min="16127" max="16129" width="11.44140625" style="1" hidden="1"/>
+    <col min="15875" max="15875" width="20.42578125" style="1" hidden="1"/>
+    <col min="15876" max="16122" width="11.42578125" style="1" hidden="1"/>
+    <col min="16123" max="16123" width="15.42578125" style="1" hidden="1"/>
+    <col min="16124" max="16124" width="11.42578125" style="1" hidden="1"/>
+    <col min="16125" max="16125" width="15.7109375" style="1" hidden="1"/>
+    <col min="16126" max="16126" width="21.7109375" style="1" hidden="1"/>
+    <col min="16127" max="16129" width="11.42578125" style="1" hidden="1"/>
     <col min="16130" max="16130" width="16" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="20.44140625" style="1" hidden="1"/>
-    <col min="16132" max="16132" width="11.44140625" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="20.42578125" style="1" hidden="1"/>
+    <col min="16132" max="16132" width="11.42578125" style="1" hidden="1"/>
     <col min="16133" max="16133" width="16" style="1" hidden="1"/>
-    <col min="16134" max="16134" width="20.44140625" style="1" hidden="1"/>
+    <col min="16134" max="16134" width="20.42578125" style="1" hidden="1"/>
     <col min="16135" max="16135" width="16" style="1" hidden="1"/>
-    <col min="16136" max="16141" width="20.44140625" style="1" hidden="1"/>
-    <col min="16142" max="16384" width="11.44140625" style="1" hidden="1"/>
+    <col min="16136" max="16141" width="20.42578125" style="1" hidden="1"/>
+    <col min="16142" max="16384" width="11.42578125" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="56.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2856,7 +2858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2899,7 +2901,7 @@
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="106" t="str">
+      <c r="P2" s="87" t="str">
         <f>RAWDATA!J2</f>
         <v>attendance.hide_grade_str</v>
       </c>
@@ -2941,7 +2943,7 @@
         <v>course.teacher_name</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2984,7 +2986,7 @@
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="106">
+      <c r="P3" s="87">
         <f>RAWDATA!J3</f>
         <v>0</v>
       </c>
@@ -3026,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="53">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -3069,7 +3071,7 @@
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="106">
+      <c r="P4" s="87">
         <f>RAWDATA!J4</f>
         <v>0</v>
       </c>
@@ -3111,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -3154,7 +3156,7 @@
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="106">
+      <c r="P5" s="87">
         <f>RAWDATA!J5</f>
         <v>0</v>
       </c>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -3239,7 +3241,7 @@
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="106">
+      <c r="P6" s="87">
         <f>RAWDATA!J6</f>
         <v>0</v>
       </c>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="53">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3324,7 +3326,7 @@
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="106">
+      <c r="P7" s="87">
         <f>RAWDATA!J7</f>
         <v>0</v>
       </c>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="53">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3409,7 +3411,7 @@
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="106">
+      <c r="P8" s="87">
         <f>RAWDATA!J8</f>
         <v>0</v>
       </c>
@@ -3451,7 +3453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="53">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3494,7 +3496,7 @@
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="106">
+      <c r="P9" s="87">
         <f>RAWDATA!J9</f>
         <v>0</v>
       </c>
@@ -3536,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="53">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3579,7 +3581,7 @@
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="106">
+      <c r="P10" s="87">
         <f>RAWDATA!J10</f>
         <v>0</v>
       </c>
@@ -3621,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="53">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3664,7 +3666,7 @@
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="106">
+      <c r="P11" s="87">
         <f>RAWDATA!J11</f>
         <v>0</v>
       </c>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3749,7 +3751,7 @@
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="106">
+      <c r="P12" s="87">
         <f>RAWDATA!J12</f>
         <v>0</v>
       </c>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="53">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3834,7 +3836,7 @@
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="106">
+      <c r="P13" s="87">
         <f>RAWDATA!J13</f>
         <v>0</v>
       </c>
@@ -3876,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="53">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3919,7 +3921,7 @@
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="106">
+      <c r="P14" s="87">
         <f>RAWDATA!J14</f>
         <v>0</v>
       </c>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -4004,7 +4006,7 @@
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="106">
+      <c r="P15" s="87">
         <f>RAWDATA!J15</f>
         <v>0</v>
       </c>
@@ -4046,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="53">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -4089,7 +4091,7 @@
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="106">
+      <c r="P16" s="87">
         <f>RAWDATA!J16</f>
         <v>0</v>
       </c>
@@ -4131,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="53">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -4174,7 +4176,7 @@
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="106">
+      <c r="P17" s="87">
         <f>RAWDATA!J17</f>
         <v>0</v>
       </c>
@@ -4216,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="53">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -4259,7 +4261,7 @@
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="106">
+      <c r="P18" s="87">
         <f>RAWDATA!J18</f>
         <v>0</v>
       </c>
@@ -4301,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="53">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -4344,7 +4346,7 @@
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="106">
+      <c r="P19" s="87">
         <f>RAWDATA!J19</f>
         <v>0</v>
       </c>
@@ -4386,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="53">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -4429,7 +4431,7 @@
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="106">
+      <c r="P20" s="87">
         <f>RAWDATA!J20</f>
         <v>0</v>
       </c>
@@ -4471,7 +4473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="53">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4514,7 +4516,7 @@
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="106">
+      <c r="P21" s="87">
         <f>RAWDATA!J21</f>
         <v>0</v>
       </c>
@@ -4556,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="53">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4599,7 +4601,7 @@
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="106">
+      <c r="P22" s="87">
         <f>RAWDATA!J22</f>
         <v>0</v>
       </c>
@@ -4641,7 +4643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="53">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4684,7 +4686,7 @@
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="106">
+      <c r="P23" s="87">
         <f>RAWDATA!J23</f>
         <v>0</v>
       </c>
@@ -4726,7 +4728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="53">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4769,7 +4771,7 @@
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="106">
+      <c r="P24" s="87">
         <f>RAWDATA!J24</f>
         <v>0</v>
       </c>
@@ -4811,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="53">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4854,7 +4856,7 @@
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="106">
+      <c r="P25" s="87">
         <f>RAWDATA!J25</f>
         <v>0</v>
       </c>
@@ -4896,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4939,7 +4941,7 @@
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="106">
+      <c r="P26" s="87">
         <f>RAWDATA!J26</f>
         <v>0</v>
       </c>
@@ -4981,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>9</v>
@@ -5011,7 +5013,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
@@ -5053,7 +5055,7 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>10</v>
@@ -5090,7 +5092,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -5113,7 +5115,7 @@
       <c r="T30" s="22"/>
       <c r="U30" s="22"/>
     </row>
-    <row r="31" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
@@ -5121,27 +5123,27 @@
         <v>140</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="E31" s="87" t="s">
+      <c r="E31" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="87"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
       <c r="U31" s="31"/>
     </row>
-    <row r="32" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -5150,25 +5152,25 @@
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="77"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
-      <c r="O32" s="87"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="87"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
       <c r="U32" s="31"/>
     </row>
-    <row r="33" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
@@ -5177,25 +5179,25 @@
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="77"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
       <c r="U33" s="31"/>
     </row>
-    <row r="34" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
@@ -5206,25 +5208,25 @@
         <v>126</v>
       </c>
       <c r="D34" s="77"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
-      <c r="Q34" s="87"/>
-      <c r="R34" s="87"/>
-      <c r="S34" s="87"/>
-      <c r="T34" s="87"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="88"/>
       <c r="U34" s="31"/>
     </row>
-    <row r="35" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
@@ -5233,25 +5235,25 @@
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="77"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="87"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
       <c r="U35" s="31"/>
     </row>
-    <row r="36" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -5260,25 +5262,25 @@
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="77"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
-      <c r="Q36" s="87"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="87"/>
-      <c r="T36" s="87"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="88"/>
+      <c r="T36" s="88"/>
       <c r="U36" s="31"/>
     </row>
-    <row r="37" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -5305,7 +5307,7 @@
       <c r="T37" s="31"/>
       <c r="U37" s="31"/>
     </row>
-    <row r="38" spans="1:21" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q38" s="25"/>
       <c r="R38" s="22"/>
       <c r="S38" s="25"/>
@@ -5340,38 +5342,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" customWidth="1"/>
+    <col min="5" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="82" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="89" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-    </row>
-    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -5404,7 +5406,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="80" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -5432,7 +5434,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="80">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -5460,7 +5462,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="80">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -5488,7 +5490,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="80">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -5516,7 +5518,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="80">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -5544,7 +5546,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="80">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -5572,7 +5574,7 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="80">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -5600,7 +5602,7 @@
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="80">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -5628,7 +5630,7 @@
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="80">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -5656,7 +5658,7 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="80">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -5684,7 +5686,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="80">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -5712,7 +5714,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="80">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -5740,7 +5742,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="80">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -5768,7 +5770,7 @@
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="80">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -5796,7 +5798,7 @@
       </c>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="80">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -5824,7 +5826,7 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="80">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -5852,7 +5854,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="80">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -5880,7 +5882,7 @@
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="80">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -5908,7 +5910,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="80">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -5936,7 +5938,7 @@
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="80">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -5964,7 +5966,7 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="80">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -5992,7 +5994,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="80">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -6020,7 +6022,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="80">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -6048,7 +6050,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="80">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -6076,7 +6078,7 @@
       </c>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="80">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -6104,7 +6106,7 @@
       </c>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>9</v>
@@ -6119,7 +6121,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>129</v>
@@ -6137,7 +6139,7 @@
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>10</v>
@@ -6166,7 +6168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6176,20 +6178,20 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="90"/>
+      <c r="B1" s="91"/>
       <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
@@ -6198,7 +6200,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -6206,7 +6208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6215,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -6224,7 +6226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -6233,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -6242,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -6251,7 +6253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -6260,7 +6262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -6269,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -6278,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -6287,7 +6289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -6296,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
@@ -6317,74 +6319,76 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="5.6640625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" customWidth="1"/>
-    <col min="15" max="15" width="1.6640625" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="5.7109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" customWidth="1"/>
+    <col min="17" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="str">
+    <row r="1" spans="1:16" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-    </row>
-    <row r="2" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="str">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+    </row>
+    <row r="2" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="93" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94" t="str">
         <f>"Semester: "&amp;Notenliste!B36</f>
         <v>Semester: semester</v>
       </c>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="60"/>
-    </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="60"/>
+    </row>
+    <row r="3" spans="1:16" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
@@ -6425,11 +6429,14 @@
         <v>23</v>
       </c>
       <c r="N3" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="61"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="61"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -6482,12 +6489,16 @@
         <v>#VALUE!</v>
       </c>
       <c r="N4" s="17" t="str">
+        <f>Notenliste!Q2</f>
+        <v>attendance.ects_points</v>
+      </c>
+      <c r="O4" s="17" t="str">
         <f>UPPER(Notenliste!T2)</f>
         <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
-      <c r="O4" s="60"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="60"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -6512,7 +6523,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="18">
-        <f>RAWDATA!L3</f>
+        <f>RAWDATA!I3</f>
         <v>0</v>
       </c>
       <c r="H5" s="19">
@@ -6539,13 +6550,17 @@
         <f>Notenliste!E3</f>
         <v>0</v>
       </c>
-      <c r="N5" s="17" t="str">
+      <c r="N5" s="17">
+        <f>Notenliste!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="17" t="str">
         <f>UPPER(Notenliste!T3)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="60"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="60"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -6570,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="18">
-        <f>RAWDATA!L4</f>
+        <f>RAWDATA!I4</f>
         <v>0</v>
       </c>
       <c r="H6" s="19">
@@ -6597,13 +6612,17 @@
         <f>Notenliste!E4</f>
         <v>0</v>
       </c>
-      <c r="N6" s="17" t="str">
+      <c r="N6" s="17">
+        <f>Notenliste!Q4</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="17" t="str">
         <f>UPPER(Notenliste!T4)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="60"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="60"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -6628,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="18">
-        <f>RAWDATA!L5</f>
+        <f>RAWDATA!I5</f>
         <v>0</v>
       </c>
       <c r="H7" s="19">
@@ -6655,13 +6674,17 @@
         <f>Notenliste!E5</f>
         <v>0</v>
       </c>
-      <c r="N7" s="17" t="str">
+      <c r="N7" s="17">
+        <f>Notenliste!Q5</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="17" t="str">
         <f>UPPER(Notenliste!T5)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="60"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="60"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -6686,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f>RAWDATA!L6</f>
+        <f>RAWDATA!I6</f>
         <v>0</v>
       </c>
       <c r="H8" s="19">
@@ -6713,13 +6736,17 @@
         <f>Notenliste!E6</f>
         <v>0</v>
       </c>
-      <c r="N8" s="17" t="str">
+      <c r="N8" s="17">
+        <f>Notenliste!Q6</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="17" t="str">
         <f>UPPER(Notenliste!T6)</f>
         <v>0</v>
       </c>
-      <c r="O8" s="60"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="60"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -6744,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="18">
-        <f>RAWDATA!L7</f>
+        <f>RAWDATA!I7</f>
         <v>0</v>
       </c>
       <c r="H9" s="19">
@@ -6771,13 +6798,17 @@
         <f>Notenliste!E7</f>
         <v>0</v>
       </c>
-      <c r="N9" s="17" t="str">
+      <c r="N9" s="17">
+        <f>Notenliste!Q7</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="17" t="str">
         <f>UPPER(Notenliste!T7)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="60"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="60"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -6802,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="18">
-        <f>RAWDATA!L8</f>
+        <f>RAWDATA!I8</f>
         <v>0</v>
       </c>
       <c r="H10" s="19">
@@ -6829,13 +6860,17 @@
         <f>Notenliste!E8</f>
         <v>0</v>
       </c>
-      <c r="N10" s="17" t="str">
+      <c r="N10" s="17">
+        <f>Notenliste!Q8</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="17" t="str">
         <f>UPPER(Notenliste!T8)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="60"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="60"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -6860,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="18">
-        <f>RAWDATA!L9</f>
+        <f>RAWDATA!I9</f>
         <v>0</v>
       </c>
       <c r="H11" s="19">
@@ -6887,13 +6922,17 @@
         <f>Notenliste!E9</f>
         <v>0</v>
       </c>
-      <c r="N11" s="17" t="str">
+      <c r="N11" s="17">
+        <f>Notenliste!Q9</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="17" t="str">
         <f>UPPER(Notenliste!T9)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="60"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="60"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -6918,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="18">
-        <f>RAWDATA!L10</f>
+        <f>RAWDATA!I10</f>
         <v>0</v>
       </c>
       <c r="H12" s="19">
@@ -6945,13 +6984,17 @@
         <f>Notenliste!E10</f>
         <v>0</v>
       </c>
-      <c r="N12" s="17" t="str">
+      <c r="N12" s="17">
+        <f>Notenliste!Q10</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="17" t="str">
         <f>UPPER(Notenliste!T10)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="60"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="60"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -6976,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="18">
-        <f>RAWDATA!L11</f>
+        <f>RAWDATA!I11</f>
         <v>0</v>
       </c>
       <c r="H13" s="19">
@@ -7003,13 +7046,17 @@
         <f>Notenliste!E11</f>
         <v>0</v>
       </c>
-      <c r="N13" s="17" t="str">
+      <c r="N13" s="17">
+        <f>Notenliste!Q11</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="17" t="str">
         <f>UPPER(Notenliste!T11)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="60"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="60"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -7034,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <f>RAWDATA!L12</f>
+        <f>RAWDATA!I12</f>
         <v>0</v>
       </c>
       <c r="H14" s="19">
@@ -7061,13 +7108,17 @@
         <f>Notenliste!E12</f>
         <v>0</v>
       </c>
-      <c r="N14" s="17" t="str">
+      <c r="N14" s="17">
+        <f>Notenliste!Q12</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="17" t="str">
         <f>UPPER(Notenliste!T12)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="60"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="60"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -7092,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="18">
-        <f>RAWDATA!L13</f>
+        <f>RAWDATA!I13</f>
         <v>0</v>
       </c>
       <c r="H15" s="19">
@@ -7119,13 +7170,17 @@
         <f>Notenliste!E13</f>
         <v>0</v>
       </c>
-      <c r="N15" s="17" t="str">
+      <c r="N15" s="17">
+        <f>Notenliste!Q13</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="17" t="str">
         <f>UPPER(Notenliste!T13)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="60"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="60"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -7150,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="18">
-        <f>RAWDATA!L14</f>
+        <f>RAWDATA!I14</f>
         <v>0</v>
       </c>
       <c r="H16" s="19">
@@ -7177,13 +7232,17 @@
         <f>Notenliste!E14</f>
         <v>0</v>
       </c>
-      <c r="N16" s="17" t="str">
+      <c r="N16" s="17">
+        <f>Notenliste!Q14</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="17" t="str">
         <f>UPPER(Notenliste!T14)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="60"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="60"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -7208,7 +7267,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <f>RAWDATA!L15</f>
+        <f>RAWDATA!I15</f>
         <v>0</v>
       </c>
       <c r="H17" s="19">
@@ -7235,13 +7294,17 @@
         <f>Notenliste!E15</f>
         <v>0</v>
       </c>
-      <c r="N17" s="17" t="str">
+      <c r="N17" s="17">
+        <f>Notenliste!Q15</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="17" t="str">
         <f>UPPER(Notenliste!T15)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="60"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="60"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -7266,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="18">
-        <f>RAWDATA!L16</f>
+        <f>RAWDATA!I16</f>
         <v>0</v>
       </c>
       <c r="H18" s="19">
@@ -7293,13 +7356,17 @@
         <f>Notenliste!E16</f>
         <v>0</v>
       </c>
-      <c r="N18" s="17" t="str">
+      <c r="N18" s="17">
+        <f>Notenliste!Q16</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="17" t="str">
         <f>UPPER(Notenliste!T16)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="60"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="60"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -7324,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <f>RAWDATA!L17</f>
+        <f>RAWDATA!I17</f>
         <v>0</v>
       </c>
       <c r="H19" s="19">
@@ -7351,13 +7418,17 @@
         <f>Notenliste!E17</f>
         <v>0</v>
       </c>
-      <c r="N19" s="17" t="str">
+      <c r="N19" s="17">
+        <f>Notenliste!Q17</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="17" t="str">
         <f>UPPER(Notenliste!T17)</f>
         <v>0</v>
       </c>
-      <c r="O19" s="60"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19" s="60"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>17</v>
       </c>
@@ -7382,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="18">
-        <f>RAWDATA!L18</f>
+        <f>RAWDATA!I18</f>
         <v>0</v>
       </c>
       <c r="H20" s="19">
@@ -7409,13 +7480,17 @@
         <f>Notenliste!E18</f>
         <v>0</v>
       </c>
-      <c r="N20" s="17" t="str">
+      <c r="N20" s="17">
+        <f>Notenliste!Q18</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="17" t="str">
         <f>UPPER(Notenliste!T18)</f>
         <v>0</v>
       </c>
-      <c r="O20" s="60"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="60"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>18</v>
       </c>
@@ -7440,7 +7515,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <f>RAWDATA!L19</f>
+        <f>RAWDATA!I19</f>
         <v>0</v>
       </c>
       <c r="H21" s="19">
@@ -7467,13 +7542,17 @@
         <f>Notenliste!E19</f>
         <v>0</v>
       </c>
-      <c r="N21" s="17" t="str">
+      <c r="N21" s="17">
+        <f>Notenliste!Q19</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="17" t="str">
         <f>UPPER(Notenliste!T19)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="60"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21" s="60"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>19</v>
       </c>
@@ -7498,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="18">
-        <f>RAWDATA!L20</f>
+        <f>RAWDATA!I20</f>
         <v>0</v>
       </c>
       <c r="H22" s="19">
@@ -7525,13 +7604,17 @@
         <f>Notenliste!E20</f>
         <v>0</v>
       </c>
-      <c r="N22" s="17" t="str">
+      <c r="N22" s="17">
+        <f>Notenliste!Q20</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="17" t="str">
         <f>UPPER(Notenliste!T20)</f>
         <v>0</v>
       </c>
-      <c r="O22" s="60"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" s="60"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>20</v>
       </c>
@@ -7556,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="18">
-        <f>RAWDATA!L21</f>
+        <f>RAWDATA!I21</f>
         <v>0</v>
       </c>
       <c r="H23" s="19">
@@ -7583,13 +7666,17 @@
         <f>Notenliste!E21</f>
         <v>0</v>
       </c>
-      <c r="N23" s="17" t="str">
+      <c r="N23" s="17">
+        <f>Notenliste!Q21</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="17" t="str">
         <f>UPPER(Notenliste!T21)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="60"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" s="60"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>21</v>
       </c>
@@ -7614,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="18">
-        <f>RAWDATA!L22</f>
+        <f>RAWDATA!I22</f>
         <v>0</v>
       </c>
       <c r="H24" s="19">
@@ -7641,13 +7728,17 @@
         <f>Notenliste!E22</f>
         <v>0</v>
       </c>
-      <c r="N24" s="17" t="str">
+      <c r="N24" s="17">
+        <f>Notenliste!Q22</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="17" t="str">
         <f>UPPER(Notenliste!T22)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="60"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" s="60"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>22</v>
       </c>
@@ -7672,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="18">
-        <f>RAWDATA!L23</f>
+        <f>RAWDATA!I23</f>
         <v>0</v>
       </c>
       <c r="H25" s="19">
@@ -7699,13 +7790,17 @@
         <f>Notenliste!E23</f>
         <v>0</v>
       </c>
-      <c r="N25" s="17" t="str">
+      <c r="N25" s="17">
+        <f>Notenliste!Q23</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="17" t="str">
         <f>UPPER(Notenliste!T23)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="60"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25" s="60"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>23</v>
       </c>
@@ -7730,7 +7825,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="18">
-        <f>RAWDATA!L24</f>
+        <f>RAWDATA!I24</f>
         <v>0</v>
       </c>
       <c r="H26" s="19">
@@ -7757,13 +7852,17 @@
         <f>Notenliste!E24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="17" t="str">
+      <c r="N26" s="17">
+        <f>Notenliste!Q24</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="17" t="str">
         <f>UPPER(Notenliste!T24)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="60"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26" s="60"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>24</v>
       </c>
@@ -7788,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="18">
-        <f>RAWDATA!L25</f>
+        <f>RAWDATA!I25</f>
         <v>0</v>
       </c>
       <c r="H27" s="19">
@@ -7815,13 +7914,17 @@
         <f>Notenliste!E25</f>
         <v>0</v>
       </c>
-      <c r="N27" s="17" t="str">
+      <c r="N27" s="17">
+        <f>Notenliste!Q25</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="17" t="str">
         <f>UPPER(Notenliste!T25)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="60"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27" s="60"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>25</v>
       </c>
@@ -7846,7 +7949,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="18">
-        <f>RAWDATA!L26</f>
+        <f>RAWDATA!I26</f>
         <v>0</v>
       </c>
       <c r="H28" s="19">
@@ -7873,13 +7976,17 @@
         <f>Notenliste!E26</f>
         <v>0</v>
       </c>
-      <c r="N28" s="17" t="str">
+      <c r="N28" s="17">
+        <f>Notenliste!Q26</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="17" t="str">
         <f>UPPER(Notenliste!T26)</f>
         <v>0</v>
       </c>
-      <c r="O28" s="60"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28" s="60"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="57"/>
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
@@ -7900,105 +8007,111 @@
       <c r="L29" s="57"/>
       <c r="M29" s="57"/>
       <c r="N29" s="57"/>
-      <c r="O29" s="60"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="94" t="s">
+      <c r="O29" s="57"/>
+      <c r="P29" s="60"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="60"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="94"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="60"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="60"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="94"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="60"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="94"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
-      <c r="O34" s="60"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="60"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="95"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="60"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="95"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="60"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="95"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="60"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="95"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="60"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <mergeCells count="4">
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="A30:N34"/>
+    <mergeCell ref="G2:O2"/>
+    <mergeCell ref="A30:O34"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.9055118110236221" bottom="1.1023622047244095" header="0.70866141732283472" footer="0.55118110236220474"/>
-  <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;G&amp;R&amp;"Arial Black,Standard"&amp;36SpZ</oddHeader>
     <oddFooter>&amp;C&amp;D</oddFooter>
@@ -8008,7 +8121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8018,123 +8131,123 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.6640625" style="20" customWidth="1"/>
-    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
-    <col min="21" max="21" width="0.6640625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="51" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="52" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.7109375" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.7109375" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.7109375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="51" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="52" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" style="37" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.44140625" hidden="1"/>
+    <col min="32" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="str">
+    <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="99" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
-      <c r="W1" s="98"/>
-      <c r="X1" s="98"/>
-    </row>
-    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="98" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
+      <c r="X1" s="99"/>
+    </row>
+    <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="99" t="str">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="100" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
       <c r="F3" s="42"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
-      <c r="S3" s="97"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="97"/>
-      <c r="V3" s="97"/>
-      <c r="W3" s="97"/>
-      <c r="X3" s="97"/>
-    </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95" t="s">
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+    </row>
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="105" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="47"/>
@@ -8153,22 +8266,22 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="44"/>
-      <c r="V4" s="100" t="s">
+      <c r="V4" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="102" t="s">
+      <c r="X4" s="103" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="96"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="105"/>
+    <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="48"/>
       <c r="G5" s="41">
         <v>1</v>
@@ -8213,11 +8326,11 @@
         <v>14</v>
       </c>
       <c r="U5" s="43"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-    </row>
-    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="V5" s="102"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="104"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -8257,7 +8370,7 @@
       <c r="W6" s="50"/>
       <c r="X6" s="50"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -8297,7 +8410,7 @@
       <c r="W7" s="50"/>
       <c r="X7" s="50"/>
     </row>
-    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -8337,7 +8450,7 @@
       <c r="W8" s="50"/>
       <c r="X8" s="50"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -8377,7 +8490,7 @@
       <c r="W9" s="50"/>
       <c r="X9" s="50"/>
     </row>
-    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -8417,7 +8530,7 @@
       <c r="W10" s="50"/>
       <c r="X10" s="50"/>
     </row>
-    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -8457,7 +8570,7 @@
       <c r="W11" s="50"/>
       <c r="X11" s="50"/>
     </row>
-    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -8497,7 +8610,7 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
     </row>
-    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -8537,7 +8650,7 @@
       <c r="W13" s="50"/>
       <c r="X13" s="50"/>
     </row>
-    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -8577,7 +8690,7 @@
       <c r="W14" s="50"/>
       <c r="X14" s="50"/>
     </row>
-    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -8617,7 +8730,7 @@
       <c r="W15" s="50"/>
       <c r="X15" s="50"/>
     </row>
-    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -8657,7 +8770,7 @@
       <c r="W16" s="50"/>
       <c r="X16" s="50"/>
     </row>
-    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -8697,7 +8810,7 @@
       <c r="W17" s="50"/>
       <c r="X17" s="50"/>
     </row>
-    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -8737,7 +8850,7 @@
       <c r="W18" s="50"/>
       <c r="X18" s="50"/>
     </row>
-    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -8777,7 +8890,7 @@
       <c r="W19" s="50"/>
       <c r="X19" s="50"/>
     </row>
-    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -8817,7 +8930,7 @@
       <c r="W20" s="50"/>
       <c r="X20" s="50"/>
     </row>
-    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -8857,7 +8970,7 @@
       <c r="W21" s="50"/>
       <c r="X21" s="50"/>
     </row>
-    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -8897,7 +9010,7 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
     </row>
-    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -8937,7 +9050,7 @@
       <c r="W23" s="50"/>
       <c r="X23" s="50"/>
     </row>
-    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -8977,7 +9090,7 @@
       <c r="W24" s="50"/>
       <c r="X24" s="50"/>
     </row>
-    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -9017,7 +9130,7 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
     </row>
-    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -9057,7 +9170,7 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
     </row>
-    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>22</v>
       </c>
@@ -9097,7 +9210,7 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
     </row>
-    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>23</v>
       </c>
@@ -9137,7 +9250,7 @@
       <c r="W28" s="50"/>
       <c r="X28" s="50"/>
     </row>
-    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>24</v>
       </c>
@@ -9177,7 +9290,7 @@
       <c r="W29" s="50"/>
       <c r="X29" s="50"/>
     </row>
-    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -9244,7 +9357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -9252,17 +9365,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="64" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="63" customWidth="1"/>
-    <col min="6" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="64" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="63" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
@@ -9288,7 +9401,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
@@ -9306,7 +9419,7 @@
         <v>exam_date</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
@@ -9324,7 +9437,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
@@ -9342,7 +9455,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
@@ -9360,7 +9473,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
@@ -9378,7 +9491,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
@@ -9396,7 +9509,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
@@ -9414,7 +9527,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
@@ -9432,7 +9545,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
@@ -9450,7 +9563,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
@@ -9468,7 +9581,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
@@ -9486,7 +9599,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
@@ -9504,7 +9617,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
@@ -9522,7 +9635,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
@@ -9540,7 +9653,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
@@ -9558,7 +9671,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
@@ -9576,7 +9689,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
@@ -9594,7 +9707,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
@@ -9612,7 +9725,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
@@ -9630,7 +9743,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
@@ -9648,7 +9761,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
@@ -9666,7 +9779,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
@@ -9684,7 +9797,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
@@ -9702,7 +9815,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
@@ -9720,7 +9833,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
@@ -9741,22 +9854,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0600-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
   </dataValidations>
@@ -9769,26 +9882,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="20"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="70" t="s">
         <v>7</v>
       </c>
@@ -9805,7 +9918,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="71" t="s">
         <v>45</v>
       </c>
@@ -9822,7 +9935,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
         <v>66</v>
       </c>
@@ -9839,7 +9952,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
         <v>68</v>
       </c>
@@ -9856,7 +9969,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
         <v>67</v>
       </c>
@@ -9871,7 +9984,7 @@
       </c>
       <c r="H5" s="74"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
         <v>69</v>
       </c>
@@ -9886,7 +9999,7 @@
       </c>
       <c r="H6" s="74"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
         <v>70</v>
       </c>
@@ -9901,7 +10014,7 @@
       </c>
       <c r="H7" s="74"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="71" t="s">
         <v>71</v>
       </c>
@@ -9916,7 +10029,7 @@
       </c>
       <c r="H8" s="74"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="71" t="s">
         <v>72</v>
       </c>
@@ -9931,7 +10044,7 @@
       </c>
       <c r="H9" s="74"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="71" t="s">
         <v>108</v>
       </c>
@@ -9946,7 +10059,7 @@
       </c>
       <c r="H10" s="74"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="71" t="s">
         <v>109</v>
       </c>
@@ -9961,7 +10074,7 @@
       </c>
       <c r="H11" s="74"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="71" t="s">
         <v>110</v>
       </c>
@@ -9976,7 +10089,7 @@
       </c>
       <c r="H12" s="74"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="71" t="s">
         <v>111</v>
       </c>
@@ -9991,7 +10104,7 @@
       </c>
       <c r="H13" s="74"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="71"/>
       <c r="B14" s="71"/>
       <c r="D14" s="71" t="s">
@@ -10002,7 +10115,7 @@
       </c>
       <c r="H14" s="74"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="71"/>
       <c r="B15" s="71"/>
       <c r="D15" s="71" t="s">
@@ -10013,7 +10126,7 @@
       </c>
       <c r="H15" s="74"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="71"/>
       <c r="B16" s="71"/>
       <c r="D16" s="71"/>
@@ -10022,7 +10135,7 @@
       </c>
       <c r="H16" s="74"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="71"/>
       <c r="B17" s="71"/>
       <c r="D17" s="71"/>
@@ -10031,7 +10144,7 @@
       </c>
       <c r="H17" s="74"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="71"/>
       <c r="B18" s="71"/>
       <c r="D18" s="71"/>
@@ -10040,14 +10153,14 @@
       </c>
       <c r="H18" s="74"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="71"/>
       <c r="B19" s="71"/>
       <c r="D19" s="71"/>
       <c r="F19" s="71"/>
       <c r="H19" s="74"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="72"/>
       <c r="B20" s="72"/>
       <c r="D20" s="72"/>

--- a/src/spz/templates/export/spanisch_hueber.xlsx
+++ b/src/spz/templates/export/spanisch_hueber.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" updateLinks="never" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urvdp\Documents\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1247,30 +1247,6 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1296,6 +1272,30 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
@@ -1631,21 +1631,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
   <autoFilter ref="A1:H26"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Matrikelnummer" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="1" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="LP" dataDxfId="7">
+    <tableColumn id="3" name="LP" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!Q2&lt;&gt;0,Notenliste!Q2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Note" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="4" name="Note" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Datum" dataDxfId="4">
+    <tableColumn id="5" name="Datum" dataDxfId="2">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="3"/>
-    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="2"/>
+    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="0"/>
     <tableColumn id="8" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2246,7 +2246,7 @@
   <dimension ref="A1:WVU38"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.9" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2880,7 +2880,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F2" s="30" t="e">
-        <f>LOOKUP(E2,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E2,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>#VALUE!</v>
       </c>
       <c r="G2" s="29"/>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="30" t="str">
-        <f>LOOKUP(E3,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E3,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G3" s="29"/>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="30" t="str">
-        <f>LOOKUP(E4,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E4,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G4" s="29"/>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="30" t="str">
-        <f>LOOKUP(E5,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E5,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G5" s="29"/>
@@ -3220,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="30" t="str">
-        <f>LOOKUP(E6,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E6,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G6" s="29"/>
@@ -3305,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="30" t="str">
-        <f>LOOKUP(E7,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E7,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G7" s="29"/>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="30" t="str">
-        <f>LOOKUP(E8,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E8,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G8" s="29"/>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="30" t="str">
-        <f>LOOKUP(E9,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E9,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G9" s="29"/>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="30" t="str">
-        <f>LOOKUP(E10,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E10,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G10" s="29"/>
@@ -3645,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="30" t="str">
-        <f>LOOKUP(E11,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E11,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G11" s="29"/>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="30" t="str">
-        <f>LOOKUP(E12,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E12,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G12" s="29"/>
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="30" t="str">
-        <f>LOOKUP(E13,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E13,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G13" s="29"/>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="30" t="str">
-        <f>LOOKUP(E14,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E14,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G14" s="29"/>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="30" t="str">
-        <f>LOOKUP(E15,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E15,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G15" s="29"/>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="30" t="str">
-        <f>LOOKUP(E16,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E16,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G16" s="29"/>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="30" t="str">
-        <f>LOOKUP(E17,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E17,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G17" s="29"/>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="30" t="str">
-        <f>LOOKUP(E18,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E18,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G18" s="29"/>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="30" t="str">
-        <f>LOOKUP(E19,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E19,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G19" s="29"/>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="30" t="str">
-        <f>LOOKUP(E20,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E20,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G20" s="29"/>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="30" t="str">
-        <f>LOOKUP(E21,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E21,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G21" s="29"/>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="30" t="str">
-        <f>LOOKUP(E22,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E22,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G22" s="29"/>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="30" t="str">
-        <f>LOOKUP(E23,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E23,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G23" s="29"/>
@@ -4750,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="30" t="str">
-        <f>LOOKUP(E24,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E24,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G24" s="29"/>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="30" t="str">
-        <f>LOOKUP(E25,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E25,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G25" s="29"/>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="30" t="str">
-        <f>LOOKUP(E26,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
+        <f>LOOKUP(E26,{0;1;49.1;55.1;61.1;67.1;72.1;78.1;84.1;89.1;94.1;97.1},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
         <v>KP</v>
       </c>
       <c r="G26" s="29"/>
@@ -5322,12 +5322,12 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>$H$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:J26">
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>

--- a/src/spz/templates/export/spanisch_hueber.xlsx
+++ b/src/spz/templates/export/spanisch_hueber.xlsx
@@ -1247,6 +1247,11 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1257,11 +1262,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1638,14 +1638,14 @@
     <tableColumn id="3" name="LP" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!Q2&lt;&gt;0,Notenliste!Q2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Note" dataDxfId="4" totalsRowDxfId="3">
-      <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</calculatedColumnFormula>
+    <tableColumn id="4" name="Note" dataDxfId="0" totalsRowDxfId="4">
+      <calculatedColumnFormula>IF(OR(Notenliste!H2="x", Notenliste!H2="X"),"bestanden",IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Datum" dataDxfId="2">
+    <tableColumn id="5" name="Datum" dataDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="0"/>
+    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="2"/>
+    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="1"/>
     <tableColumn id="8" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6326,7 +6326,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="17" t="str">
-        <f>UPPER(Notenliste!R2)</f>
+        <f>IF(Notenliste!R2=0," ",UPPER(Notenliste!R2))</f>
         <v>ATTENDANCE.TS_REQUESTED_STR</v>
       </c>
       <c r="K4" s="17" t="e">
@@ -6481,7 +6481,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="L4" s="17" t="e">
-        <f>Notenliste!F2</f>
+        <f>IF(OR(Notenliste!P2="x", Notenliste!P2="X"), "bestanden",IF(Notenliste!F2="KP"," ",Notenliste!F2))</f>
         <v>#VALUE!</v>
       </c>
       <c r="M4" s="17" t="e">
@@ -6493,7 +6493,7 @@
         <v>attendance.ects_points</v>
       </c>
       <c r="O4" s="17" t="str">
-        <f>UPPER(Notenliste!T2)</f>
+        <f>IF(Notenliste!T2=0," ",UPPER(Notenliste!T2))</f>
         <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
       <c r="P4" s="60"/>
@@ -6535,16 +6535,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="17" t="str">
-        <f>UPPER(Notenliste!R3)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R3=0," ",UPPER(Notenliste!R3))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" ref="K5:K28" si="0">IF(L5&lt;=4,"X","")</f>
         <v/>
       </c>
       <c r="L5" s="17" t="str">
-        <f>Notenliste!F3</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P3="x", Notenliste!P3="X"), "bestanden",IF(Notenliste!F3="KP"," ",Notenliste!F3))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M5" s="17">
         <f>Notenliste!E3</f>
@@ -6555,8 +6555,8 @@
         <v>0</v>
       </c>
       <c r="O5" s="17" t="str">
-        <f>UPPER(Notenliste!T3)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T3=0," ",UPPER(Notenliste!T3))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P5" s="60"/>
     </row>
@@ -6597,16 +6597,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="17" t="str">
-        <f>UPPER(Notenliste!R4)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R4=0," ",UPPER(Notenliste!R4))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K6" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L6" s="17" t="str">
-        <f>Notenliste!F4</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P4="x", Notenliste!P4="X"), "bestanden",IF(Notenliste!F4="KP"," ",Notenliste!F4))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M6" s="17">
         <f>Notenliste!E4</f>
@@ -6617,8 +6617,8 @@
         <v>0</v>
       </c>
       <c r="O6" s="17" t="str">
-        <f>UPPER(Notenliste!T4)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T4=0," ",UPPER(Notenliste!T4))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P6" s="60"/>
     </row>
@@ -6659,16 +6659,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="17" t="str">
-        <f>UPPER(Notenliste!R5)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R5=0," ",UPPER(Notenliste!R5))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L7" s="17" t="str">
-        <f>Notenliste!F5</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P5="x", Notenliste!P5="X"), "bestanden",IF(Notenliste!F5="KP"," ",Notenliste!F5))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M7" s="17">
         <f>Notenliste!E5</f>
@@ -6679,8 +6679,8 @@
         <v>0</v>
       </c>
       <c r="O7" s="17" t="str">
-        <f>UPPER(Notenliste!T5)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T5=0," ",UPPER(Notenliste!T5))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P7" s="60"/>
     </row>
@@ -6721,16 +6721,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="17" t="str">
-        <f>UPPER(Notenliste!R6)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R6=0," ",UPPER(Notenliste!R6))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K8" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L8" s="17" t="str">
-        <f>Notenliste!F6</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P6="x", Notenliste!P6="X"), "bestanden",IF(Notenliste!F6="KP"," ",Notenliste!F6))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M8" s="17">
         <f>Notenliste!E6</f>
@@ -6741,8 +6741,8 @@
         <v>0</v>
       </c>
       <c r="O8" s="17" t="str">
-        <f>UPPER(Notenliste!T6)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T6=0," ",UPPER(Notenliste!T6))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P8" s="60"/>
     </row>
@@ -6783,16 +6783,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="17" t="str">
-        <f>UPPER(Notenliste!R7)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R7=0," ",UPPER(Notenliste!R7))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L9" s="17" t="str">
-        <f>Notenliste!F7</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P7="x", Notenliste!P7="X"), "bestanden",IF(Notenliste!F7="KP"," ",Notenliste!F7))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M9" s="17">
         <f>Notenliste!E7</f>
@@ -6803,8 +6803,8 @@
         <v>0</v>
       </c>
       <c r="O9" s="17" t="str">
-        <f>UPPER(Notenliste!T7)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T7=0," ",UPPER(Notenliste!T7))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P9" s="60"/>
     </row>
@@ -6845,16 +6845,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="17" t="str">
-        <f>UPPER(Notenliste!R8)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R8=0," ",UPPER(Notenliste!R8))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K10" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L10" s="17" t="str">
-        <f>Notenliste!F8</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P8="x", Notenliste!P8="X"), "bestanden",IF(Notenliste!F8="KP"," ",Notenliste!F8))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M10" s="17">
         <f>Notenliste!E8</f>
@@ -6865,8 +6865,8 @@
         <v>0</v>
       </c>
       <c r="O10" s="17" t="str">
-        <f>UPPER(Notenliste!T8)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T8=0," ",UPPER(Notenliste!T8))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P10" s="60"/>
     </row>
@@ -6907,16 +6907,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="17" t="str">
-        <f>UPPER(Notenliste!R9)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R9=0," ",UPPER(Notenliste!R9))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K11" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L11" s="17" t="str">
-        <f>Notenliste!F9</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P9="x", Notenliste!P9="X"), "bestanden",IF(Notenliste!F9="KP"," ",Notenliste!F9))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M11" s="17">
         <f>Notenliste!E9</f>
@@ -6927,8 +6927,8 @@
         <v>0</v>
       </c>
       <c r="O11" s="17" t="str">
-        <f>UPPER(Notenliste!T9)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T9=0," ",UPPER(Notenliste!T9))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P11" s="60"/>
     </row>
@@ -6969,16 +6969,16 @@
         <v>0</v>
       </c>
       <c r="J12" s="17" t="str">
-        <f>UPPER(Notenliste!R10)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R10=0," ",UPPER(Notenliste!R10))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K12" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L12" s="17" t="str">
-        <f>Notenliste!F10</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P10="x", Notenliste!P10="X"), "bestanden",IF(Notenliste!F10="KP"," ",Notenliste!F10))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M12" s="17">
         <f>Notenliste!E10</f>
@@ -6989,8 +6989,8 @@
         <v>0</v>
       </c>
       <c r="O12" s="17" t="str">
-        <f>UPPER(Notenliste!T10)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T10=0," ",UPPER(Notenliste!T10))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P12" s="60"/>
     </row>
@@ -7031,16 +7031,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="17" t="str">
-        <f>UPPER(Notenliste!R11)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R11=0," ",UPPER(Notenliste!R11))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K13" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L13" s="17" t="str">
-        <f>Notenliste!F11</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P11="x", Notenliste!P11="X"), "bestanden",IF(Notenliste!F11="KP"," ",Notenliste!F11))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M13" s="17">
         <f>Notenliste!E11</f>
@@ -7051,8 +7051,8 @@
         <v>0</v>
       </c>
       <c r="O13" s="17" t="str">
-        <f>UPPER(Notenliste!T11)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T11=0," ",UPPER(Notenliste!T11))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P13" s="60"/>
     </row>
@@ -7093,16 +7093,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="17" t="str">
-        <f>UPPER(Notenliste!R12)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R12=0," ",UPPER(Notenliste!R12))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K14" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L14" s="17" t="str">
-        <f>Notenliste!F12</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P12="x", Notenliste!P12="X"), "bestanden",IF(Notenliste!F12="KP"," ",Notenliste!F12))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M14" s="17">
         <f>Notenliste!E12</f>
@@ -7113,8 +7113,8 @@
         <v>0</v>
       </c>
       <c r="O14" s="17" t="str">
-        <f>UPPER(Notenliste!T12)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T12=0," ",UPPER(Notenliste!T12))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P14" s="60"/>
     </row>
@@ -7155,16 +7155,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="17" t="str">
-        <f>UPPER(Notenliste!R13)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R13=0," ",UPPER(Notenliste!R13))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K15" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L15" s="17" t="str">
-        <f>Notenliste!F13</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P13="x", Notenliste!P13="X"), "bestanden",IF(Notenliste!F13="KP"," ",Notenliste!F13))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M15" s="17">
         <f>Notenliste!E13</f>
@@ -7175,8 +7175,8 @@
         <v>0</v>
       </c>
       <c r="O15" s="17" t="str">
-        <f>UPPER(Notenliste!T13)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T13=0," ",UPPER(Notenliste!T13))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P15" s="60"/>
     </row>
@@ -7217,16 +7217,16 @@
         <v>0</v>
       </c>
       <c r="J16" s="17" t="str">
-        <f>UPPER(Notenliste!R14)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R14=0," ",UPPER(Notenliste!R14))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K16" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L16" s="17" t="str">
-        <f>Notenliste!F14</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P14="x", Notenliste!P14="X"), "bestanden",IF(Notenliste!F14="KP"," ",Notenliste!F14))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M16" s="17">
         <f>Notenliste!E14</f>
@@ -7237,8 +7237,8 @@
         <v>0</v>
       </c>
       <c r="O16" s="17" t="str">
-        <f>UPPER(Notenliste!T14)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T14=0," ",UPPER(Notenliste!T14))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P16" s="60"/>
     </row>
@@ -7279,16 +7279,16 @@
         <v>0</v>
       </c>
       <c r="J17" s="17" t="str">
-        <f>UPPER(Notenliste!R15)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R15=0," ",UPPER(Notenliste!R15))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K17" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L17" s="17" t="str">
-        <f>Notenliste!F15</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P15="x", Notenliste!P15="X"), "bestanden",IF(Notenliste!F15="KP"," ",Notenliste!F15))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M17" s="17">
         <f>Notenliste!E15</f>
@@ -7299,8 +7299,8 @@
         <v>0</v>
       </c>
       <c r="O17" s="17" t="str">
-        <f>UPPER(Notenliste!T15)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T15=0," ",UPPER(Notenliste!T15))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P17" s="60"/>
     </row>
@@ -7341,16 +7341,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="17" t="str">
-        <f>UPPER(Notenliste!R16)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R16=0," ",UPPER(Notenliste!R16))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K18" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L18" s="17" t="str">
-        <f>Notenliste!F16</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P16="x", Notenliste!P16="X"), "bestanden",IF(Notenliste!F16="KP"," ",Notenliste!F16))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M18" s="17">
         <f>Notenliste!E16</f>
@@ -7361,8 +7361,8 @@
         <v>0</v>
       </c>
       <c r="O18" s="17" t="str">
-        <f>UPPER(Notenliste!T16)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T16=0," ",UPPER(Notenliste!T16))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P18" s="60"/>
     </row>
@@ -7403,16 +7403,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="17" t="str">
-        <f>UPPER(Notenliste!R17)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R17=0," ",UPPER(Notenliste!R17))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K19" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L19" s="17" t="str">
-        <f>Notenliste!F17</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P17="x", Notenliste!P17="X"), "bestanden",IF(Notenliste!F17="KP"," ",Notenliste!F17))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M19" s="17">
         <f>Notenliste!E17</f>
@@ -7423,8 +7423,8 @@
         <v>0</v>
       </c>
       <c r="O19" s="17" t="str">
-        <f>UPPER(Notenliste!T17)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T17=0," ",UPPER(Notenliste!T17))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P19" s="60"/>
     </row>
@@ -7465,16 +7465,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="17" t="str">
-        <f>UPPER(Notenliste!R18)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R18=0," ",UPPER(Notenliste!R18))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K20" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L20" s="17" t="str">
-        <f>Notenliste!F18</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P18="x", Notenliste!P18="X"), "bestanden",IF(Notenliste!F18="KP"," ",Notenliste!F18))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M20" s="17">
         <f>Notenliste!E18</f>
@@ -7485,8 +7485,8 @@
         <v>0</v>
       </c>
       <c r="O20" s="17" t="str">
-        <f>UPPER(Notenliste!T18)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T18=0," ",UPPER(Notenliste!T18))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P20" s="60"/>
     </row>
@@ -7527,16 +7527,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="17" t="str">
-        <f>UPPER(Notenliste!R19)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R19=0," ",UPPER(Notenliste!R19))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K21" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L21" s="17" t="str">
-        <f>Notenliste!F19</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P19="x", Notenliste!P19="X"), "bestanden",IF(Notenliste!F19="KP"," ",Notenliste!F19))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M21" s="17">
         <f>Notenliste!E19</f>
@@ -7547,8 +7547,8 @@
         <v>0</v>
       </c>
       <c r="O21" s="17" t="str">
-        <f>UPPER(Notenliste!T19)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T19=0," ",UPPER(Notenliste!T19))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P21" s="60"/>
     </row>
@@ -7589,16 +7589,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="17" t="str">
-        <f>UPPER(Notenliste!R20)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R20=0," ",UPPER(Notenliste!R20))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K22" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L22" s="17" t="str">
-        <f>Notenliste!F20</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P20="x", Notenliste!P20="X"), "bestanden",IF(Notenliste!F20="KP"," ",Notenliste!F20))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M22" s="17">
         <f>Notenliste!E20</f>
@@ -7609,8 +7609,8 @@
         <v>0</v>
       </c>
       <c r="O22" s="17" t="str">
-        <f>UPPER(Notenliste!T20)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T20=0," ",UPPER(Notenliste!T20))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P22" s="60"/>
     </row>
@@ -7651,16 +7651,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="17" t="str">
-        <f>UPPER(Notenliste!R21)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R21=0," ",UPPER(Notenliste!R21))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K23" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L23" s="17" t="str">
-        <f>Notenliste!F21</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P21="x", Notenliste!P21="X"), "bestanden",IF(Notenliste!F21="KP"," ",Notenliste!F21))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M23" s="17">
         <f>Notenliste!E21</f>
@@ -7671,8 +7671,8 @@
         <v>0</v>
       </c>
       <c r="O23" s="17" t="str">
-        <f>UPPER(Notenliste!T21)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T21=0," ",UPPER(Notenliste!T21))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P23" s="60"/>
     </row>
@@ -7713,16 +7713,16 @@
         <v>0</v>
       </c>
       <c r="J24" s="17" t="str">
-        <f>UPPER(Notenliste!R22)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R22=0," ",UPPER(Notenliste!R22))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K24" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L24" s="17" t="str">
-        <f>Notenliste!F22</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P22="x", Notenliste!P22="X"), "bestanden",IF(Notenliste!F22="KP"," ",Notenliste!F22))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M24" s="17">
         <f>Notenliste!E22</f>
@@ -7733,8 +7733,8 @@
         <v>0</v>
       </c>
       <c r="O24" s="17" t="str">
-        <f>UPPER(Notenliste!T22)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T22=0," ",UPPER(Notenliste!T22))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P24" s="60"/>
     </row>
@@ -7775,16 +7775,16 @@
         <v>0</v>
       </c>
       <c r="J25" s="17" t="str">
-        <f>UPPER(Notenliste!R23)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R23=0," ",UPPER(Notenliste!R23))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K25" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L25" s="17" t="str">
-        <f>Notenliste!F23</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P23="x", Notenliste!P23="X"), "bestanden",IF(Notenliste!F23="KP"," ",Notenliste!F23))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M25" s="17">
         <f>Notenliste!E23</f>
@@ -7795,8 +7795,8 @@
         <v>0</v>
       </c>
       <c r="O25" s="17" t="str">
-        <f>UPPER(Notenliste!T23)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T23=0," ",UPPER(Notenliste!T23))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P25" s="60"/>
     </row>
@@ -7837,16 +7837,16 @@
         <v>0</v>
       </c>
       <c r="J26" s="17" t="str">
-        <f>UPPER(Notenliste!R24)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R24=0," ",UPPER(Notenliste!R24))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K26" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L26" s="17" t="str">
-        <f>Notenliste!F24</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P24="x", Notenliste!P24="X"), "bestanden",IF(Notenliste!F24="KP"," ",Notenliste!F24))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M26" s="17">
         <f>Notenliste!E24</f>
@@ -7857,8 +7857,8 @@
         <v>0</v>
       </c>
       <c r="O26" s="17" t="str">
-        <f>UPPER(Notenliste!T24)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T24=0," ",UPPER(Notenliste!T24))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P26" s="60"/>
     </row>
@@ -7899,16 +7899,16 @@
         <v>0</v>
       </c>
       <c r="J27" s="17" t="str">
-        <f>UPPER(Notenliste!R25)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R25=0," ",UPPER(Notenliste!R25))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K27" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L27" s="17" t="str">
-        <f>Notenliste!F25</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P25="x", Notenliste!P25="X"), "bestanden",IF(Notenliste!F25="KP"," ",Notenliste!F25))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M27" s="17">
         <f>Notenliste!E25</f>
@@ -7919,8 +7919,8 @@
         <v>0</v>
       </c>
       <c r="O27" s="17" t="str">
-        <f>UPPER(Notenliste!T25)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T25=0," ",UPPER(Notenliste!T25))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P27" s="60"/>
     </row>
@@ -7961,16 +7961,16 @@
         <v>0</v>
       </c>
       <c r="J28" s="17" t="str">
-        <f>UPPER(Notenliste!R26)</f>
-        <v>0</v>
+        <f>IF(Notenliste!R26=0," ",UPPER(Notenliste!R26))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="K28" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L28" s="17" t="str">
-        <f>Notenliste!F26</f>
-        <v>KP</v>
+        <f>IF(OR(Notenliste!P26="x", Notenliste!P26="X"), "bestanden",IF(Notenliste!F26="KP"," ",Notenliste!F26))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="M28" s="17">
         <f>Notenliste!E26</f>
@@ -7981,8 +7981,8 @@
         <v>0</v>
       </c>
       <c r="O28" s="17" t="str">
-        <f>UPPER(Notenliste!T26)</f>
-        <v>0</v>
+        <f>IF(Notenliste!T26=0," ",UPPER(Notenliste!T26))</f>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="P28" s="60"/>
     </row>
@@ -9362,7 +9362,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9411,7 +9411,7 @@
         <v>attendance.ects_points</v>
       </c>
       <c r="D2" s="67" t="e">
-        <f>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</f>
+        <f>IF(OR(Notenliste!H2="x", Notenliste!H2="X"),"bestanden",IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))))</f>
         <v>#VALUE!</v>
       </c>
       <c r="E2" s="63" t="str">
@@ -9429,7 +9429,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D3" s="67" t="str">
-        <f>IF(Notenliste!D3=0," ",IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",Notenliste!F3)))</f>
+        <f>IF(OR(Notenliste!H3="x", Notenliste!H3="X"),"bestanden",IF(Notenliste!D3=0," ",IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",Notenliste!F3))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E3" s="63" t="str">
@@ -9447,7 +9447,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="67" t="str">
-        <f>IF(Notenliste!D4=0," ",IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",Notenliste!F4)))</f>
+        <f>IF(OR(Notenliste!H4="x", Notenliste!H4="X"),"bestanden",IF(Notenliste!D4=0," ",IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",Notenliste!F4))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E4" s="63" t="str">
@@ -9465,7 +9465,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="67" t="str">
-        <f>IF(Notenliste!D5=0," ",IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",Notenliste!F5)))</f>
+        <f>IF(OR(Notenliste!H5="x", Notenliste!H5="X"),"bestanden",IF(Notenliste!D5=0," ",IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",Notenliste!F5))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E5" s="63" t="str">
@@ -9483,7 +9483,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D6" s="67" t="str">
-        <f>IF(Notenliste!D6=0," ",IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",Notenliste!F6)))</f>
+        <f>IF(OR(Notenliste!H6="x", Notenliste!H6="X"),"bestanden",IF(Notenliste!D6=0," ",IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",Notenliste!F6))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E6" s="63" t="str">
@@ -9501,7 +9501,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D7" s="67" t="str">
-        <f>IF(Notenliste!D7=0," ",IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",Notenliste!F7)))</f>
+        <f>IF(OR(Notenliste!H7="x", Notenliste!H7="X"),"bestanden",IF(Notenliste!D7=0," ",IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",Notenliste!F7))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E7" s="63" t="str">
@@ -9519,7 +9519,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D8" s="67" t="str">
-        <f>IF(Notenliste!D8=0," ",IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",Notenliste!F8)))</f>
+        <f>IF(OR(Notenliste!H8="x", Notenliste!H8="X"),"bestanden",IF(Notenliste!D8=0," ",IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",Notenliste!F8))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="63" t="str">
@@ -9537,7 +9537,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D9" s="67" t="str">
-        <f>IF(Notenliste!D9=0," ",IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",Notenliste!F9)))</f>
+        <f>IF(OR(Notenliste!H9="x", Notenliste!H9="X"),"bestanden",IF(Notenliste!D9=0," ",IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",Notenliste!F9))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E9" s="63" t="str">
@@ -9555,7 +9555,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D10" s="67" t="str">
-        <f>IF(Notenliste!D10=0," ",IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",Notenliste!F10)))</f>
+        <f>IF(OR(Notenliste!H10="x", Notenliste!H10="X"),"bestanden",IF(Notenliste!D10=0," ",IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",Notenliste!F10))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E10" s="63" t="str">
@@ -9573,7 +9573,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D11" s="67" t="str">
-        <f>IF(Notenliste!D11=0," ",IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",Notenliste!F11)))</f>
+        <f>IF(OR(Notenliste!H11="x", Notenliste!H11="X"),"bestanden",IF(Notenliste!D11=0," ",IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",Notenliste!F11))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E11" s="63" t="str">
@@ -9591,7 +9591,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D12" s="67" t="str">
-        <f>IF(Notenliste!D12=0," ",IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",Notenliste!F12)))</f>
+        <f>IF(OR(Notenliste!H12="x", Notenliste!H12="X"),"bestanden",IF(Notenliste!D12=0," ",IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",Notenliste!F12))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E12" s="63" t="str">
@@ -9609,7 +9609,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D13" s="67" t="str">
-        <f>IF(Notenliste!D13=0," ",IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",Notenliste!F13)))</f>
+        <f>IF(OR(Notenliste!H13="x", Notenliste!H13="X"),"bestanden",IF(Notenliste!D13=0," ",IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",Notenliste!F13))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E13" s="63" t="str">
@@ -9627,7 +9627,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D14" s="67" t="str">
-        <f>IF(Notenliste!D14=0," ",IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",Notenliste!F14)))</f>
+        <f>IF(OR(Notenliste!H14="x", Notenliste!H14="X"),"bestanden",IF(Notenliste!D14=0," ",IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",Notenliste!F14))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="63" t="str">
@@ -9645,7 +9645,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D15" s="67" t="str">
-        <f>IF(Notenliste!D15=0," ",IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",Notenliste!F15)))</f>
+        <f>IF(OR(Notenliste!H15="x", Notenliste!H15="X"),"bestanden",IF(Notenliste!D15=0," ",IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",Notenliste!F15))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="63" t="str">
@@ -9663,7 +9663,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D16" s="67" t="str">
-        <f>IF(Notenliste!D16=0," ",IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",Notenliste!F16)))</f>
+        <f>IF(OR(Notenliste!H16="x", Notenliste!H16="X"),"bestanden",IF(Notenliste!D16=0," ",IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",Notenliste!F16))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E16" s="63" t="str">
@@ -9681,7 +9681,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D17" s="67" t="str">
-        <f>IF(Notenliste!D17=0," ",IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",Notenliste!F17)))</f>
+        <f>IF(OR(Notenliste!H17="x", Notenliste!H17="X"),"bestanden",IF(Notenliste!D17=0," ",IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",Notenliste!F17))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E17" s="63" t="str">
@@ -9699,7 +9699,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D18" s="67" t="str">
-        <f>IF(Notenliste!D18=0," ",IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",Notenliste!F18)))</f>
+        <f>IF(OR(Notenliste!H18="x", Notenliste!H18="X"),"bestanden",IF(Notenliste!D18=0," ",IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",Notenliste!F18))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E18" s="63" t="str">
@@ -9717,7 +9717,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D19" s="67" t="str">
-        <f>IF(Notenliste!D19=0," ",IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",Notenliste!F19)))</f>
+        <f>IF(OR(Notenliste!H19="x", Notenliste!H19="X"),"bestanden",IF(Notenliste!D19=0," ",IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",Notenliste!F19))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E19" s="63" t="str">
@@ -9735,7 +9735,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D20" s="67" t="str">
-        <f>IF(Notenliste!D20=0," ",IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",Notenliste!F20)))</f>
+        <f>IF(OR(Notenliste!H20="x", Notenliste!H20="X"),"bestanden",IF(Notenliste!D20=0," ",IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",Notenliste!F20))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E20" s="63" t="str">
@@ -9753,7 +9753,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D21" s="67" t="str">
-        <f>IF(Notenliste!D21=0," ",IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",Notenliste!F21)))</f>
+        <f>IF(OR(Notenliste!H21="x", Notenliste!H21="X"),"bestanden",IF(Notenliste!D21=0," ",IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",Notenliste!F21))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E21" s="63" t="str">
@@ -9771,7 +9771,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D22" s="67" t="str">
-        <f>IF(Notenliste!D22=0," ",IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",Notenliste!F22)))</f>
+        <f>IF(OR(Notenliste!H22="x", Notenliste!H22="X"),"bestanden",IF(Notenliste!D22=0," ",IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",Notenliste!F22))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E22" s="63" t="str">
@@ -9789,7 +9789,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D23" s="67" t="str">
-        <f>IF(Notenliste!D23=0," ",IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",Notenliste!F23)))</f>
+        <f>IF(OR(Notenliste!H23="x", Notenliste!H23="X"),"bestanden",IF(Notenliste!D23=0," ",IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",Notenliste!F23))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E23" s="63" t="str">
@@ -9807,7 +9807,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D24" s="67" t="str">
-        <f>IF(Notenliste!D24=0," ",IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",Notenliste!F24)))</f>
+        <f>IF(OR(Notenliste!H24="x", Notenliste!H24="X"),"bestanden",IF(Notenliste!D24=0," ",IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",Notenliste!F24))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="63" t="str">
@@ -9825,7 +9825,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D25" s="67" t="str">
-        <f>IF(Notenliste!D25=0," ",IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",Notenliste!F25)))</f>
+        <f>IF(OR(Notenliste!H25="x", Notenliste!H25="X"),"bestanden",IF(Notenliste!D25=0," ",IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",Notenliste!F25))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="63" t="str">
@@ -9843,7 +9843,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D26" s="67" t="str">
-        <f>IF(Notenliste!D26=0," ",IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",Notenliste!F26)))</f>
+        <f>IF(OR(Notenliste!H26="x", Notenliste!H26="X"),"bestanden",IF(Notenliste!D26=0," ",IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",Notenliste!F26))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="63" t="str">

--- a/src/spz/templates/export/spanisch_hueber.xlsx
+++ b/src/spz/templates/export/spanisch_hueber.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr showInkAnnotation="0" updateLinks="never" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E25E6B8-93BD-4894-8F8D-40F66D6FB414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -24,12 +25,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Notenliste!$H$1:$M$29</definedName>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$20,"&gt;"""),)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$J$30</definedName>
     <definedName name="ECTS">OFFSET(Einstellungen!$H$2,,,COUNTIF(Einstellungen!$H$2:$H$20,"&gt;"""),)</definedName>
     <definedName name="KURSNAME">OFFSET(Einstellungen!$A$2,,,COUNTIF(Einstellungen!$A$2:$A$20,"&gt;"""),)</definedName>
     <definedName name="NIVEAU">OFFSET(Einstellungen!$D$2,,,COUNTIF(Einstellungen!$D$2:$D$22,"&gt;"""),)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$J$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -628,7 +629,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#"/>
@@ -1242,36 +1243,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1296,6 +1275,28 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <protection locked="1" hidden="0"/>
@@ -1358,7 +1359,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1608,54 +1609,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:L2" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="B1:L2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:L2" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="B1:L2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Nachname" dataDxfId="20"/>
-    <tableColumn id="2" name="Vorname" dataDxfId="19"/>
-    <tableColumn id="3" name="Hochschule" dataDxfId="18"/>
-    <tableColumn id="4" name="Matrikelnummer" dataDxfId="17"/>
-    <tableColumn id="7" name="Note" dataDxfId="16"/>
-    <tableColumn id="9" name="LP" dataDxfId="15"/>
-    <tableColumn id="5" name="E-Mail" dataDxfId="14"/>
-    <tableColumn id="10" name="Telefon" dataDxfId="13"/>
-    <tableColumn id="11" name="bestanden" dataDxfId="12"/>
-    <tableColumn id="8" name="Teilnahmeschein" dataDxfId="11"/>
-    <tableColumn id="6" name="Schein erhalten" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="LP" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Telefon" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="bestanden" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Teilnahmeschein" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
+  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="LP" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="7">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!Q2&lt;&gt;0,Notenliste!Q2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Note" dataDxfId="0" totalsRowDxfId="4">
-      <calculatedColumnFormula>IF(OR(Notenliste!H2="x", Notenliste!H2="X"),"bestanden",IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="0" totalsRowDxfId="6">
+      <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",IF(OR(Notenliste!P2="x", Notenliste!P2="X"),"bestanden",Notenliste!F2))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Datum" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="2"/>
-    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="1"/>
-    <tableColumn id="8" name="Anmerkungen"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1693,9 +1694,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1730,7 +1731,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1765,7 +1766,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1938,7 +1939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:N26"/>
   <sheetViews>
@@ -1946,24 +1947,24 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="13" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="13" customWidth="1"/>
-    <col min="8" max="9" width="37.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" hidden="1"/>
+    <col min="5" max="5" width="18.44140625" style="13" customWidth="1"/>
+    <col min="6" max="7" width="8.109375" style="13" customWidth="1"/>
+    <col min="8" max="9" width="37.109375" customWidth="1"/>
+    <col min="10" max="10" width="24.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="45.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>24</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2053,7 +2054,7 @@
       <c r="F3"/>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2061,7 +2062,7 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2069,7 +2070,7 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2077,7 +2078,7 @@
       <c r="F6"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2085,7 +2086,7 @@
       <c r="F7"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2093,7 +2094,7 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2101,7 +2102,7 @@
       <c r="F9"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2109,7 +2110,7 @@
       <c r="F10"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2117,7 +2118,7 @@
       <c r="F11"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2125,7 +2126,7 @@
       <c r="F12"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2133,7 +2134,7 @@
       <c r="F13"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2141,7 +2142,7 @@
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2149,7 +2150,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2157,7 +2158,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2165,7 +2166,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2173,7 +2174,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2181,7 +2182,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2189,7 +2190,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2197,7 +2198,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2205,7 +2206,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2213,17 +2214,17 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2239,554 +2240,554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Tabelle2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:WVU38"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.9" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.95" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="5.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="5.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" style="2" customWidth="1"/>
     <col min="13" max="13" width="8" style="2" customWidth="1"/>
-    <col min="14" max="15" width="2.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" style="1" hidden="1"/>
+    <col min="14" max="15" width="2.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" style="1" hidden="1"/>
     <col min="23" max="23" width="16" style="1" hidden="1"/>
-    <col min="24" max="24" width="17.7109375" style="1" hidden="1"/>
+    <col min="24" max="24" width="17.6640625" style="1" hidden="1"/>
     <col min="25" max="25" width="3" style="1" hidden="1"/>
-    <col min="26" max="250" width="11.42578125" style="1" hidden="1"/>
-    <col min="251" max="251" width="15.42578125" style="1" hidden="1"/>
-    <col min="252" max="252" width="11.42578125" style="1" hidden="1"/>
-    <col min="253" max="253" width="15.7109375" style="1" hidden="1"/>
-    <col min="254" max="254" width="21.7109375" style="1" hidden="1"/>
-    <col min="255" max="257" width="11.42578125" style="1" hidden="1"/>
+    <col min="26" max="250" width="11.44140625" style="1" hidden="1"/>
+    <col min="251" max="251" width="15.44140625" style="1" hidden="1"/>
+    <col min="252" max="252" width="11.44140625" style="1" hidden="1"/>
+    <col min="253" max="253" width="15.6640625" style="1" hidden="1"/>
+    <col min="254" max="254" width="21.6640625" style="1" hidden="1"/>
+    <col min="255" max="257" width="11.44140625" style="1" hidden="1"/>
     <col min="258" max="258" width="16" style="1" hidden="1"/>
-    <col min="259" max="259" width="20.42578125" style="1" hidden="1"/>
-    <col min="260" max="506" width="11.42578125" style="1" hidden="1"/>
-    <col min="507" max="507" width="15.42578125" style="1" hidden="1"/>
-    <col min="508" max="508" width="11.42578125" style="1" hidden="1"/>
-    <col min="509" max="509" width="15.7109375" style="1" hidden="1"/>
-    <col min="510" max="510" width="21.7109375" style="1" hidden="1"/>
-    <col min="511" max="513" width="11.42578125" style="1" hidden="1"/>
+    <col min="259" max="259" width="20.44140625" style="1" hidden="1"/>
+    <col min="260" max="506" width="11.44140625" style="1" hidden="1"/>
+    <col min="507" max="507" width="15.44140625" style="1" hidden="1"/>
+    <col min="508" max="508" width="11.44140625" style="1" hidden="1"/>
+    <col min="509" max="509" width="15.6640625" style="1" hidden="1"/>
+    <col min="510" max="510" width="21.6640625" style="1" hidden="1"/>
+    <col min="511" max="513" width="11.44140625" style="1" hidden="1"/>
     <col min="514" max="514" width="16" style="1" hidden="1"/>
-    <col min="515" max="515" width="20.42578125" style="1" hidden="1"/>
-    <col min="516" max="762" width="11.42578125" style="1" hidden="1"/>
-    <col min="763" max="763" width="15.42578125" style="1" hidden="1"/>
-    <col min="764" max="764" width="11.42578125" style="1" hidden="1"/>
-    <col min="765" max="765" width="15.7109375" style="1" hidden="1"/>
-    <col min="766" max="766" width="21.7109375" style="1" hidden="1"/>
-    <col min="767" max="769" width="11.42578125" style="1" hidden="1"/>
+    <col min="515" max="515" width="20.44140625" style="1" hidden="1"/>
+    <col min="516" max="762" width="11.44140625" style="1" hidden="1"/>
+    <col min="763" max="763" width="15.44140625" style="1" hidden="1"/>
+    <col min="764" max="764" width="11.44140625" style="1" hidden="1"/>
+    <col min="765" max="765" width="15.6640625" style="1" hidden="1"/>
+    <col min="766" max="766" width="21.6640625" style="1" hidden="1"/>
+    <col min="767" max="769" width="11.44140625" style="1" hidden="1"/>
     <col min="770" max="770" width="16" style="1" hidden="1"/>
-    <col min="771" max="771" width="20.42578125" style="1" hidden="1"/>
-    <col min="772" max="1018" width="11.42578125" style="1" hidden="1"/>
-    <col min="1019" max="1019" width="15.42578125" style="1" hidden="1"/>
-    <col min="1020" max="1020" width="11.42578125" style="1" hidden="1"/>
-    <col min="1021" max="1021" width="15.7109375" style="1" hidden="1"/>
-    <col min="1022" max="1022" width="21.7109375" style="1" hidden="1"/>
-    <col min="1023" max="1025" width="11.42578125" style="1" hidden="1"/>
+    <col min="771" max="771" width="20.44140625" style="1" hidden="1"/>
+    <col min="772" max="1018" width="11.44140625" style="1" hidden="1"/>
+    <col min="1019" max="1019" width="15.44140625" style="1" hidden="1"/>
+    <col min="1020" max="1020" width="11.44140625" style="1" hidden="1"/>
+    <col min="1021" max="1021" width="15.6640625" style="1" hidden="1"/>
+    <col min="1022" max="1022" width="21.6640625" style="1" hidden="1"/>
+    <col min="1023" max="1025" width="11.44140625" style="1" hidden="1"/>
     <col min="1026" max="1026" width="16" style="1" hidden="1"/>
-    <col min="1027" max="1027" width="20.42578125" style="1" hidden="1"/>
-    <col min="1028" max="1274" width="11.42578125" style="1" hidden="1"/>
-    <col min="1275" max="1275" width="15.42578125" style="1" hidden="1"/>
-    <col min="1276" max="1276" width="11.42578125" style="1" hidden="1"/>
-    <col min="1277" max="1277" width="15.7109375" style="1" hidden="1"/>
-    <col min="1278" max="1278" width="21.7109375" style="1" hidden="1"/>
-    <col min="1279" max="1281" width="11.42578125" style="1" hidden="1"/>
+    <col min="1027" max="1027" width="20.44140625" style="1" hidden="1"/>
+    <col min="1028" max="1274" width="11.44140625" style="1" hidden="1"/>
+    <col min="1275" max="1275" width="15.44140625" style="1" hidden="1"/>
+    <col min="1276" max="1276" width="11.44140625" style="1" hidden="1"/>
+    <col min="1277" max="1277" width="15.6640625" style="1" hidden="1"/>
+    <col min="1278" max="1278" width="21.6640625" style="1" hidden="1"/>
+    <col min="1279" max="1281" width="11.44140625" style="1" hidden="1"/>
     <col min="1282" max="1282" width="16" style="1" hidden="1"/>
-    <col min="1283" max="1283" width="20.42578125" style="1" hidden="1"/>
-    <col min="1284" max="1530" width="11.42578125" style="1" hidden="1"/>
-    <col min="1531" max="1531" width="15.42578125" style="1" hidden="1"/>
-    <col min="1532" max="1532" width="11.42578125" style="1" hidden="1"/>
-    <col min="1533" max="1533" width="15.7109375" style="1" hidden="1"/>
-    <col min="1534" max="1534" width="21.7109375" style="1" hidden="1"/>
-    <col min="1535" max="1537" width="11.42578125" style="1" hidden="1"/>
+    <col min="1283" max="1283" width="20.44140625" style="1" hidden="1"/>
+    <col min="1284" max="1530" width="11.44140625" style="1" hidden="1"/>
+    <col min="1531" max="1531" width="15.44140625" style="1" hidden="1"/>
+    <col min="1532" max="1532" width="11.44140625" style="1" hidden="1"/>
+    <col min="1533" max="1533" width="15.6640625" style="1" hidden="1"/>
+    <col min="1534" max="1534" width="21.6640625" style="1" hidden="1"/>
+    <col min="1535" max="1537" width="11.44140625" style="1" hidden="1"/>
     <col min="1538" max="1538" width="16" style="1" hidden="1"/>
-    <col min="1539" max="1539" width="20.42578125" style="1" hidden="1"/>
-    <col min="1540" max="1786" width="11.42578125" style="1" hidden="1"/>
-    <col min="1787" max="1787" width="15.42578125" style="1" hidden="1"/>
-    <col min="1788" max="1788" width="11.42578125" style="1" hidden="1"/>
-    <col min="1789" max="1789" width="15.7109375" style="1" hidden="1"/>
-    <col min="1790" max="1790" width="21.7109375" style="1" hidden="1"/>
-    <col min="1791" max="1793" width="11.42578125" style="1" hidden="1"/>
+    <col min="1539" max="1539" width="20.44140625" style="1" hidden="1"/>
+    <col min="1540" max="1786" width="11.44140625" style="1" hidden="1"/>
+    <col min="1787" max="1787" width="15.44140625" style="1" hidden="1"/>
+    <col min="1788" max="1788" width="11.44140625" style="1" hidden="1"/>
+    <col min="1789" max="1789" width="15.6640625" style="1" hidden="1"/>
+    <col min="1790" max="1790" width="21.6640625" style="1" hidden="1"/>
+    <col min="1791" max="1793" width="11.44140625" style="1" hidden="1"/>
     <col min="1794" max="1794" width="16" style="1" hidden="1"/>
-    <col min="1795" max="1795" width="20.42578125" style="1" hidden="1"/>
-    <col min="1796" max="2042" width="11.42578125" style="1" hidden="1"/>
-    <col min="2043" max="2043" width="15.42578125" style="1" hidden="1"/>
-    <col min="2044" max="2044" width="11.42578125" style="1" hidden="1"/>
-    <col min="2045" max="2045" width="15.7109375" style="1" hidden="1"/>
-    <col min="2046" max="2046" width="21.7109375" style="1" hidden="1"/>
-    <col min="2047" max="2049" width="11.42578125" style="1" hidden="1"/>
+    <col min="1795" max="1795" width="20.44140625" style="1" hidden="1"/>
+    <col min="1796" max="2042" width="11.44140625" style="1" hidden="1"/>
+    <col min="2043" max="2043" width="15.44140625" style="1" hidden="1"/>
+    <col min="2044" max="2044" width="11.44140625" style="1" hidden="1"/>
+    <col min="2045" max="2045" width="15.6640625" style="1" hidden="1"/>
+    <col min="2046" max="2046" width="21.6640625" style="1" hidden="1"/>
+    <col min="2047" max="2049" width="11.44140625" style="1" hidden="1"/>
     <col min="2050" max="2050" width="16" style="1" hidden="1"/>
-    <col min="2051" max="2051" width="20.42578125" style="1" hidden="1"/>
-    <col min="2052" max="2298" width="11.42578125" style="1" hidden="1"/>
-    <col min="2299" max="2299" width="15.42578125" style="1" hidden="1"/>
-    <col min="2300" max="2300" width="11.42578125" style="1" hidden="1"/>
-    <col min="2301" max="2301" width="15.7109375" style="1" hidden="1"/>
-    <col min="2302" max="2302" width="21.7109375" style="1" hidden="1"/>
-    <col min="2303" max="2305" width="11.42578125" style="1" hidden="1"/>
+    <col min="2051" max="2051" width="20.44140625" style="1" hidden="1"/>
+    <col min="2052" max="2298" width="11.44140625" style="1" hidden="1"/>
+    <col min="2299" max="2299" width="15.44140625" style="1" hidden="1"/>
+    <col min="2300" max="2300" width="11.44140625" style="1" hidden="1"/>
+    <col min="2301" max="2301" width="15.6640625" style="1" hidden="1"/>
+    <col min="2302" max="2302" width="21.6640625" style="1" hidden="1"/>
+    <col min="2303" max="2305" width="11.44140625" style="1" hidden="1"/>
     <col min="2306" max="2306" width="16" style="1" hidden="1"/>
-    <col min="2307" max="2307" width="20.42578125" style="1" hidden="1"/>
-    <col min="2308" max="2554" width="11.42578125" style="1" hidden="1"/>
-    <col min="2555" max="2555" width="15.42578125" style="1" hidden="1"/>
-    <col min="2556" max="2556" width="11.42578125" style="1" hidden="1"/>
-    <col min="2557" max="2557" width="15.7109375" style="1" hidden="1"/>
-    <col min="2558" max="2558" width="21.7109375" style="1" hidden="1"/>
-    <col min="2559" max="2561" width="11.42578125" style="1" hidden="1"/>
+    <col min="2307" max="2307" width="20.44140625" style="1" hidden="1"/>
+    <col min="2308" max="2554" width="11.44140625" style="1" hidden="1"/>
+    <col min="2555" max="2555" width="15.44140625" style="1" hidden="1"/>
+    <col min="2556" max="2556" width="11.44140625" style="1" hidden="1"/>
+    <col min="2557" max="2557" width="15.6640625" style="1" hidden="1"/>
+    <col min="2558" max="2558" width="21.6640625" style="1" hidden="1"/>
+    <col min="2559" max="2561" width="11.44140625" style="1" hidden="1"/>
     <col min="2562" max="2562" width="16" style="1" hidden="1"/>
-    <col min="2563" max="2563" width="20.42578125" style="1" hidden="1"/>
-    <col min="2564" max="2810" width="11.42578125" style="1" hidden="1"/>
-    <col min="2811" max="2811" width="15.42578125" style="1" hidden="1"/>
-    <col min="2812" max="2812" width="11.42578125" style="1" hidden="1"/>
-    <col min="2813" max="2813" width="15.7109375" style="1" hidden="1"/>
-    <col min="2814" max="2814" width="21.7109375" style="1" hidden="1"/>
-    <col min="2815" max="2817" width="11.42578125" style="1" hidden="1"/>
+    <col min="2563" max="2563" width="20.44140625" style="1" hidden="1"/>
+    <col min="2564" max="2810" width="11.44140625" style="1" hidden="1"/>
+    <col min="2811" max="2811" width="15.44140625" style="1" hidden="1"/>
+    <col min="2812" max="2812" width="11.44140625" style="1" hidden="1"/>
+    <col min="2813" max="2813" width="15.6640625" style="1" hidden="1"/>
+    <col min="2814" max="2814" width="21.6640625" style="1" hidden="1"/>
+    <col min="2815" max="2817" width="11.44140625" style="1" hidden="1"/>
     <col min="2818" max="2818" width="16" style="1" hidden="1"/>
-    <col min="2819" max="2819" width="20.42578125" style="1" hidden="1"/>
-    <col min="2820" max="3066" width="11.42578125" style="1" hidden="1"/>
-    <col min="3067" max="3067" width="15.42578125" style="1" hidden="1"/>
-    <col min="3068" max="3068" width="11.42578125" style="1" hidden="1"/>
-    <col min="3069" max="3069" width="15.7109375" style="1" hidden="1"/>
-    <col min="3070" max="3070" width="21.7109375" style="1" hidden="1"/>
-    <col min="3071" max="3073" width="11.42578125" style="1" hidden="1"/>
+    <col min="2819" max="2819" width="20.44140625" style="1" hidden="1"/>
+    <col min="2820" max="3066" width="11.44140625" style="1" hidden="1"/>
+    <col min="3067" max="3067" width="15.44140625" style="1" hidden="1"/>
+    <col min="3068" max="3068" width="11.44140625" style="1" hidden="1"/>
+    <col min="3069" max="3069" width="15.6640625" style="1" hidden="1"/>
+    <col min="3070" max="3070" width="21.6640625" style="1" hidden="1"/>
+    <col min="3071" max="3073" width="11.44140625" style="1" hidden="1"/>
     <col min="3074" max="3074" width="16" style="1" hidden="1"/>
-    <col min="3075" max="3075" width="20.42578125" style="1" hidden="1"/>
-    <col min="3076" max="3322" width="11.42578125" style="1" hidden="1"/>
-    <col min="3323" max="3323" width="15.42578125" style="1" hidden="1"/>
-    <col min="3324" max="3324" width="11.42578125" style="1" hidden="1"/>
-    <col min="3325" max="3325" width="15.7109375" style="1" hidden="1"/>
-    <col min="3326" max="3326" width="21.7109375" style="1" hidden="1"/>
-    <col min="3327" max="3329" width="11.42578125" style="1" hidden="1"/>
+    <col min="3075" max="3075" width="20.44140625" style="1" hidden="1"/>
+    <col min="3076" max="3322" width="11.44140625" style="1" hidden="1"/>
+    <col min="3323" max="3323" width="15.44140625" style="1" hidden="1"/>
+    <col min="3324" max="3324" width="11.44140625" style="1" hidden="1"/>
+    <col min="3325" max="3325" width="15.6640625" style="1" hidden="1"/>
+    <col min="3326" max="3326" width="21.6640625" style="1" hidden="1"/>
+    <col min="3327" max="3329" width="11.44140625" style="1" hidden="1"/>
     <col min="3330" max="3330" width="16" style="1" hidden="1"/>
-    <col min="3331" max="3331" width="20.42578125" style="1" hidden="1"/>
-    <col min="3332" max="3578" width="11.42578125" style="1" hidden="1"/>
-    <col min="3579" max="3579" width="15.42578125" style="1" hidden="1"/>
-    <col min="3580" max="3580" width="11.42578125" style="1" hidden="1"/>
-    <col min="3581" max="3581" width="15.7109375" style="1" hidden="1"/>
-    <col min="3582" max="3582" width="21.7109375" style="1" hidden="1"/>
-    <col min="3583" max="3585" width="11.42578125" style="1" hidden="1"/>
+    <col min="3331" max="3331" width="20.44140625" style="1" hidden="1"/>
+    <col min="3332" max="3578" width="11.44140625" style="1" hidden="1"/>
+    <col min="3579" max="3579" width="15.44140625" style="1" hidden="1"/>
+    <col min="3580" max="3580" width="11.44140625" style="1" hidden="1"/>
+    <col min="3581" max="3581" width="15.6640625" style="1" hidden="1"/>
+    <col min="3582" max="3582" width="21.6640625" style="1" hidden="1"/>
+    <col min="3583" max="3585" width="11.44140625" style="1" hidden="1"/>
     <col min="3586" max="3586" width="16" style="1" hidden="1"/>
-    <col min="3587" max="3587" width="20.42578125" style="1" hidden="1"/>
-    <col min="3588" max="3834" width="11.42578125" style="1" hidden="1"/>
-    <col min="3835" max="3835" width="15.42578125" style="1" hidden="1"/>
-    <col min="3836" max="3836" width="11.42578125" style="1" hidden="1"/>
-    <col min="3837" max="3837" width="15.7109375" style="1" hidden="1"/>
-    <col min="3838" max="3838" width="21.7109375" style="1" hidden="1"/>
-    <col min="3839" max="3841" width="11.42578125" style="1" hidden="1"/>
+    <col min="3587" max="3587" width="20.44140625" style="1" hidden="1"/>
+    <col min="3588" max="3834" width="11.44140625" style="1" hidden="1"/>
+    <col min="3835" max="3835" width="15.44140625" style="1" hidden="1"/>
+    <col min="3836" max="3836" width="11.44140625" style="1" hidden="1"/>
+    <col min="3837" max="3837" width="15.6640625" style="1" hidden="1"/>
+    <col min="3838" max="3838" width="21.6640625" style="1" hidden="1"/>
+    <col min="3839" max="3841" width="11.44140625" style="1" hidden="1"/>
     <col min="3842" max="3842" width="16" style="1" hidden="1"/>
-    <col min="3843" max="3843" width="20.42578125" style="1" hidden="1"/>
-    <col min="3844" max="4090" width="11.42578125" style="1" hidden="1"/>
-    <col min="4091" max="4091" width="15.42578125" style="1" hidden="1"/>
-    <col min="4092" max="4092" width="11.42578125" style="1" hidden="1"/>
-    <col min="4093" max="4093" width="15.7109375" style="1" hidden="1"/>
-    <col min="4094" max="4094" width="21.7109375" style="1" hidden="1"/>
-    <col min="4095" max="4097" width="11.42578125" style="1" hidden="1"/>
+    <col min="3843" max="3843" width="20.44140625" style="1" hidden="1"/>
+    <col min="3844" max="4090" width="11.44140625" style="1" hidden="1"/>
+    <col min="4091" max="4091" width="15.44140625" style="1" hidden="1"/>
+    <col min="4092" max="4092" width="11.44140625" style="1" hidden="1"/>
+    <col min="4093" max="4093" width="15.6640625" style="1" hidden="1"/>
+    <col min="4094" max="4094" width="21.6640625" style="1" hidden="1"/>
+    <col min="4095" max="4097" width="11.44140625" style="1" hidden="1"/>
     <col min="4098" max="4098" width="16" style="1" hidden="1"/>
-    <col min="4099" max="4099" width="20.42578125" style="1" hidden="1"/>
-    <col min="4100" max="4346" width="11.42578125" style="1" hidden="1"/>
-    <col min="4347" max="4347" width="15.42578125" style="1" hidden="1"/>
-    <col min="4348" max="4348" width="11.42578125" style="1" hidden="1"/>
-    <col min="4349" max="4349" width="15.7109375" style="1" hidden="1"/>
-    <col min="4350" max="4350" width="21.7109375" style="1" hidden="1"/>
-    <col min="4351" max="4353" width="11.42578125" style="1" hidden="1"/>
+    <col min="4099" max="4099" width="20.44140625" style="1" hidden="1"/>
+    <col min="4100" max="4346" width="11.44140625" style="1" hidden="1"/>
+    <col min="4347" max="4347" width="15.44140625" style="1" hidden="1"/>
+    <col min="4348" max="4348" width="11.44140625" style="1" hidden="1"/>
+    <col min="4349" max="4349" width="15.6640625" style="1" hidden="1"/>
+    <col min="4350" max="4350" width="21.6640625" style="1" hidden="1"/>
+    <col min="4351" max="4353" width="11.44140625" style="1" hidden="1"/>
     <col min="4354" max="4354" width="16" style="1" hidden="1"/>
-    <col min="4355" max="4355" width="20.42578125" style="1" hidden="1"/>
-    <col min="4356" max="4602" width="11.42578125" style="1" hidden="1"/>
-    <col min="4603" max="4603" width="15.42578125" style="1" hidden="1"/>
-    <col min="4604" max="4604" width="11.42578125" style="1" hidden="1"/>
-    <col min="4605" max="4605" width="15.7109375" style="1" hidden="1"/>
-    <col min="4606" max="4606" width="21.7109375" style="1" hidden="1"/>
-    <col min="4607" max="4609" width="11.42578125" style="1" hidden="1"/>
+    <col min="4355" max="4355" width="20.44140625" style="1" hidden="1"/>
+    <col min="4356" max="4602" width="11.44140625" style="1" hidden="1"/>
+    <col min="4603" max="4603" width="15.44140625" style="1" hidden="1"/>
+    <col min="4604" max="4604" width="11.44140625" style="1" hidden="1"/>
+    <col min="4605" max="4605" width="15.6640625" style="1" hidden="1"/>
+    <col min="4606" max="4606" width="21.6640625" style="1" hidden="1"/>
+    <col min="4607" max="4609" width="11.44140625" style="1" hidden="1"/>
     <col min="4610" max="4610" width="16" style="1" hidden="1"/>
-    <col min="4611" max="4611" width="20.42578125" style="1" hidden="1"/>
-    <col min="4612" max="4858" width="11.42578125" style="1" hidden="1"/>
-    <col min="4859" max="4859" width="15.42578125" style="1" hidden="1"/>
-    <col min="4860" max="4860" width="11.42578125" style="1" hidden="1"/>
-    <col min="4861" max="4861" width="15.7109375" style="1" hidden="1"/>
-    <col min="4862" max="4862" width="21.7109375" style="1" hidden="1"/>
-    <col min="4863" max="4865" width="11.42578125" style="1" hidden="1"/>
+    <col min="4611" max="4611" width="20.44140625" style="1" hidden="1"/>
+    <col min="4612" max="4858" width="11.44140625" style="1" hidden="1"/>
+    <col min="4859" max="4859" width="15.44140625" style="1" hidden="1"/>
+    <col min="4860" max="4860" width="11.44140625" style="1" hidden="1"/>
+    <col min="4861" max="4861" width="15.6640625" style="1" hidden="1"/>
+    <col min="4862" max="4862" width="21.6640625" style="1" hidden="1"/>
+    <col min="4863" max="4865" width="11.44140625" style="1" hidden="1"/>
     <col min="4866" max="4866" width="16" style="1" hidden="1"/>
-    <col min="4867" max="4867" width="20.42578125" style="1" hidden="1"/>
-    <col min="4868" max="5114" width="11.42578125" style="1" hidden="1"/>
-    <col min="5115" max="5115" width="15.42578125" style="1" hidden="1"/>
-    <col min="5116" max="5116" width="11.42578125" style="1" hidden="1"/>
-    <col min="5117" max="5117" width="15.7109375" style="1" hidden="1"/>
-    <col min="5118" max="5118" width="21.7109375" style="1" hidden="1"/>
-    <col min="5119" max="5121" width="11.42578125" style="1" hidden="1"/>
+    <col min="4867" max="4867" width="20.44140625" style="1" hidden="1"/>
+    <col min="4868" max="5114" width="11.44140625" style="1" hidden="1"/>
+    <col min="5115" max="5115" width="15.44140625" style="1" hidden="1"/>
+    <col min="5116" max="5116" width="11.44140625" style="1" hidden="1"/>
+    <col min="5117" max="5117" width="15.6640625" style="1" hidden="1"/>
+    <col min="5118" max="5118" width="21.6640625" style="1" hidden="1"/>
+    <col min="5119" max="5121" width="11.44140625" style="1" hidden="1"/>
     <col min="5122" max="5122" width="16" style="1" hidden="1"/>
-    <col min="5123" max="5123" width="20.42578125" style="1" hidden="1"/>
-    <col min="5124" max="5370" width="11.42578125" style="1" hidden="1"/>
-    <col min="5371" max="5371" width="15.42578125" style="1" hidden="1"/>
-    <col min="5372" max="5372" width="11.42578125" style="1" hidden="1"/>
-    <col min="5373" max="5373" width="15.7109375" style="1" hidden="1"/>
-    <col min="5374" max="5374" width="21.7109375" style="1" hidden="1"/>
-    <col min="5375" max="5377" width="11.42578125" style="1" hidden="1"/>
+    <col min="5123" max="5123" width="20.44140625" style="1" hidden="1"/>
+    <col min="5124" max="5370" width="11.44140625" style="1" hidden="1"/>
+    <col min="5371" max="5371" width="15.44140625" style="1" hidden="1"/>
+    <col min="5372" max="5372" width="11.44140625" style="1" hidden="1"/>
+    <col min="5373" max="5373" width="15.6640625" style="1" hidden="1"/>
+    <col min="5374" max="5374" width="21.6640625" style="1" hidden="1"/>
+    <col min="5375" max="5377" width="11.44140625" style="1" hidden="1"/>
     <col min="5378" max="5378" width="16" style="1" hidden="1"/>
-    <col min="5379" max="5379" width="20.42578125" style="1" hidden="1"/>
-    <col min="5380" max="5626" width="11.42578125" style="1" hidden="1"/>
-    <col min="5627" max="5627" width="15.42578125" style="1" hidden="1"/>
-    <col min="5628" max="5628" width="11.42578125" style="1" hidden="1"/>
-    <col min="5629" max="5629" width="15.7109375" style="1" hidden="1"/>
-    <col min="5630" max="5630" width="21.7109375" style="1" hidden="1"/>
-    <col min="5631" max="5633" width="11.42578125" style="1" hidden="1"/>
+    <col min="5379" max="5379" width="20.44140625" style="1" hidden="1"/>
+    <col min="5380" max="5626" width="11.44140625" style="1" hidden="1"/>
+    <col min="5627" max="5627" width="15.44140625" style="1" hidden="1"/>
+    <col min="5628" max="5628" width="11.44140625" style="1" hidden="1"/>
+    <col min="5629" max="5629" width="15.6640625" style="1" hidden="1"/>
+    <col min="5630" max="5630" width="21.6640625" style="1" hidden="1"/>
+    <col min="5631" max="5633" width="11.44140625" style="1" hidden="1"/>
     <col min="5634" max="5634" width="16" style="1" hidden="1"/>
-    <col min="5635" max="5635" width="20.42578125" style="1" hidden="1"/>
-    <col min="5636" max="5882" width="11.42578125" style="1" hidden="1"/>
-    <col min="5883" max="5883" width="15.42578125" style="1" hidden="1"/>
-    <col min="5884" max="5884" width="11.42578125" style="1" hidden="1"/>
-    <col min="5885" max="5885" width="15.7109375" style="1" hidden="1"/>
-    <col min="5886" max="5886" width="21.7109375" style="1" hidden="1"/>
-    <col min="5887" max="5889" width="11.42578125" style="1" hidden="1"/>
+    <col min="5635" max="5635" width="20.44140625" style="1" hidden="1"/>
+    <col min="5636" max="5882" width="11.44140625" style="1" hidden="1"/>
+    <col min="5883" max="5883" width="15.44140625" style="1" hidden="1"/>
+    <col min="5884" max="5884" width="11.44140625" style="1" hidden="1"/>
+    <col min="5885" max="5885" width="15.6640625" style="1" hidden="1"/>
+    <col min="5886" max="5886" width="21.6640625" style="1" hidden="1"/>
+    <col min="5887" max="5889" width="11.44140625" style="1" hidden="1"/>
     <col min="5890" max="5890" width="16" style="1" hidden="1"/>
-    <col min="5891" max="5891" width="20.42578125" style="1" hidden="1"/>
-    <col min="5892" max="6138" width="11.42578125" style="1" hidden="1"/>
-    <col min="6139" max="6139" width="15.42578125" style="1" hidden="1"/>
-    <col min="6140" max="6140" width="11.42578125" style="1" hidden="1"/>
-    <col min="6141" max="6141" width="15.7109375" style="1" hidden="1"/>
-    <col min="6142" max="6142" width="21.7109375" style="1" hidden="1"/>
-    <col min="6143" max="6145" width="11.42578125" style="1" hidden="1"/>
+    <col min="5891" max="5891" width="20.44140625" style="1" hidden="1"/>
+    <col min="5892" max="6138" width="11.44140625" style="1" hidden="1"/>
+    <col min="6139" max="6139" width="15.44140625" style="1" hidden="1"/>
+    <col min="6140" max="6140" width="11.44140625" style="1" hidden="1"/>
+    <col min="6141" max="6141" width="15.6640625" style="1" hidden="1"/>
+    <col min="6142" max="6142" width="21.6640625" style="1" hidden="1"/>
+    <col min="6143" max="6145" width="11.44140625" style="1" hidden="1"/>
     <col min="6146" max="6146" width="16" style="1" hidden="1"/>
-    <col min="6147" max="6147" width="20.42578125" style="1" hidden="1"/>
-    <col min="6148" max="6394" width="11.42578125" style="1" hidden="1"/>
-    <col min="6395" max="6395" width="15.42578125" style="1" hidden="1"/>
-    <col min="6396" max="6396" width="11.42578125" style="1" hidden="1"/>
-    <col min="6397" max="6397" width="15.7109375" style="1" hidden="1"/>
-    <col min="6398" max="6398" width="21.7109375" style="1" hidden="1"/>
-    <col min="6399" max="6401" width="11.42578125" style="1" hidden="1"/>
+    <col min="6147" max="6147" width="20.44140625" style="1" hidden="1"/>
+    <col min="6148" max="6394" width="11.44140625" style="1" hidden="1"/>
+    <col min="6395" max="6395" width="15.44140625" style="1" hidden="1"/>
+    <col min="6396" max="6396" width="11.44140625" style="1" hidden="1"/>
+    <col min="6397" max="6397" width="15.6640625" style="1" hidden="1"/>
+    <col min="6398" max="6398" width="21.6640625" style="1" hidden="1"/>
+    <col min="6399" max="6401" width="11.44140625" style="1" hidden="1"/>
     <col min="6402" max="6402" width="16" style="1" hidden="1"/>
-    <col min="6403" max="6403" width="20.42578125" style="1" hidden="1"/>
-    <col min="6404" max="6650" width="11.42578125" style="1" hidden="1"/>
-    <col min="6651" max="6651" width="15.42578125" style="1" hidden="1"/>
-    <col min="6652" max="6652" width="11.42578125" style="1" hidden="1"/>
-    <col min="6653" max="6653" width="15.7109375" style="1" hidden="1"/>
-    <col min="6654" max="6654" width="21.7109375" style="1" hidden="1"/>
-    <col min="6655" max="6657" width="11.42578125" style="1" hidden="1"/>
+    <col min="6403" max="6403" width="20.44140625" style="1" hidden="1"/>
+    <col min="6404" max="6650" width="11.44140625" style="1" hidden="1"/>
+    <col min="6651" max="6651" width="15.44140625" style="1" hidden="1"/>
+    <col min="6652" max="6652" width="11.44140625" style="1" hidden="1"/>
+    <col min="6653" max="6653" width="15.6640625" style="1" hidden="1"/>
+    <col min="6654" max="6654" width="21.6640625" style="1" hidden="1"/>
+    <col min="6655" max="6657" width="11.44140625" style="1" hidden="1"/>
     <col min="6658" max="6658" width="16" style="1" hidden="1"/>
-    <col min="6659" max="6659" width="20.42578125" style="1" hidden="1"/>
-    <col min="6660" max="6906" width="11.42578125" style="1" hidden="1"/>
-    <col min="6907" max="6907" width="15.42578125" style="1" hidden="1"/>
-    <col min="6908" max="6908" width="11.42578125" style="1" hidden="1"/>
-    <col min="6909" max="6909" width="15.7109375" style="1" hidden="1"/>
-    <col min="6910" max="6910" width="21.7109375" style="1" hidden="1"/>
-    <col min="6911" max="6913" width="11.42578125" style="1" hidden="1"/>
+    <col min="6659" max="6659" width="20.44140625" style="1" hidden="1"/>
+    <col min="6660" max="6906" width="11.44140625" style="1" hidden="1"/>
+    <col min="6907" max="6907" width="15.44140625" style="1" hidden="1"/>
+    <col min="6908" max="6908" width="11.44140625" style="1" hidden="1"/>
+    <col min="6909" max="6909" width="15.6640625" style="1" hidden="1"/>
+    <col min="6910" max="6910" width="21.6640625" style="1" hidden="1"/>
+    <col min="6911" max="6913" width="11.44140625" style="1" hidden="1"/>
     <col min="6914" max="6914" width="16" style="1" hidden="1"/>
-    <col min="6915" max="6915" width="20.42578125" style="1" hidden="1"/>
-    <col min="6916" max="7162" width="11.42578125" style="1" hidden="1"/>
-    <col min="7163" max="7163" width="15.42578125" style="1" hidden="1"/>
-    <col min="7164" max="7164" width="11.42578125" style="1" hidden="1"/>
-    <col min="7165" max="7165" width="15.7109375" style="1" hidden="1"/>
-    <col min="7166" max="7166" width="21.7109375" style="1" hidden="1"/>
-    <col min="7167" max="7169" width="11.42578125" style="1" hidden="1"/>
+    <col min="6915" max="6915" width="20.44140625" style="1" hidden="1"/>
+    <col min="6916" max="7162" width="11.44140625" style="1" hidden="1"/>
+    <col min="7163" max="7163" width="15.44140625" style="1" hidden="1"/>
+    <col min="7164" max="7164" width="11.44140625" style="1" hidden="1"/>
+    <col min="7165" max="7165" width="15.6640625" style="1" hidden="1"/>
+    <col min="7166" max="7166" width="21.6640625" style="1" hidden="1"/>
+    <col min="7167" max="7169" width="11.44140625" style="1" hidden="1"/>
     <col min="7170" max="7170" width="16" style="1" hidden="1"/>
-    <col min="7171" max="7171" width="20.42578125" style="1" hidden="1"/>
-    <col min="7172" max="7418" width="11.42578125" style="1" hidden="1"/>
-    <col min="7419" max="7419" width="15.42578125" style="1" hidden="1"/>
-    <col min="7420" max="7420" width="11.42578125" style="1" hidden="1"/>
-    <col min="7421" max="7421" width="15.7109375" style="1" hidden="1"/>
-    <col min="7422" max="7422" width="21.7109375" style="1" hidden="1"/>
-    <col min="7423" max="7425" width="11.42578125" style="1" hidden="1"/>
+    <col min="7171" max="7171" width="20.44140625" style="1" hidden="1"/>
+    <col min="7172" max="7418" width="11.44140625" style="1" hidden="1"/>
+    <col min="7419" max="7419" width="15.44140625" style="1" hidden="1"/>
+    <col min="7420" max="7420" width="11.44140625" style="1" hidden="1"/>
+    <col min="7421" max="7421" width="15.6640625" style="1" hidden="1"/>
+    <col min="7422" max="7422" width="21.6640625" style="1" hidden="1"/>
+    <col min="7423" max="7425" width="11.44140625" style="1" hidden="1"/>
     <col min="7426" max="7426" width="16" style="1" hidden="1"/>
-    <col min="7427" max="7427" width="20.42578125" style="1" hidden="1"/>
-    <col min="7428" max="7674" width="11.42578125" style="1" hidden="1"/>
-    <col min="7675" max="7675" width="15.42578125" style="1" hidden="1"/>
-    <col min="7676" max="7676" width="11.42578125" style="1" hidden="1"/>
-    <col min="7677" max="7677" width="15.7109375" style="1" hidden="1"/>
-    <col min="7678" max="7678" width="21.7109375" style="1" hidden="1"/>
-    <col min="7679" max="7681" width="11.42578125" style="1" hidden="1"/>
+    <col min="7427" max="7427" width="20.44140625" style="1" hidden="1"/>
+    <col min="7428" max="7674" width="11.44140625" style="1" hidden="1"/>
+    <col min="7675" max="7675" width="15.44140625" style="1" hidden="1"/>
+    <col min="7676" max="7676" width="11.44140625" style="1" hidden="1"/>
+    <col min="7677" max="7677" width="15.6640625" style="1" hidden="1"/>
+    <col min="7678" max="7678" width="21.6640625" style="1" hidden="1"/>
+    <col min="7679" max="7681" width="11.44140625" style="1" hidden="1"/>
     <col min="7682" max="7682" width="16" style="1" hidden="1"/>
-    <col min="7683" max="7683" width="20.42578125" style="1" hidden="1"/>
-    <col min="7684" max="7930" width="11.42578125" style="1" hidden="1"/>
-    <col min="7931" max="7931" width="15.42578125" style="1" hidden="1"/>
-    <col min="7932" max="7932" width="11.42578125" style="1" hidden="1"/>
-    <col min="7933" max="7933" width="15.7109375" style="1" hidden="1"/>
-    <col min="7934" max="7934" width="21.7109375" style="1" hidden="1"/>
-    <col min="7935" max="7937" width="11.42578125" style="1" hidden="1"/>
+    <col min="7683" max="7683" width="20.44140625" style="1" hidden="1"/>
+    <col min="7684" max="7930" width="11.44140625" style="1" hidden="1"/>
+    <col min="7931" max="7931" width="15.44140625" style="1" hidden="1"/>
+    <col min="7932" max="7932" width="11.44140625" style="1" hidden="1"/>
+    <col min="7933" max="7933" width="15.6640625" style="1" hidden="1"/>
+    <col min="7934" max="7934" width="21.6640625" style="1" hidden="1"/>
+    <col min="7935" max="7937" width="11.44140625" style="1" hidden="1"/>
     <col min="7938" max="7938" width="16" style="1" hidden="1"/>
-    <col min="7939" max="7939" width="20.42578125" style="1" hidden="1"/>
-    <col min="7940" max="8186" width="11.42578125" style="1" hidden="1"/>
-    <col min="8187" max="8187" width="15.42578125" style="1" hidden="1"/>
-    <col min="8188" max="8188" width="11.42578125" style="1" hidden="1"/>
-    <col min="8189" max="8189" width="15.7109375" style="1" hidden="1"/>
-    <col min="8190" max="8190" width="21.7109375" style="1" hidden="1"/>
-    <col min="8191" max="8193" width="11.42578125" style="1" hidden="1"/>
+    <col min="7939" max="7939" width="20.44140625" style="1" hidden="1"/>
+    <col min="7940" max="8186" width="11.44140625" style="1" hidden="1"/>
+    <col min="8187" max="8187" width="15.44140625" style="1" hidden="1"/>
+    <col min="8188" max="8188" width="11.44140625" style="1" hidden="1"/>
+    <col min="8189" max="8189" width="15.6640625" style="1" hidden="1"/>
+    <col min="8190" max="8190" width="21.6640625" style="1" hidden="1"/>
+    <col min="8191" max="8193" width="11.44140625" style="1" hidden="1"/>
     <col min="8194" max="8194" width="16" style="1" hidden="1"/>
-    <col min="8195" max="8195" width="20.42578125" style="1" hidden="1"/>
-    <col min="8196" max="8442" width="11.42578125" style="1" hidden="1"/>
-    <col min="8443" max="8443" width="15.42578125" style="1" hidden="1"/>
-    <col min="8444" max="8444" width="11.42578125" style="1" hidden="1"/>
-    <col min="8445" max="8445" width="15.7109375" style="1" hidden="1"/>
-    <col min="8446" max="8446" width="21.7109375" style="1" hidden="1"/>
-    <col min="8447" max="8449" width="11.42578125" style="1" hidden="1"/>
+    <col min="8195" max="8195" width="20.44140625" style="1" hidden="1"/>
+    <col min="8196" max="8442" width="11.44140625" style="1" hidden="1"/>
+    <col min="8443" max="8443" width="15.44140625" style="1" hidden="1"/>
+    <col min="8444" max="8444" width="11.44140625" style="1" hidden="1"/>
+    <col min="8445" max="8445" width="15.6640625" style="1" hidden="1"/>
+    <col min="8446" max="8446" width="21.6640625" style="1" hidden="1"/>
+    <col min="8447" max="8449" width="11.44140625" style="1" hidden="1"/>
     <col min="8450" max="8450" width="16" style="1" hidden="1"/>
-    <col min="8451" max="8451" width="20.42578125" style="1" hidden="1"/>
-    <col min="8452" max="8698" width="11.42578125" style="1" hidden="1"/>
-    <col min="8699" max="8699" width="15.42578125" style="1" hidden="1"/>
-    <col min="8700" max="8700" width="11.42578125" style="1" hidden="1"/>
-    <col min="8701" max="8701" width="15.7109375" style="1" hidden="1"/>
-    <col min="8702" max="8702" width="21.7109375" style="1" hidden="1"/>
-    <col min="8703" max="8705" width="11.42578125" style="1" hidden="1"/>
+    <col min="8451" max="8451" width="20.44140625" style="1" hidden="1"/>
+    <col min="8452" max="8698" width="11.44140625" style="1" hidden="1"/>
+    <col min="8699" max="8699" width="15.44140625" style="1" hidden="1"/>
+    <col min="8700" max="8700" width="11.44140625" style="1" hidden="1"/>
+    <col min="8701" max="8701" width="15.6640625" style="1" hidden="1"/>
+    <col min="8702" max="8702" width="21.6640625" style="1" hidden="1"/>
+    <col min="8703" max="8705" width="11.44140625" style="1" hidden="1"/>
     <col min="8706" max="8706" width="16" style="1" hidden="1"/>
-    <col min="8707" max="8707" width="20.42578125" style="1" hidden="1"/>
-    <col min="8708" max="8954" width="11.42578125" style="1" hidden="1"/>
-    <col min="8955" max="8955" width="15.42578125" style="1" hidden="1"/>
-    <col min="8956" max="8956" width="11.42578125" style="1" hidden="1"/>
-    <col min="8957" max="8957" width="15.7109375" style="1" hidden="1"/>
-    <col min="8958" max="8958" width="21.7109375" style="1" hidden="1"/>
-    <col min="8959" max="8961" width="11.42578125" style="1" hidden="1"/>
+    <col min="8707" max="8707" width="20.44140625" style="1" hidden="1"/>
+    <col min="8708" max="8954" width="11.44140625" style="1" hidden="1"/>
+    <col min="8955" max="8955" width="15.44140625" style="1" hidden="1"/>
+    <col min="8956" max="8956" width="11.44140625" style="1" hidden="1"/>
+    <col min="8957" max="8957" width="15.6640625" style="1" hidden="1"/>
+    <col min="8958" max="8958" width="21.6640625" style="1" hidden="1"/>
+    <col min="8959" max="8961" width="11.44140625" style="1" hidden="1"/>
     <col min="8962" max="8962" width="16" style="1" hidden="1"/>
-    <col min="8963" max="8963" width="20.42578125" style="1" hidden="1"/>
-    <col min="8964" max="9210" width="11.42578125" style="1" hidden="1"/>
-    <col min="9211" max="9211" width="15.42578125" style="1" hidden="1"/>
-    <col min="9212" max="9212" width="11.42578125" style="1" hidden="1"/>
-    <col min="9213" max="9213" width="15.7109375" style="1" hidden="1"/>
-    <col min="9214" max="9214" width="21.7109375" style="1" hidden="1"/>
-    <col min="9215" max="9217" width="11.42578125" style="1" hidden="1"/>
+    <col min="8963" max="8963" width="20.44140625" style="1" hidden="1"/>
+    <col min="8964" max="9210" width="11.44140625" style="1" hidden="1"/>
+    <col min="9211" max="9211" width="15.44140625" style="1" hidden="1"/>
+    <col min="9212" max="9212" width="11.44140625" style="1" hidden="1"/>
+    <col min="9213" max="9213" width="15.6640625" style="1" hidden="1"/>
+    <col min="9214" max="9214" width="21.6640625" style="1" hidden="1"/>
+    <col min="9215" max="9217" width="11.44140625" style="1" hidden="1"/>
     <col min="9218" max="9218" width="16" style="1" hidden="1"/>
-    <col min="9219" max="9219" width="20.42578125" style="1" hidden="1"/>
-    <col min="9220" max="9466" width="11.42578125" style="1" hidden="1"/>
-    <col min="9467" max="9467" width="15.42578125" style="1" hidden="1"/>
-    <col min="9468" max="9468" width="11.42578125" style="1" hidden="1"/>
-    <col min="9469" max="9469" width="15.7109375" style="1" hidden="1"/>
-    <col min="9470" max="9470" width="21.7109375" style="1" hidden="1"/>
-    <col min="9471" max="9473" width="11.42578125" style="1" hidden="1"/>
+    <col min="9219" max="9219" width="20.44140625" style="1" hidden="1"/>
+    <col min="9220" max="9466" width="11.44140625" style="1" hidden="1"/>
+    <col min="9467" max="9467" width="15.44140625" style="1" hidden="1"/>
+    <col min="9468" max="9468" width="11.44140625" style="1" hidden="1"/>
+    <col min="9469" max="9469" width="15.6640625" style="1" hidden="1"/>
+    <col min="9470" max="9470" width="21.6640625" style="1" hidden="1"/>
+    <col min="9471" max="9473" width="11.44140625" style="1" hidden="1"/>
     <col min="9474" max="9474" width="16" style="1" hidden="1"/>
-    <col min="9475" max="9475" width="20.42578125" style="1" hidden="1"/>
-    <col min="9476" max="9722" width="11.42578125" style="1" hidden="1"/>
-    <col min="9723" max="9723" width="15.42578125" style="1" hidden="1"/>
-    <col min="9724" max="9724" width="11.42578125" style="1" hidden="1"/>
-    <col min="9725" max="9725" width="15.7109375" style="1" hidden="1"/>
-    <col min="9726" max="9726" width="21.7109375" style="1" hidden="1"/>
-    <col min="9727" max="9729" width="11.42578125" style="1" hidden="1"/>
+    <col min="9475" max="9475" width="20.44140625" style="1" hidden="1"/>
+    <col min="9476" max="9722" width="11.44140625" style="1" hidden="1"/>
+    <col min="9723" max="9723" width="15.44140625" style="1" hidden="1"/>
+    <col min="9724" max="9724" width="11.44140625" style="1" hidden="1"/>
+    <col min="9725" max="9725" width="15.6640625" style="1" hidden="1"/>
+    <col min="9726" max="9726" width="21.6640625" style="1" hidden="1"/>
+    <col min="9727" max="9729" width="11.44140625" style="1" hidden="1"/>
     <col min="9730" max="9730" width="16" style="1" hidden="1"/>
-    <col min="9731" max="9731" width="20.42578125" style="1" hidden="1"/>
-    <col min="9732" max="9978" width="11.42578125" style="1" hidden="1"/>
-    <col min="9979" max="9979" width="15.42578125" style="1" hidden="1"/>
-    <col min="9980" max="9980" width="11.42578125" style="1" hidden="1"/>
-    <col min="9981" max="9981" width="15.7109375" style="1" hidden="1"/>
-    <col min="9982" max="9982" width="21.7109375" style="1" hidden="1"/>
-    <col min="9983" max="9985" width="11.42578125" style="1" hidden="1"/>
+    <col min="9731" max="9731" width="20.44140625" style="1" hidden="1"/>
+    <col min="9732" max="9978" width="11.44140625" style="1" hidden="1"/>
+    <col min="9979" max="9979" width="15.44140625" style="1" hidden="1"/>
+    <col min="9980" max="9980" width="11.44140625" style="1" hidden="1"/>
+    <col min="9981" max="9981" width="15.6640625" style="1" hidden="1"/>
+    <col min="9982" max="9982" width="21.6640625" style="1" hidden="1"/>
+    <col min="9983" max="9985" width="11.44140625" style="1" hidden="1"/>
     <col min="9986" max="9986" width="16" style="1" hidden="1"/>
-    <col min="9987" max="9987" width="20.42578125" style="1" hidden="1"/>
-    <col min="9988" max="10234" width="11.42578125" style="1" hidden="1"/>
-    <col min="10235" max="10235" width="15.42578125" style="1" hidden="1"/>
-    <col min="10236" max="10236" width="11.42578125" style="1" hidden="1"/>
-    <col min="10237" max="10237" width="15.7109375" style="1" hidden="1"/>
-    <col min="10238" max="10238" width="21.7109375" style="1" hidden="1"/>
-    <col min="10239" max="10241" width="11.42578125" style="1" hidden="1"/>
+    <col min="9987" max="9987" width="20.44140625" style="1" hidden="1"/>
+    <col min="9988" max="10234" width="11.44140625" style="1" hidden="1"/>
+    <col min="10235" max="10235" width="15.44140625" style="1" hidden="1"/>
+    <col min="10236" max="10236" width="11.44140625" style="1" hidden="1"/>
+    <col min="10237" max="10237" width="15.6640625" style="1" hidden="1"/>
+    <col min="10238" max="10238" width="21.6640625" style="1" hidden="1"/>
+    <col min="10239" max="10241" width="11.44140625" style="1" hidden="1"/>
     <col min="10242" max="10242" width="16" style="1" hidden="1"/>
-    <col min="10243" max="10243" width="20.42578125" style="1" hidden="1"/>
-    <col min="10244" max="10490" width="11.42578125" style="1" hidden="1"/>
-    <col min="10491" max="10491" width="15.42578125" style="1" hidden="1"/>
-    <col min="10492" max="10492" width="11.42578125" style="1" hidden="1"/>
-    <col min="10493" max="10493" width="15.7109375" style="1" hidden="1"/>
-    <col min="10494" max="10494" width="21.7109375" style="1" hidden="1"/>
-    <col min="10495" max="10497" width="11.42578125" style="1" hidden="1"/>
+    <col min="10243" max="10243" width="20.44140625" style="1" hidden="1"/>
+    <col min="10244" max="10490" width="11.44140625" style="1" hidden="1"/>
+    <col min="10491" max="10491" width="15.44140625" style="1" hidden="1"/>
+    <col min="10492" max="10492" width="11.44140625" style="1" hidden="1"/>
+    <col min="10493" max="10493" width="15.6640625" style="1" hidden="1"/>
+    <col min="10494" max="10494" width="21.6640625" style="1" hidden="1"/>
+    <col min="10495" max="10497" width="11.44140625" style="1" hidden="1"/>
     <col min="10498" max="10498" width="16" style="1" hidden="1"/>
-    <col min="10499" max="10499" width="20.42578125" style="1" hidden="1"/>
-    <col min="10500" max="10746" width="11.42578125" style="1" hidden="1"/>
-    <col min="10747" max="10747" width="15.42578125" style="1" hidden="1"/>
-    <col min="10748" max="10748" width="11.42578125" style="1" hidden="1"/>
-    <col min="10749" max="10749" width="15.7109375" style="1" hidden="1"/>
-    <col min="10750" max="10750" width="21.7109375" style="1" hidden="1"/>
-    <col min="10751" max="10753" width="11.42578125" style="1" hidden="1"/>
+    <col min="10499" max="10499" width="20.44140625" style="1" hidden="1"/>
+    <col min="10500" max="10746" width="11.44140625" style="1" hidden="1"/>
+    <col min="10747" max="10747" width="15.44140625" style="1" hidden="1"/>
+    <col min="10748" max="10748" width="11.44140625" style="1" hidden="1"/>
+    <col min="10749" max="10749" width="15.6640625" style="1" hidden="1"/>
+    <col min="10750" max="10750" width="21.6640625" style="1" hidden="1"/>
+    <col min="10751" max="10753" width="11.44140625" style="1" hidden="1"/>
     <col min="10754" max="10754" width="16" style="1" hidden="1"/>
-    <col min="10755" max="10755" width="20.42578125" style="1" hidden="1"/>
-    <col min="10756" max="11002" width="11.42578125" style="1" hidden="1"/>
-    <col min="11003" max="11003" width="15.42578125" style="1" hidden="1"/>
-    <col min="11004" max="11004" width="11.42578125" style="1" hidden="1"/>
-    <col min="11005" max="11005" width="15.7109375" style="1" hidden="1"/>
-    <col min="11006" max="11006" width="21.7109375" style="1" hidden="1"/>
-    <col min="11007" max="11009" width="11.42578125" style="1" hidden="1"/>
+    <col min="10755" max="10755" width="20.44140625" style="1" hidden="1"/>
+    <col min="10756" max="11002" width="11.44140625" style="1" hidden="1"/>
+    <col min="11003" max="11003" width="15.44140625" style="1" hidden="1"/>
+    <col min="11004" max="11004" width="11.44140625" style="1" hidden="1"/>
+    <col min="11005" max="11005" width="15.6640625" style="1" hidden="1"/>
+    <col min="11006" max="11006" width="21.6640625" style="1" hidden="1"/>
+    <col min="11007" max="11009" width="11.44140625" style="1" hidden="1"/>
     <col min="11010" max="11010" width="16" style="1" hidden="1"/>
-    <col min="11011" max="11011" width="20.42578125" style="1" hidden="1"/>
-    <col min="11012" max="11258" width="11.42578125" style="1" hidden="1"/>
-    <col min="11259" max="11259" width="15.42578125" style="1" hidden="1"/>
-    <col min="11260" max="11260" width="11.42578125" style="1" hidden="1"/>
-    <col min="11261" max="11261" width="15.7109375" style="1" hidden="1"/>
-    <col min="11262" max="11262" width="21.7109375" style="1" hidden="1"/>
-    <col min="11263" max="11265" width="11.42578125" style="1" hidden="1"/>
+    <col min="11011" max="11011" width="20.44140625" style="1" hidden="1"/>
+    <col min="11012" max="11258" width="11.44140625" style="1" hidden="1"/>
+    <col min="11259" max="11259" width="15.44140625" style="1" hidden="1"/>
+    <col min="11260" max="11260" width="11.44140625" style="1" hidden="1"/>
+    <col min="11261" max="11261" width="15.6640625" style="1" hidden="1"/>
+    <col min="11262" max="11262" width="21.6640625" style="1" hidden="1"/>
+    <col min="11263" max="11265" width="11.44140625" style="1" hidden="1"/>
     <col min="11266" max="11266" width="16" style="1" hidden="1"/>
-    <col min="11267" max="11267" width="20.42578125" style="1" hidden="1"/>
-    <col min="11268" max="11514" width="11.42578125" style="1" hidden="1"/>
-    <col min="11515" max="11515" width="15.42578125" style="1" hidden="1"/>
-    <col min="11516" max="11516" width="11.42578125" style="1" hidden="1"/>
-    <col min="11517" max="11517" width="15.7109375" style="1" hidden="1"/>
-    <col min="11518" max="11518" width="21.7109375" style="1" hidden="1"/>
-    <col min="11519" max="11521" width="11.42578125" style="1" hidden="1"/>
+    <col min="11267" max="11267" width="20.44140625" style="1" hidden="1"/>
+    <col min="11268" max="11514" width="11.44140625" style="1" hidden="1"/>
+    <col min="11515" max="11515" width="15.44140625" style="1" hidden="1"/>
+    <col min="11516" max="11516" width="11.44140625" style="1" hidden="1"/>
+    <col min="11517" max="11517" width="15.6640625" style="1" hidden="1"/>
+    <col min="11518" max="11518" width="21.6640625" style="1" hidden="1"/>
+    <col min="11519" max="11521" width="11.44140625" style="1" hidden="1"/>
     <col min="11522" max="11522" width="16" style="1" hidden="1"/>
-    <col min="11523" max="11523" width="20.42578125" style="1" hidden="1"/>
-    <col min="11524" max="11770" width="11.42578125" style="1" hidden="1"/>
-    <col min="11771" max="11771" width="15.42578125" style="1" hidden="1"/>
-    <col min="11772" max="11772" width="11.42578125" style="1" hidden="1"/>
-    <col min="11773" max="11773" width="15.7109375" style="1" hidden="1"/>
-    <col min="11774" max="11774" width="21.7109375" style="1" hidden="1"/>
-    <col min="11775" max="11777" width="11.42578125" style="1" hidden="1"/>
+    <col min="11523" max="11523" width="20.44140625" style="1" hidden="1"/>
+    <col min="11524" max="11770" width="11.44140625" style="1" hidden="1"/>
+    <col min="11771" max="11771" width="15.44140625" style="1" hidden="1"/>
+    <col min="11772" max="11772" width="11.44140625" style="1" hidden="1"/>
+    <col min="11773" max="11773" width="15.6640625" style="1" hidden="1"/>
+    <col min="11774" max="11774" width="21.6640625" style="1" hidden="1"/>
+    <col min="11775" max="11777" width="11.44140625" style="1" hidden="1"/>
     <col min="11778" max="11778" width="16" style="1" hidden="1"/>
-    <col min="11779" max="11779" width="20.42578125" style="1" hidden="1"/>
-    <col min="11780" max="12026" width="11.42578125" style="1" hidden="1"/>
-    <col min="12027" max="12027" width="15.42578125" style="1" hidden="1"/>
-    <col min="12028" max="12028" width="11.42578125" style="1" hidden="1"/>
-    <col min="12029" max="12029" width="15.7109375" style="1" hidden="1"/>
-    <col min="12030" max="12030" width="21.7109375" style="1" hidden="1"/>
-    <col min="12031" max="12033" width="11.42578125" style="1" hidden="1"/>
+    <col min="11779" max="11779" width="20.44140625" style="1" hidden="1"/>
+    <col min="11780" max="12026" width="11.44140625" style="1" hidden="1"/>
+    <col min="12027" max="12027" width="15.44140625" style="1" hidden="1"/>
+    <col min="12028" max="12028" width="11.44140625" style="1" hidden="1"/>
+    <col min="12029" max="12029" width="15.6640625" style="1" hidden="1"/>
+    <col min="12030" max="12030" width="21.6640625" style="1" hidden="1"/>
+    <col min="12031" max="12033" width="11.44140625" style="1" hidden="1"/>
     <col min="12034" max="12034" width="16" style="1" hidden="1"/>
-    <col min="12035" max="12035" width="20.42578125" style="1" hidden="1"/>
-    <col min="12036" max="12282" width="11.42578125" style="1" hidden="1"/>
-    <col min="12283" max="12283" width="15.42578125" style="1" hidden="1"/>
-    <col min="12284" max="12284" width="11.42578125" style="1" hidden="1"/>
-    <col min="12285" max="12285" width="15.7109375" style="1" hidden="1"/>
-    <col min="12286" max="12286" width="21.7109375" style="1" hidden="1"/>
-    <col min="12287" max="12289" width="11.42578125" style="1" hidden="1"/>
+    <col min="12035" max="12035" width="20.44140625" style="1" hidden="1"/>
+    <col min="12036" max="12282" width="11.44140625" style="1" hidden="1"/>
+    <col min="12283" max="12283" width="15.44140625" style="1" hidden="1"/>
+    <col min="12284" max="12284" width="11.44140625" style="1" hidden="1"/>
+    <col min="12285" max="12285" width="15.6640625" style="1" hidden="1"/>
+    <col min="12286" max="12286" width="21.6640625" style="1" hidden="1"/>
+    <col min="12287" max="12289" width="11.44140625" style="1" hidden="1"/>
     <col min="12290" max="12290" width="16" style="1" hidden="1"/>
-    <col min="12291" max="12291" width="20.42578125" style="1" hidden="1"/>
-    <col min="12292" max="12538" width="11.42578125" style="1" hidden="1"/>
-    <col min="12539" max="12539" width="15.42578125" style="1" hidden="1"/>
-    <col min="12540" max="12540" width="11.42578125" style="1" hidden="1"/>
-    <col min="12541" max="12541" width="15.7109375" style="1" hidden="1"/>
-    <col min="12542" max="12542" width="21.7109375" style="1" hidden="1"/>
-    <col min="12543" max="12545" width="11.42578125" style="1" hidden="1"/>
+    <col min="12291" max="12291" width="20.44140625" style="1" hidden="1"/>
+    <col min="12292" max="12538" width="11.44140625" style="1" hidden="1"/>
+    <col min="12539" max="12539" width="15.44140625" style="1" hidden="1"/>
+    <col min="12540" max="12540" width="11.44140625" style="1" hidden="1"/>
+    <col min="12541" max="12541" width="15.6640625" style="1" hidden="1"/>
+    <col min="12542" max="12542" width="21.6640625" style="1" hidden="1"/>
+    <col min="12543" max="12545" width="11.44140625" style="1" hidden="1"/>
     <col min="12546" max="12546" width="16" style="1" hidden="1"/>
-    <col min="12547" max="12547" width="20.42578125" style="1" hidden="1"/>
-    <col min="12548" max="12794" width="11.42578125" style="1" hidden="1"/>
-    <col min="12795" max="12795" width="15.42578125" style="1" hidden="1"/>
-    <col min="12796" max="12796" width="11.42578125" style="1" hidden="1"/>
-    <col min="12797" max="12797" width="15.7109375" style="1" hidden="1"/>
-    <col min="12798" max="12798" width="21.7109375" style="1" hidden="1"/>
-    <col min="12799" max="12801" width="11.42578125" style="1" hidden="1"/>
+    <col min="12547" max="12547" width="20.44140625" style="1" hidden="1"/>
+    <col min="12548" max="12794" width="11.44140625" style="1" hidden="1"/>
+    <col min="12795" max="12795" width="15.44140625" style="1" hidden="1"/>
+    <col min="12796" max="12796" width="11.44140625" style="1" hidden="1"/>
+    <col min="12797" max="12797" width="15.6640625" style="1" hidden="1"/>
+    <col min="12798" max="12798" width="21.6640625" style="1" hidden="1"/>
+    <col min="12799" max="12801" width="11.44140625" style="1" hidden="1"/>
     <col min="12802" max="12802" width="16" style="1" hidden="1"/>
-    <col min="12803" max="12803" width="20.42578125" style="1" hidden="1"/>
-    <col min="12804" max="13050" width="11.42578125" style="1" hidden="1"/>
-    <col min="13051" max="13051" width="15.42578125" style="1" hidden="1"/>
-    <col min="13052" max="13052" width="11.42578125" style="1" hidden="1"/>
-    <col min="13053" max="13053" width="15.7109375" style="1" hidden="1"/>
-    <col min="13054" max="13054" width="21.7109375" style="1" hidden="1"/>
-    <col min="13055" max="13057" width="11.42578125" style="1" hidden="1"/>
+    <col min="12803" max="12803" width="20.44140625" style="1" hidden="1"/>
+    <col min="12804" max="13050" width="11.44140625" style="1" hidden="1"/>
+    <col min="13051" max="13051" width="15.44140625" style="1" hidden="1"/>
+    <col min="13052" max="13052" width="11.44140625" style="1" hidden="1"/>
+    <col min="13053" max="13053" width="15.6640625" style="1" hidden="1"/>
+    <col min="13054" max="13054" width="21.6640625" style="1" hidden="1"/>
+    <col min="13055" max="13057" width="11.44140625" style="1" hidden="1"/>
     <col min="13058" max="13058" width="16" style="1" hidden="1"/>
-    <col min="13059" max="13059" width="20.42578125" style="1" hidden="1"/>
-    <col min="13060" max="13306" width="11.42578125" style="1" hidden="1"/>
-    <col min="13307" max="13307" width="15.42578125" style="1" hidden="1"/>
-    <col min="13308" max="13308" width="11.42578125" style="1" hidden="1"/>
-    <col min="13309" max="13309" width="15.7109375" style="1" hidden="1"/>
-    <col min="13310" max="13310" width="21.7109375" style="1" hidden="1"/>
-    <col min="13311" max="13313" width="11.42578125" style="1" hidden="1"/>
+    <col min="13059" max="13059" width="20.44140625" style="1" hidden="1"/>
+    <col min="13060" max="13306" width="11.44140625" style="1" hidden="1"/>
+    <col min="13307" max="13307" width="15.44140625" style="1" hidden="1"/>
+    <col min="13308" max="13308" width="11.44140625" style="1" hidden="1"/>
+    <col min="13309" max="13309" width="15.6640625" style="1" hidden="1"/>
+    <col min="13310" max="13310" width="21.6640625" style="1" hidden="1"/>
+    <col min="13311" max="13313" width="11.44140625" style="1" hidden="1"/>
     <col min="13314" max="13314" width="16" style="1" hidden="1"/>
-    <col min="13315" max="13315" width="20.42578125" style="1" hidden="1"/>
-    <col min="13316" max="13562" width="11.42578125" style="1" hidden="1"/>
-    <col min="13563" max="13563" width="15.42578125" style="1" hidden="1"/>
-    <col min="13564" max="13564" width="11.42578125" style="1" hidden="1"/>
-    <col min="13565" max="13565" width="15.7109375" style="1" hidden="1"/>
-    <col min="13566" max="13566" width="21.7109375" style="1" hidden="1"/>
-    <col min="13567" max="13569" width="11.42578125" style="1" hidden="1"/>
+    <col min="13315" max="13315" width="20.44140625" style="1" hidden="1"/>
+    <col min="13316" max="13562" width="11.44140625" style="1" hidden="1"/>
+    <col min="13563" max="13563" width="15.44140625" style="1" hidden="1"/>
+    <col min="13564" max="13564" width="11.44140625" style="1" hidden="1"/>
+    <col min="13565" max="13565" width="15.6640625" style="1" hidden="1"/>
+    <col min="13566" max="13566" width="21.6640625" style="1" hidden="1"/>
+    <col min="13567" max="13569" width="11.44140625" style="1" hidden="1"/>
     <col min="13570" max="13570" width="16" style="1" hidden="1"/>
-    <col min="13571" max="13571" width="20.42578125" style="1" hidden="1"/>
-    <col min="13572" max="13818" width="11.42578125" style="1" hidden="1"/>
-    <col min="13819" max="13819" width="15.42578125" style="1" hidden="1"/>
-    <col min="13820" max="13820" width="11.42578125" style="1" hidden="1"/>
-    <col min="13821" max="13821" width="15.7109375" style="1" hidden="1"/>
-    <col min="13822" max="13822" width="21.7109375" style="1" hidden="1"/>
-    <col min="13823" max="13825" width="11.42578125" style="1" hidden="1"/>
+    <col min="13571" max="13571" width="20.44140625" style="1" hidden="1"/>
+    <col min="13572" max="13818" width="11.44140625" style="1" hidden="1"/>
+    <col min="13819" max="13819" width="15.44140625" style="1" hidden="1"/>
+    <col min="13820" max="13820" width="11.44140625" style="1" hidden="1"/>
+    <col min="13821" max="13821" width="15.6640625" style="1" hidden="1"/>
+    <col min="13822" max="13822" width="21.6640625" style="1" hidden="1"/>
+    <col min="13823" max="13825" width="11.44140625" style="1" hidden="1"/>
     <col min="13826" max="13826" width="16" style="1" hidden="1"/>
-    <col min="13827" max="13827" width="20.42578125" style="1" hidden="1"/>
-    <col min="13828" max="14074" width="11.42578125" style="1" hidden="1"/>
-    <col min="14075" max="14075" width="15.42578125" style="1" hidden="1"/>
-    <col min="14076" max="14076" width="11.42578125" style="1" hidden="1"/>
-    <col min="14077" max="14077" width="15.7109375" style="1" hidden="1"/>
-    <col min="14078" max="14078" width="21.7109375" style="1" hidden="1"/>
-    <col min="14079" max="14081" width="11.42578125" style="1" hidden="1"/>
+    <col min="13827" max="13827" width="20.44140625" style="1" hidden="1"/>
+    <col min="13828" max="14074" width="11.44140625" style="1" hidden="1"/>
+    <col min="14075" max="14075" width="15.44140625" style="1" hidden="1"/>
+    <col min="14076" max="14076" width="11.44140625" style="1" hidden="1"/>
+    <col min="14077" max="14077" width="15.6640625" style="1" hidden="1"/>
+    <col min="14078" max="14078" width="21.6640625" style="1" hidden="1"/>
+    <col min="14079" max="14081" width="11.44140625" style="1" hidden="1"/>
     <col min="14082" max="14082" width="16" style="1" hidden="1"/>
-    <col min="14083" max="14083" width="20.42578125" style="1" hidden="1"/>
-    <col min="14084" max="14330" width="11.42578125" style="1" hidden="1"/>
-    <col min="14331" max="14331" width="15.42578125" style="1" hidden="1"/>
-    <col min="14332" max="14332" width="11.42578125" style="1" hidden="1"/>
-    <col min="14333" max="14333" width="15.7109375" style="1" hidden="1"/>
-    <col min="14334" max="14334" width="21.7109375" style="1" hidden="1"/>
-    <col min="14335" max="14337" width="11.42578125" style="1" hidden="1"/>
+    <col min="14083" max="14083" width="20.44140625" style="1" hidden="1"/>
+    <col min="14084" max="14330" width="11.44140625" style="1" hidden="1"/>
+    <col min="14331" max="14331" width="15.44140625" style="1" hidden="1"/>
+    <col min="14332" max="14332" width="11.44140625" style="1" hidden="1"/>
+    <col min="14333" max="14333" width="15.6640625" style="1" hidden="1"/>
+    <col min="14334" max="14334" width="21.6640625" style="1" hidden="1"/>
+    <col min="14335" max="14337" width="11.44140625" style="1" hidden="1"/>
     <col min="14338" max="14338" width="16" style="1" hidden="1"/>
-    <col min="14339" max="14339" width="20.42578125" style="1" hidden="1"/>
-    <col min="14340" max="14586" width="11.42578125" style="1" hidden="1"/>
-    <col min="14587" max="14587" width="15.42578125" style="1" hidden="1"/>
-    <col min="14588" max="14588" width="11.42578125" style="1" hidden="1"/>
-    <col min="14589" max="14589" width="15.7109375" style="1" hidden="1"/>
-    <col min="14590" max="14590" width="21.7109375" style="1" hidden="1"/>
-    <col min="14591" max="14593" width="11.42578125" style="1" hidden="1"/>
+    <col min="14339" max="14339" width="20.44140625" style="1" hidden="1"/>
+    <col min="14340" max="14586" width="11.44140625" style="1" hidden="1"/>
+    <col min="14587" max="14587" width="15.44140625" style="1" hidden="1"/>
+    <col min="14588" max="14588" width="11.44140625" style="1" hidden="1"/>
+    <col min="14589" max="14589" width="15.6640625" style="1" hidden="1"/>
+    <col min="14590" max="14590" width="21.6640625" style="1" hidden="1"/>
+    <col min="14591" max="14593" width="11.44140625" style="1" hidden="1"/>
     <col min="14594" max="14594" width="16" style="1" hidden="1"/>
-    <col min="14595" max="14595" width="20.42578125" style="1" hidden="1"/>
-    <col min="14596" max="14842" width="11.42578125" style="1" hidden="1"/>
-    <col min="14843" max="14843" width="15.42578125" style="1" hidden="1"/>
-    <col min="14844" max="14844" width="11.42578125" style="1" hidden="1"/>
-    <col min="14845" max="14845" width="15.7109375" style="1" hidden="1"/>
-    <col min="14846" max="14846" width="21.7109375" style="1" hidden="1"/>
-    <col min="14847" max="14849" width="11.42578125" style="1" hidden="1"/>
+    <col min="14595" max="14595" width="20.44140625" style="1" hidden="1"/>
+    <col min="14596" max="14842" width="11.44140625" style="1" hidden="1"/>
+    <col min="14843" max="14843" width="15.44140625" style="1" hidden="1"/>
+    <col min="14844" max="14844" width="11.44140625" style="1" hidden="1"/>
+    <col min="14845" max="14845" width="15.6640625" style="1" hidden="1"/>
+    <col min="14846" max="14846" width="21.6640625" style="1" hidden="1"/>
+    <col min="14847" max="14849" width="11.44140625" style="1" hidden="1"/>
     <col min="14850" max="14850" width="16" style="1" hidden="1"/>
-    <col min="14851" max="14851" width="20.42578125" style="1" hidden="1"/>
-    <col min="14852" max="15098" width="11.42578125" style="1" hidden="1"/>
-    <col min="15099" max="15099" width="15.42578125" style="1" hidden="1"/>
-    <col min="15100" max="15100" width="11.42578125" style="1" hidden="1"/>
-    <col min="15101" max="15101" width="15.7109375" style="1" hidden="1"/>
-    <col min="15102" max="15102" width="21.7109375" style="1" hidden="1"/>
-    <col min="15103" max="15105" width="11.42578125" style="1" hidden="1"/>
+    <col min="14851" max="14851" width="20.44140625" style="1" hidden="1"/>
+    <col min="14852" max="15098" width="11.44140625" style="1" hidden="1"/>
+    <col min="15099" max="15099" width="15.44140625" style="1" hidden="1"/>
+    <col min="15100" max="15100" width="11.44140625" style="1" hidden="1"/>
+    <col min="15101" max="15101" width="15.6640625" style="1" hidden="1"/>
+    <col min="15102" max="15102" width="21.6640625" style="1" hidden="1"/>
+    <col min="15103" max="15105" width="11.44140625" style="1" hidden="1"/>
     <col min="15106" max="15106" width="16" style="1" hidden="1"/>
-    <col min="15107" max="15107" width="20.42578125" style="1" hidden="1"/>
-    <col min="15108" max="15354" width="11.42578125" style="1" hidden="1"/>
-    <col min="15355" max="15355" width="15.42578125" style="1" hidden="1"/>
-    <col min="15356" max="15356" width="11.42578125" style="1" hidden="1"/>
-    <col min="15357" max="15357" width="15.7109375" style="1" hidden="1"/>
-    <col min="15358" max="15358" width="21.7109375" style="1" hidden="1"/>
-    <col min="15359" max="15361" width="11.42578125" style="1" hidden="1"/>
+    <col min="15107" max="15107" width="20.44140625" style="1" hidden="1"/>
+    <col min="15108" max="15354" width="11.44140625" style="1" hidden="1"/>
+    <col min="15355" max="15355" width="15.44140625" style="1" hidden="1"/>
+    <col min="15356" max="15356" width="11.44140625" style="1" hidden="1"/>
+    <col min="15357" max="15357" width="15.6640625" style="1" hidden="1"/>
+    <col min="15358" max="15358" width="21.6640625" style="1" hidden="1"/>
+    <col min="15359" max="15361" width="11.44140625" style="1" hidden="1"/>
     <col min="15362" max="15362" width="16" style="1" hidden="1"/>
-    <col min="15363" max="15363" width="20.42578125" style="1" hidden="1"/>
-    <col min="15364" max="15610" width="11.42578125" style="1" hidden="1"/>
-    <col min="15611" max="15611" width="15.42578125" style="1" hidden="1"/>
-    <col min="15612" max="15612" width="11.42578125" style="1" hidden="1"/>
-    <col min="15613" max="15613" width="15.7109375" style="1" hidden="1"/>
-    <col min="15614" max="15614" width="21.7109375" style="1" hidden="1"/>
-    <col min="15615" max="15617" width="11.42578125" style="1" hidden="1"/>
+    <col min="15363" max="15363" width="20.44140625" style="1" hidden="1"/>
+    <col min="15364" max="15610" width="11.44140625" style="1" hidden="1"/>
+    <col min="15611" max="15611" width="15.44140625" style="1" hidden="1"/>
+    <col min="15612" max="15612" width="11.44140625" style="1" hidden="1"/>
+    <col min="15613" max="15613" width="15.6640625" style="1" hidden="1"/>
+    <col min="15614" max="15614" width="21.6640625" style="1" hidden="1"/>
+    <col min="15615" max="15617" width="11.44140625" style="1" hidden="1"/>
     <col min="15618" max="15618" width="16" style="1" hidden="1"/>
-    <col min="15619" max="15619" width="20.42578125" style="1" hidden="1"/>
-    <col min="15620" max="15866" width="11.42578125" style="1" hidden="1"/>
-    <col min="15867" max="15867" width="15.42578125" style="1" hidden="1"/>
-    <col min="15868" max="15868" width="11.42578125" style="1" hidden="1"/>
-    <col min="15869" max="15869" width="15.7109375" style="1" hidden="1"/>
-    <col min="15870" max="15870" width="21.7109375" style="1" hidden="1"/>
-    <col min="15871" max="15873" width="11.42578125" style="1" hidden="1"/>
+    <col min="15619" max="15619" width="20.44140625" style="1" hidden="1"/>
+    <col min="15620" max="15866" width="11.44140625" style="1" hidden="1"/>
+    <col min="15867" max="15867" width="15.44140625" style="1" hidden="1"/>
+    <col min="15868" max="15868" width="11.44140625" style="1" hidden="1"/>
+    <col min="15869" max="15869" width="15.6640625" style="1" hidden="1"/>
+    <col min="15870" max="15870" width="21.6640625" style="1" hidden="1"/>
+    <col min="15871" max="15873" width="11.44140625" style="1" hidden="1"/>
     <col min="15874" max="15874" width="16" style="1" hidden="1"/>
-    <col min="15875" max="15875" width="20.42578125" style="1" hidden="1"/>
-    <col min="15876" max="16122" width="11.42578125" style="1" hidden="1"/>
-    <col min="16123" max="16123" width="15.42578125" style="1" hidden="1"/>
-    <col min="16124" max="16124" width="11.42578125" style="1" hidden="1"/>
-    <col min="16125" max="16125" width="15.7109375" style="1" hidden="1"/>
-    <col min="16126" max="16126" width="21.7109375" style="1" hidden="1"/>
-    <col min="16127" max="16129" width="11.42578125" style="1" hidden="1"/>
+    <col min="15875" max="15875" width="20.44140625" style="1" hidden="1"/>
+    <col min="15876" max="16122" width="11.44140625" style="1" hidden="1"/>
+    <col min="16123" max="16123" width="15.44140625" style="1" hidden="1"/>
+    <col min="16124" max="16124" width="11.44140625" style="1" hidden="1"/>
+    <col min="16125" max="16125" width="15.6640625" style="1" hidden="1"/>
+    <col min="16126" max="16126" width="21.6640625" style="1" hidden="1"/>
+    <col min="16127" max="16129" width="11.44140625" style="1" hidden="1"/>
     <col min="16130" max="16130" width="16" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="20.42578125" style="1" hidden="1"/>
-    <col min="16132" max="16132" width="11.42578125" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="20.44140625" style="1" hidden="1"/>
+    <col min="16132" max="16132" width="11.44140625" style="1" hidden="1"/>
     <col min="16133" max="16133" width="16" style="1" hidden="1"/>
-    <col min="16134" max="16134" width="20.42578125" style="1" hidden="1"/>
+    <col min="16134" max="16134" width="20.44140625" style="1" hidden="1"/>
     <col min="16135" max="16135" width="16" style="1" hidden="1"/>
-    <col min="16136" max="16141" width="20.42578125" style="1" hidden="1"/>
-    <col min="16142" max="16384" width="11.42578125" style="1" hidden="1"/>
+    <col min="16136" max="16141" width="20.44140625" style="1" hidden="1"/>
+    <col min="16142" max="16384" width="11.44140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="56.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2943,7 +2944,7 @@
         <v>course.teacher_name</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -3028,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="53">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -3113,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="53">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -3198,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="53">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -3283,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3368,7 +3369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="53">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3453,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3538,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="53">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3623,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3708,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="53">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3793,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3878,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="53">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3963,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -4048,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="53">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -4133,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="53">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -4218,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="53">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -4303,7 +4304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -4388,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="53">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -4473,7 +4474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4558,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="53">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4643,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4728,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="53">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4813,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="53">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4898,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="53">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4983,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>9</v>
@@ -5013,7 +5014,7 @@
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
     </row>
-    <row r="28" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
@@ -5055,7 +5056,7 @@
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
     </row>
-    <row r="29" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>10</v>
@@ -5092,7 +5093,7 @@
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
     </row>
-    <row r="30" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -5115,7 +5116,7 @@
       <c r="T30" s="22"/>
       <c r="U30" s="22"/>
     </row>
-    <row r="31" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
@@ -5143,7 +5144,7 @@
       <c r="T31" s="88"/>
       <c r="U31" s="31"/>
     </row>
-    <row r="32" spans="1:26" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -5170,7 +5171,7 @@
       <c r="T32" s="88"/>
       <c r="U32" s="31"/>
     </row>
-    <row r="33" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
@@ -5197,7 +5198,7 @@
       <c r="T33" s="88"/>
       <c r="U33" s="31"/>
     </row>
-    <row r="34" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
@@ -5226,7 +5227,7 @@
       <c r="T34" s="88"/>
       <c r="U34" s="31"/>
     </row>
-    <row r="35" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
@@ -5253,7 +5254,7 @@
       <c r="T35" s="88"/>
       <c r="U35" s="31"/>
     </row>
-    <row r="36" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -5280,7 +5281,7 @@
       <c r="T36" s="88"/>
       <c r="U36" s="31"/>
     </row>
-    <row r="37" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -5307,7 +5308,7 @@
       <c r="T37" s="31"/>
       <c r="U37" s="31"/>
     </row>
-    <row r="38" spans="1:21" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:21" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q38" s="25"/>
       <c r="R38" s="22"/>
       <c r="S38" s="25"/>
@@ -5322,12 +5323,12 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>$H$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:J26">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5342,25 +5343,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="5" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -5373,7 +5374,7 @@
       <c r="H1" s="90"/>
       <c r="I1" s="90"/>
     </row>
-    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="80" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -5434,7 +5435,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="80">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -5462,7 +5463,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="80">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -5490,7 +5491,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="80">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -5518,7 +5519,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="80">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -5546,7 +5547,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="80">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -5574,7 +5575,7 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="80">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -5602,7 +5603,7 @@
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="80">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -5630,7 +5631,7 @@
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="80">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -5658,7 +5659,7 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="80">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -5686,7 +5687,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="80">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -5714,7 +5715,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="80">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -5742,7 +5743,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="80">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -5770,7 +5771,7 @@
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="80">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -5798,7 +5799,7 @@
       </c>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="80">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="80">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -5854,7 +5855,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="80">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -5882,7 +5883,7 @@
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="80">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -5910,7 +5911,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="80">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -5938,7 +5939,7 @@
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="80">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -5966,7 +5967,7 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="80">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -5994,7 +5995,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="80">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -6022,7 +6023,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="80">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -6050,7 +6051,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="80">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -6078,7 +6079,7 @@
       </c>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="80">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -6106,7 +6107,7 @@
       </c>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>9</v>
@@ -6121,7 +6122,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>129</v>
@@ -6139,7 +6140,7 @@
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>10</v>
@@ -6168,7 +6169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Tabelle3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6178,15 +6179,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -6200,7 +6201,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6217,7 +6218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -6226,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -6235,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -6271,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -6280,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -6298,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
@@ -6319,32 +6320,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Tabelle4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="14" width="5.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" customWidth="1"/>
-    <col min="16" max="16" width="1.7109375" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="14" width="5.6640625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" customWidth="1"/>
+    <col min="16" max="16" width="1.6640625" customWidth="1"/>
+    <col min="17" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
@@ -6364,7 +6365,7 @@
       <c r="N1" s="92"/>
       <c r="O1" s="92"/>
     </row>
-    <row r="2" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="93" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -6388,7 +6389,7 @@
       <c r="O2" s="94"/>
       <c r="P2" s="60"/>
     </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
@@ -6436,7 +6437,7 @@
       </c>
       <c r="P3" s="61"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -6477,20 +6478,20 @@
         <v>ATTENDANCE.TS_REQUESTED_STR</v>
       </c>
       <c r="K4" s="17" t="e">
-        <f>IF(L4&lt;=4,"X","")</f>
+        <f>IF(OR(L4&lt;=4, L4="bestanden"),"X","")</f>
         <v>#VALUE!</v>
       </c>
       <c r="L4" s="17" t="e">
-        <f>IF(OR(Notenliste!P2="x", Notenliste!P2="X"), "bestanden",IF(Notenliste!F2="KP"," ",Notenliste!F2))</f>
+        <f>IF(Notenliste!F2="KP","",IF(OR(Notenliste!P2="x", Notenliste!P2="X"), "bestanden",Notenliste!F2))</f>
         <v>#VALUE!</v>
       </c>
       <c r="M4" s="17" t="e">
         <f>Notenliste!E2</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N4" s="17" t="str">
-        <f>Notenliste!Q2</f>
-        <v>attendance.ects_points</v>
+      <c r="N4" s="17" t="e">
+        <f>IF(Notenliste!F2="KP","",Notenliste!Q2)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="O4" s="17" t="str">
         <f>IF(Notenliste!T2=0," ",UPPER(Notenliste!T2))</f>
@@ -6498,7 +6499,7 @@
       </c>
       <c r="P4" s="60"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -6539,20 +6540,20 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="K5" s="17" t="str">
-        <f t="shared" ref="K5:K28" si="0">IF(L5&lt;=4,"X","")</f>
+        <f t="shared" ref="K5:K28" si="0">IF(OR(L5&lt;=4, L5="bestanden"),"X","")</f>
         <v/>
       </c>
       <c r="L5" s="17" t="str">
-        <f>IF(OR(Notenliste!P3="x", Notenliste!P3="X"), "bestanden",IF(Notenliste!F3="KP"," ",Notenliste!F3))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F3="KP","",IF(OR(Notenliste!P3="x", Notenliste!P3="X"), "bestanden",Notenliste!F3))</f>
+        <v/>
       </c>
       <c r="M5" s="17">
         <f>Notenliste!E3</f>
         <v>0</v>
       </c>
-      <c r="N5" s="17">
-        <f>Notenliste!Q3</f>
-        <v>0</v>
+      <c r="N5" s="17" t="str">
+        <f>IF(Notenliste!F3="KP","",Notenliste!Q3)</f>
+        <v/>
       </c>
       <c r="O5" s="17" t="str">
         <f>IF(Notenliste!T3=0," ",UPPER(Notenliste!T3))</f>
@@ -6560,7 +6561,7 @@
       </c>
       <c r="P5" s="60"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -6605,16 +6606,16 @@
         <v/>
       </c>
       <c r="L6" s="17" t="str">
-        <f>IF(OR(Notenliste!P4="x", Notenliste!P4="X"), "bestanden",IF(Notenliste!F4="KP"," ",Notenliste!F4))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F4="KP","",IF(OR(Notenliste!P4="x", Notenliste!P4="X"), "bestanden",Notenliste!F4))</f>
+        <v/>
       </c>
       <c r="M6" s="17">
         <f>Notenliste!E4</f>
         <v>0</v>
       </c>
-      <c r="N6" s="17">
-        <f>Notenliste!Q4</f>
-        <v>0</v>
+      <c r="N6" s="17" t="str">
+        <f>IF(Notenliste!F4="KP","",Notenliste!Q4)</f>
+        <v/>
       </c>
       <c r="O6" s="17" t="str">
         <f>IF(Notenliste!T4=0," ",UPPER(Notenliste!T4))</f>
@@ -6622,7 +6623,7 @@
       </c>
       <c r="P6" s="60"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -6667,16 +6668,16 @@
         <v/>
       </c>
       <c r="L7" s="17" t="str">
-        <f>IF(OR(Notenliste!P5="x", Notenliste!P5="X"), "bestanden",IF(Notenliste!F5="KP"," ",Notenliste!F5))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F5="KP","",IF(OR(Notenliste!P5="x", Notenliste!P5="X"), "bestanden",Notenliste!F5))</f>
+        <v/>
       </c>
       <c r="M7" s="17">
         <f>Notenliste!E5</f>
         <v>0</v>
       </c>
-      <c r="N7" s="17">
-        <f>Notenliste!Q5</f>
-        <v>0</v>
+      <c r="N7" s="17" t="str">
+        <f>IF(Notenliste!F5="KP","",Notenliste!Q5)</f>
+        <v/>
       </c>
       <c r="O7" s="17" t="str">
         <f>IF(Notenliste!T5=0," ",UPPER(Notenliste!T5))</f>
@@ -6684,7 +6685,7 @@
       </c>
       <c r="P7" s="60"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -6729,16 +6730,16 @@
         <v/>
       </c>
       <c r="L8" s="17" t="str">
-        <f>IF(OR(Notenliste!P6="x", Notenliste!P6="X"), "bestanden",IF(Notenliste!F6="KP"," ",Notenliste!F6))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F6="KP","",IF(OR(Notenliste!P6="x", Notenliste!P6="X"), "bestanden",Notenliste!F6))</f>
+        <v/>
       </c>
       <c r="M8" s="17">
         <f>Notenliste!E6</f>
         <v>0</v>
       </c>
-      <c r="N8" s="17">
-        <f>Notenliste!Q6</f>
-        <v>0</v>
+      <c r="N8" s="17" t="str">
+        <f>IF(Notenliste!F6="KP","",Notenliste!Q6)</f>
+        <v/>
       </c>
       <c r="O8" s="17" t="str">
         <f>IF(Notenliste!T6=0," ",UPPER(Notenliste!T6))</f>
@@ -6746,7 +6747,7 @@
       </c>
       <c r="P8" s="60"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -6791,16 +6792,16 @@
         <v/>
       </c>
       <c r="L9" s="17" t="str">
-        <f>IF(OR(Notenliste!P7="x", Notenliste!P7="X"), "bestanden",IF(Notenliste!F7="KP"," ",Notenliste!F7))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F7="KP","",IF(OR(Notenliste!P7="x", Notenliste!P7="X"), "bestanden",Notenliste!F7))</f>
+        <v/>
       </c>
       <c r="M9" s="17">
         <f>Notenliste!E7</f>
         <v>0</v>
       </c>
-      <c r="N9" s="17">
-        <f>Notenliste!Q7</f>
-        <v>0</v>
+      <c r="N9" s="17" t="str">
+        <f>IF(Notenliste!F7="KP","",Notenliste!Q7)</f>
+        <v/>
       </c>
       <c r="O9" s="17" t="str">
         <f>IF(Notenliste!T7=0," ",UPPER(Notenliste!T7))</f>
@@ -6808,7 +6809,7 @@
       </c>
       <c r="P9" s="60"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -6853,16 +6854,16 @@
         <v/>
       </c>
       <c r="L10" s="17" t="str">
-        <f>IF(OR(Notenliste!P8="x", Notenliste!P8="X"), "bestanden",IF(Notenliste!F8="KP"," ",Notenliste!F8))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F8="KP","",IF(OR(Notenliste!P8="x", Notenliste!P8="X"), "bestanden",Notenliste!F8))</f>
+        <v/>
       </c>
       <c r="M10" s="17">
         <f>Notenliste!E8</f>
         <v>0</v>
       </c>
-      <c r="N10" s="17">
-        <f>Notenliste!Q8</f>
-        <v>0</v>
+      <c r="N10" s="17" t="str">
+        <f>IF(Notenliste!F8="KP","",Notenliste!Q8)</f>
+        <v/>
       </c>
       <c r="O10" s="17" t="str">
         <f>IF(Notenliste!T8=0," ",UPPER(Notenliste!T8))</f>
@@ -6870,7 +6871,7 @@
       </c>
       <c r="P10" s="60"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -6915,16 +6916,16 @@
         <v/>
       </c>
       <c r="L11" s="17" t="str">
-        <f>IF(OR(Notenliste!P9="x", Notenliste!P9="X"), "bestanden",IF(Notenliste!F9="KP"," ",Notenliste!F9))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F9="KP","",IF(OR(Notenliste!P9="x", Notenliste!P9="X"), "bestanden",Notenliste!F9))</f>
+        <v/>
       </c>
       <c r="M11" s="17">
         <f>Notenliste!E9</f>
         <v>0</v>
       </c>
-      <c r="N11" s="17">
-        <f>Notenliste!Q9</f>
-        <v>0</v>
+      <c r="N11" s="17" t="str">
+        <f>IF(Notenliste!F9="KP","",Notenliste!Q9)</f>
+        <v/>
       </c>
       <c r="O11" s="17" t="str">
         <f>IF(Notenliste!T9=0," ",UPPER(Notenliste!T9))</f>
@@ -6932,7 +6933,7 @@
       </c>
       <c r="P11" s="60"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -6977,16 +6978,16 @@
         <v/>
       </c>
       <c r="L12" s="17" t="str">
-        <f>IF(OR(Notenliste!P10="x", Notenliste!P10="X"), "bestanden",IF(Notenliste!F10="KP"," ",Notenliste!F10))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F10="KP","",IF(OR(Notenliste!P10="x", Notenliste!P10="X"), "bestanden",Notenliste!F10))</f>
+        <v/>
       </c>
       <c r="M12" s="17">
         <f>Notenliste!E10</f>
         <v>0</v>
       </c>
-      <c r="N12" s="17">
-        <f>Notenliste!Q10</f>
-        <v>0</v>
+      <c r="N12" s="17" t="str">
+        <f>IF(Notenliste!F10="KP","",Notenliste!Q10)</f>
+        <v/>
       </c>
       <c r="O12" s="17" t="str">
         <f>IF(Notenliste!T10=0," ",UPPER(Notenliste!T10))</f>
@@ -6994,7 +6995,7 @@
       </c>
       <c r="P12" s="60"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -7039,16 +7040,16 @@
         <v/>
       </c>
       <c r="L13" s="17" t="str">
-        <f>IF(OR(Notenliste!P11="x", Notenliste!P11="X"), "bestanden",IF(Notenliste!F11="KP"," ",Notenliste!F11))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F11="KP","",IF(OR(Notenliste!P11="x", Notenliste!P11="X"), "bestanden",Notenliste!F11))</f>
+        <v/>
       </c>
       <c r="M13" s="17">
         <f>Notenliste!E11</f>
         <v>0</v>
       </c>
-      <c r="N13" s="17">
-        <f>Notenliste!Q11</f>
-        <v>0</v>
+      <c r="N13" s="17" t="str">
+        <f>IF(Notenliste!F11="KP","",Notenliste!Q11)</f>
+        <v/>
       </c>
       <c r="O13" s="17" t="str">
         <f>IF(Notenliste!T11=0," ",UPPER(Notenliste!T11))</f>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="P13" s="60"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -7101,16 +7102,16 @@
         <v/>
       </c>
       <c r="L14" s="17" t="str">
-        <f>IF(OR(Notenliste!P12="x", Notenliste!P12="X"), "bestanden",IF(Notenliste!F12="KP"," ",Notenliste!F12))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F12="KP","",IF(OR(Notenliste!P12="x", Notenliste!P12="X"), "bestanden",Notenliste!F12))</f>
+        <v/>
       </c>
       <c r="M14" s="17">
         <f>Notenliste!E12</f>
         <v>0</v>
       </c>
-      <c r="N14" s="17">
-        <f>Notenliste!Q12</f>
-        <v>0</v>
+      <c r="N14" s="17" t="str">
+        <f>IF(Notenliste!F12="KP","",Notenliste!Q12)</f>
+        <v/>
       </c>
       <c r="O14" s="17" t="str">
         <f>IF(Notenliste!T12=0," ",UPPER(Notenliste!T12))</f>
@@ -7118,7 +7119,7 @@
       </c>
       <c r="P14" s="60"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -7163,16 +7164,16 @@
         <v/>
       </c>
       <c r="L15" s="17" t="str">
-        <f>IF(OR(Notenliste!P13="x", Notenliste!P13="X"), "bestanden",IF(Notenliste!F13="KP"," ",Notenliste!F13))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F13="KP","",IF(OR(Notenliste!P13="x", Notenliste!P13="X"), "bestanden",Notenliste!F13))</f>
+        <v/>
       </c>
       <c r="M15" s="17">
         <f>Notenliste!E13</f>
         <v>0</v>
       </c>
-      <c r="N15" s="17">
-        <f>Notenliste!Q13</f>
-        <v>0</v>
+      <c r="N15" s="17" t="str">
+        <f>IF(Notenliste!F13="KP","",Notenliste!Q13)</f>
+        <v/>
       </c>
       <c r="O15" s="17" t="str">
         <f>IF(Notenliste!T13=0," ",UPPER(Notenliste!T13))</f>
@@ -7180,7 +7181,7 @@
       </c>
       <c r="P15" s="60"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -7225,16 +7226,16 @@
         <v/>
       </c>
       <c r="L16" s="17" t="str">
-        <f>IF(OR(Notenliste!P14="x", Notenliste!P14="X"), "bestanden",IF(Notenliste!F14="KP"," ",Notenliste!F14))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F14="KP","",IF(OR(Notenliste!P14="x", Notenliste!P14="X"), "bestanden",Notenliste!F14))</f>
+        <v/>
       </c>
       <c r="M16" s="17">
         <f>Notenliste!E14</f>
         <v>0</v>
       </c>
-      <c r="N16" s="17">
-        <f>Notenliste!Q14</f>
-        <v>0</v>
+      <c r="N16" s="17" t="str">
+        <f>IF(Notenliste!F14="KP","",Notenliste!Q14)</f>
+        <v/>
       </c>
       <c r="O16" s="17" t="str">
         <f>IF(Notenliste!T14=0," ",UPPER(Notenliste!T14))</f>
@@ -7242,7 +7243,7 @@
       </c>
       <c r="P16" s="60"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -7287,16 +7288,16 @@
         <v/>
       </c>
       <c r="L17" s="17" t="str">
-        <f>IF(OR(Notenliste!P15="x", Notenliste!P15="X"), "bestanden",IF(Notenliste!F15="KP"," ",Notenliste!F15))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F15="KP","",IF(OR(Notenliste!P15="x", Notenliste!P15="X"), "bestanden",Notenliste!F15))</f>
+        <v/>
       </c>
       <c r="M17" s="17">
         <f>Notenliste!E15</f>
         <v>0</v>
       </c>
-      <c r="N17" s="17">
-        <f>Notenliste!Q15</f>
-        <v>0</v>
+      <c r="N17" s="17" t="str">
+        <f>IF(Notenliste!F15="KP","",Notenliste!Q15)</f>
+        <v/>
       </c>
       <c r="O17" s="17" t="str">
         <f>IF(Notenliste!T15=0," ",UPPER(Notenliste!T15))</f>
@@ -7304,7 +7305,7 @@
       </c>
       <c r="P17" s="60"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -7349,16 +7350,16 @@
         <v/>
       </c>
       <c r="L18" s="17" t="str">
-        <f>IF(OR(Notenliste!P16="x", Notenliste!P16="X"), "bestanden",IF(Notenliste!F16="KP"," ",Notenliste!F16))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F16="KP","",IF(OR(Notenliste!P16="x", Notenliste!P16="X"), "bestanden",Notenliste!F16))</f>
+        <v/>
       </c>
       <c r="M18" s="17">
         <f>Notenliste!E16</f>
         <v>0</v>
       </c>
-      <c r="N18" s="17">
-        <f>Notenliste!Q16</f>
-        <v>0</v>
+      <c r="N18" s="17" t="str">
+        <f>IF(Notenliste!F16="KP","",Notenliste!Q16)</f>
+        <v/>
       </c>
       <c r="O18" s="17" t="str">
         <f>IF(Notenliste!T16=0," ",UPPER(Notenliste!T16))</f>
@@ -7366,7 +7367,7 @@
       </c>
       <c r="P18" s="60"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -7411,16 +7412,16 @@
         <v/>
       </c>
       <c r="L19" s="17" t="str">
-        <f>IF(OR(Notenliste!P17="x", Notenliste!P17="X"), "bestanden",IF(Notenliste!F17="KP"," ",Notenliste!F17))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F17="KP","",IF(OR(Notenliste!P17="x", Notenliste!P17="X"), "bestanden",Notenliste!F17))</f>
+        <v/>
       </c>
       <c r="M19" s="17">
         <f>Notenliste!E17</f>
         <v>0</v>
       </c>
-      <c r="N19" s="17">
-        <f>Notenliste!Q17</f>
-        <v>0</v>
+      <c r="N19" s="17" t="str">
+        <f>IF(Notenliste!F17="KP","",Notenliste!Q17)</f>
+        <v/>
       </c>
       <c r="O19" s="17" t="str">
         <f>IF(Notenliste!T17=0," ",UPPER(Notenliste!T17))</f>
@@ -7428,7 +7429,7 @@
       </c>
       <c r="P19" s="60"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>17</v>
       </c>
@@ -7473,16 +7474,16 @@
         <v/>
       </c>
       <c r="L20" s="17" t="str">
-        <f>IF(OR(Notenliste!P18="x", Notenliste!P18="X"), "bestanden",IF(Notenliste!F18="KP"," ",Notenliste!F18))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F18="KP","",IF(OR(Notenliste!P18="x", Notenliste!P18="X"), "bestanden",Notenliste!F18))</f>
+        <v/>
       </c>
       <c r="M20" s="17">
         <f>Notenliste!E18</f>
         <v>0</v>
       </c>
-      <c r="N20" s="17">
-        <f>Notenliste!Q18</f>
-        <v>0</v>
+      <c r="N20" s="17" t="str">
+        <f>IF(Notenliste!F18="KP","",Notenliste!Q18)</f>
+        <v/>
       </c>
       <c r="O20" s="17" t="str">
         <f>IF(Notenliste!T18=0," ",UPPER(Notenliste!T18))</f>
@@ -7490,7 +7491,7 @@
       </c>
       <c r="P20" s="60"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>18</v>
       </c>
@@ -7535,16 +7536,16 @@
         <v/>
       </c>
       <c r="L21" s="17" t="str">
-        <f>IF(OR(Notenliste!P19="x", Notenliste!P19="X"), "bestanden",IF(Notenliste!F19="KP"," ",Notenliste!F19))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F19="KP","",IF(OR(Notenliste!P19="x", Notenliste!P19="X"), "bestanden",Notenliste!F19))</f>
+        <v/>
       </c>
       <c r="M21" s="17">
         <f>Notenliste!E19</f>
         <v>0</v>
       </c>
-      <c r="N21" s="17">
-        <f>Notenliste!Q19</f>
-        <v>0</v>
+      <c r="N21" s="17" t="str">
+        <f>IF(Notenliste!F19="KP","",Notenliste!Q19)</f>
+        <v/>
       </c>
       <c r="O21" s="17" t="str">
         <f>IF(Notenliste!T19=0," ",UPPER(Notenliste!T19))</f>
@@ -7552,7 +7553,7 @@
       </c>
       <c r="P21" s="60"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>19</v>
       </c>
@@ -7597,16 +7598,16 @@
         <v/>
       </c>
       <c r="L22" s="17" t="str">
-        <f>IF(OR(Notenliste!P20="x", Notenliste!P20="X"), "bestanden",IF(Notenliste!F20="KP"," ",Notenliste!F20))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F20="KP","",IF(OR(Notenliste!P20="x", Notenliste!P20="X"), "bestanden",Notenliste!F20))</f>
+        <v/>
       </c>
       <c r="M22" s="17">
         <f>Notenliste!E20</f>
         <v>0</v>
       </c>
-      <c r="N22" s="17">
-        <f>Notenliste!Q20</f>
-        <v>0</v>
+      <c r="N22" s="17" t="str">
+        <f>IF(Notenliste!F20="KP","",Notenliste!Q20)</f>
+        <v/>
       </c>
       <c r="O22" s="17" t="str">
         <f>IF(Notenliste!T20=0," ",UPPER(Notenliste!T20))</f>
@@ -7614,7 +7615,7 @@
       </c>
       <c r="P22" s="60"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>20</v>
       </c>
@@ -7659,16 +7660,16 @@
         <v/>
       </c>
       <c r="L23" s="17" t="str">
-        <f>IF(OR(Notenliste!P21="x", Notenliste!P21="X"), "bestanden",IF(Notenliste!F21="KP"," ",Notenliste!F21))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F21="KP","",IF(OR(Notenliste!P21="x", Notenliste!P21="X"), "bestanden",Notenliste!F21))</f>
+        <v/>
       </c>
       <c r="M23" s="17">
         <f>Notenliste!E21</f>
         <v>0</v>
       </c>
-      <c r="N23" s="17">
-        <f>Notenliste!Q21</f>
-        <v>0</v>
+      <c r="N23" s="17" t="str">
+        <f>IF(Notenliste!F21="KP","",Notenliste!Q21)</f>
+        <v/>
       </c>
       <c r="O23" s="17" t="str">
         <f>IF(Notenliste!T21=0," ",UPPER(Notenliste!T21))</f>
@@ -7676,7 +7677,7 @@
       </c>
       <c r="P23" s="60"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>21</v>
       </c>
@@ -7721,16 +7722,16 @@
         <v/>
       </c>
       <c r="L24" s="17" t="str">
-        <f>IF(OR(Notenliste!P22="x", Notenliste!P22="X"), "bestanden",IF(Notenliste!F22="KP"," ",Notenliste!F22))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F22="KP","",IF(OR(Notenliste!P22="x", Notenliste!P22="X"), "bestanden",Notenliste!F22))</f>
+        <v/>
       </c>
       <c r="M24" s="17">
         <f>Notenliste!E22</f>
         <v>0</v>
       </c>
-      <c r="N24" s="17">
-        <f>Notenliste!Q22</f>
-        <v>0</v>
+      <c r="N24" s="17" t="str">
+        <f>IF(Notenliste!F22="KP","",Notenliste!Q22)</f>
+        <v/>
       </c>
       <c r="O24" s="17" t="str">
         <f>IF(Notenliste!T22=0," ",UPPER(Notenliste!T22))</f>
@@ -7738,7 +7739,7 @@
       </c>
       <c r="P24" s="60"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>22</v>
       </c>
@@ -7783,16 +7784,16 @@
         <v/>
       </c>
       <c r="L25" s="17" t="str">
-        <f>IF(OR(Notenliste!P23="x", Notenliste!P23="X"), "bestanden",IF(Notenliste!F23="KP"," ",Notenliste!F23))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F23="KP","",IF(OR(Notenliste!P23="x", Notenliste!P23="X"), "bestanden",Notenliste!F23))</f>
+        <v/>
       </c>
       <c r="M25" s="17">
         <f>Notenliste!E23</f>
         <v>0</v>
       </c>
-      <c r="N25" s="17">
-        <f>Notenliste!Q23</f>
-        <v>0</v>
+      <c r="N25" s="17" t="str">
+        <f>IF(Notenliste!F23="KP","",Notenliste!Q23)</f>
+        <v/>
       </c>
       <c r="O25" s="17" t="str">
         <f>IF(Notenliste!T23=0," ",UPPER(Notenliste!T23))</f>
@@ -7800,7 +7801,7 @@
       </c>
       <c r="P25" s="60"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>23</v>
       </c>
@@ -7845,16 +7846,16 @@
         <v/>
       </c>
       <c r="L26" s="17" t="str">
-        <f>IF(OR(Notenliste!P24="x", Notenliste!P24="X"), "bestanden",IF(Notenliste!F24="KP"," ",Notenliste!F24))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F24="KP","",IF(OR(Notenliste!P24="x", Notenliste!P24="X"), "bestanden",Notenliste!F24))</f>
+        <v/>
       </c>
       <c r="M26" s="17">
         <f>Notenliste!E24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="17">
-        <f>Notenliste!Q24</f>
-        <v>0</v>
+      <c r="N26" s="17" t="str">
+        <f>IF(Notenliste!F24="KP","",Notenliste!Q24)</f>
+        <v/>
       </c>
       <c r="O26" s="17" t="str">
         <f>IF(Notenliste!T24=0," ",UPPER(Notenliste!T24))</f>
@@ -7862,7 +7863,7 @@
       </c>
       <c r="P26" s="60"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>24</v>
       </c>
@@ -7907,16 +7908,16 @@
         <v/>
       </c>
       <c r="L27" s="17" t="str">
-        <f>IF(OR(Notenliste!P25="x", Notenliste!P25="X"), "bestanden",IF(Notenliste!F25="KP"," ",Notenliste!F25))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F25="KP","",IF(OR(Notenliste!P25="x", Notenliste!P25="X"), "bestanden",Notenliste!F25))</f>
+        <v/>
       </c>
       <c r="M27" s="17">
         <f>Notenliste!E25</f>
         <v>0</v>
       </c>
-      <c r="N27" s="17">
-        <f>Notenliste!Q25</f>
-        <v>0</v>
+      <c r="N27" s="17" t="str">
+        <f>IF(Notenliste!F25="KP","",Notenliste!Q25)</f>
+        <v/>
       </c>
       <c r="O27" s="17" t="str">
         <f>IF(Notenliste!T25=0," ",UPPER(Notenliste!T25))</f>
@@ -7924,7 +7925,7 @@
       </c>
       <c r="P27" s="60"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>25</v>
       </c>
@@ -7969,16 +7970,16 @@
         <v/>
       </c>
       <c r="L28" s="17" t="str">
-        <f>IF(OR(Notenliste!P26="x", Notenliste!P26="X"), "bestanden",IF(Notenliste!F26="KP"," ",Notenliste!F26))</f>
-        <v xml:space="preserve"> </v>
+        <f>IF(Notenliste!F26="KP","",IF(OR(Notenliste!P26="x", Notenliste!P26="X"), "bestanden",Notenliste!F26))</f>
+        <v/>
       </c>
       <c r="M28" s="17">
         <f>Notenliste!E26</f>
         <v>0</v>
       </c>
-      <c r="N28" s="17">
-        <f>Notenliste!Q26</f>
-        <v>0</v>
+      <c r="N28" s="17" t="str">
+        <f>IF(Notenliste!F26="KP","",Notenliste!Q26)</f>
+        <v/>
       </c>
       <c r="O28" s="17" t="str">
         <f>IF(Notenliste!T26=0," ",UPPER(Notenliste!T26))</f>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="P28" s="60"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
@@ -8010,7 +8011,7 @@
       <c r="O29" s="57"/>
       <c r="P29" s="60"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="95" t="s">
         <v>43</v>
       </c>
@@ -8030,7 +8031,7 @@
       <c r="O30" s="95"/>
       <c r="P30" s="60"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="95"/>
       <c r="B31" s="95"/>
       <c r="C31" s="95"/>
@@ -8048,7 +8049,7 @@
       <c r="O31" s="95"/>
       <c r="P31" s="60"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="95"/>
       <c r="B32" s="95"/>
       <c r="C32" s="95"/>
@@ -8066,7 +8067,7 @@
       <c r="O32" s="95"/>
       <c r="P32" s="60"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="95"/>
       <c r="B33" s="95"/>
       <c r="C33" s="95"/>
@@ -8084,7 +8085,7 @@
       <c r="O33" s="95"/>
       <c r="P33" s="60"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="95"/>
       <c r="B34" s="95"/>
       <c r="C34" s="95"/>
@@ -8121,7 +8122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Tabelle5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8131,24 +8132,24 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.7109375" style="20" customWidth="1"/>
-    <col min="7" max="20" width="4.7109375" style="20" customWidth="1"/>
-    <col min="21" max="21" width="0.7109375" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="51" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="52" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.6640625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="51" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="52" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="37" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.42578125" hidden="1"/>
+    <col min="32" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
@@ -8177,7 +8178,7 @@
       <c r="W1" s="99"/>
       <c r="X1" s="99"/>
     </row>
-    <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="99" t="s">
         <v>41</v>
       </c>
@@ -8205,7 +8206,7 @@
       <c r="W2" s="99"/>
       <c r="X2" s="99"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="100" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -8234,7 +8235,7 @@
       <c r="W3" s="98"/>
       <c r="X3" s="98"/>
     </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="96" t="s">
         <v>24</v>
       </c>
@@ -8276,7 +8277,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="97"/>
       <c r="B5" s="97"/>
       <c r="C5" s="97"/>
@@ -8330,7 +8331,7 @@
       <c r="W5" s="104"/>
       <c r="X5" s="104"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -8370,7 +8371,7 @@
       <c r="W6" s="50"/>
       <c r="X6" s="50"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -8410,7 +8411,7 @@
       <c r="W7" s="50"/>
       <c r="X7" s="50"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -8450,7 +8451,7 @@
       <c r="W8" s="50"/>
       <c r="X8" s="50"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -8490,7 +8491,7 @@
       <c r="W9" s="50"/>
       <c r="X9" s="50"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -8530,7 +8531,7 @@
       <c r="W10" s="50"/>
       <c r="X10" s="50"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -8570,7 +8571,7 @@
       <c r="W11" s="50"/>
       <c r="X11" s="50"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -8610,7 +8611,7 @@
       <c r="W12" s="50"/>
       <c r="X12" s="50"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -8650,7 +8651,7 @@
       <c r="W13" s="50"/>
       <c r="X13" s="50"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -8690,7 +8691,7 @@
       <c r="W14" s="50"/>
       <c r="X14" s="50"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -8730,7 +8731,7 @@
       <c r="W15" s="50"/>
       <c r="X15" s="50"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -8770,7 +8771,7 @@
       <c r="W16" s="50"/>
       <c r="X16" s="50"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -8810,7 +8811,7 @@
       <c r="W17" s="50"/>
       <c r="X17" s="50"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -8850,7 +8851,7 @@
       <c r="W18" s="50"/>
       <c r="X18" s="50"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -8890,7 +8891,7 @@
       <c r="W19" s="50"/>
       <c r="X19" s="50"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -8930,7 +8931,7 @@
       <c r="W20" s="50"/>
       <c r="X20" s="50"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -8970,7 +8971,7 @@
       <c r="W21" s="50"/>
       <c r="X21" s="50"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -9010,7 +9011,7 @@
       <c r="W22" s="50"/>
       <c r="X22" s="50"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -9050,7 +9051,7 @@
       <c r="W23" s="50"/>
       <c r="X23" s="50"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -9090,7 +9091,7 @@
       <c r="W24" s="50"/>
       <c r="X24" s="50"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -9130,7 +9131,7 @@
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -9170,7 +9171,7 @@
       <c r="W26" s="50"/>
       <c r="X26" s="50"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>22</v>
       </c>
@@ -9210,7 +9211,7 @@
       <c r="W27" s="50"/>
       <c r="X27" s="50"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>23</v>
       </c>
@@ -9250,7 +9251,7 @@
       <c r="W28" s="50"/>
       <c r="X28" s="50"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>24</v>
       </c>
@@ -9290,7 +9291,7 @@
       <c r="W29" s="50"/>
       <c r="X29" s="50"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -9357,7 +9358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -9365,17 +9366,17 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="64" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="63" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="64" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="63" customWidth="1"/>
+    <col min="6" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
@@ -9401,7 +9402,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
@@ -9411,7 +9412,7 @@
         <v>attendance.ects_points</v>
       </c>
       <c r="D2" s="67" t="e">
-        <f>IF(OR(Notenliste!H2="x", Notenliste!H2="X"),"bestanden",IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))))</f>
+        <f>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",IF(OR(Notenliste!P2="x", Notenliste!P2="X"),"bestanden",Notenliste!F2))))</f>
         <v>#VALUE!</v>
       </c>
       <c r="E2" s="63" t="str">
@@ -9419,7 +9420,7 @@
         <v>exam_date</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
@@ -9429,7 +9430,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D3" s="67" t="str">
-        <f>IF(OR(Notenliste!H3="x", Notenliste!H3="X"),"bestanden",IF(Notenliste!D3=0," ",IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",Notenliste!F3))))</f>
+        <f>IF(Notenliste!D3=0," ",IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",IF(OR(Notenliste!P3="x", Notenliste!P3="X"),"bestanden",Notenliste!F3))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E3" s="63" t="str">
@@ -9437,7 +9438,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
@@ -9447,7 +9448,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="67" t="str">
-        <f>IF(OR(Notenliste!H4="x", Notenliste!H4="X"),"bestanden",IF(Notenliste!D4=0," ",IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",Notenliste!F4))))</f>
+        <f>IF(Notenliste!D4=0," ",IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",IF(OR(Notenliste!P4="x", Notenliste!P4="X"),"bestanden",Notenliste!F4))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E4" s="63" t="str">
@@ -9455,7 +9456,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
@@ -9465,7 +9466,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="67" t="str">
-        <f>IF(OR(Notenliste!H5="x", Notenliste!H5="X"),"bestanden",IF(Notenliste!D5=0," ",IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",Notenliste!F5))))</f>
+        <f>IF(Notenliste!D5=0," ",IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",IF(OR(Notenliste!P5="x", Notenliste!P5="X"),"bestanden",Notenliste!F5))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E5" s="63" t="str">
@@ -9473,7 +9474,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
@@ -9483,7 +9484,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D6" s="67" t="str">
-        <f>IF(OR(Notenliste!H6="x", Notenliste!H6="X"),"bestanden",IF(Notenliste!D6=0," ",IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",Notenliste!F6))))</f>
+        <f>IF(Notenliste!D6=0," ",IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",IF(OR(Notenliste!P6="x", Notenliste!P6="X"),"bestanden",Notenliste!F6))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E6" s="63" t="str">
@@ -9491,7 +9492,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
@@ -9501,7 +9502,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D7" s="67" t="str">
-        <f>IF(OR(Notenliste!H7="x", Notenliste!H7="X"),"bestanden",IF(Notenliste!D7=0," ",IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",Notenliste!F7))))</f>
+        <f>IF(Notenliste!D7=0," ",IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",IF(OR(Notenliste!P7="x", Notenliste!P7="X"),"bestanden",Notenliste!F7))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E7" s="63" t="str">
@@ -9509,7 +9510,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
@@ -9519,7 +9520,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D8" s="67" t="str">
-        <f>IF(OR(Notenliste!H8="x", Notenliste!H8="X"),"bestanden",IF(Notenliste!D8=0," ",IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",Notenliste!F8))))</f>
+        <f>IF(Notenliste!D8=0," ",IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",IF(OR(Notenliste!P8="x", Notenliste!P8="X"),"bestanden",Notenliste!F8))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="63" t="str">
@@ -9527,7 +9528,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
@@ -9537,7 +9538,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D9" s="67" t="str">
-        <f>IF(OR(Notenliste!H9="x", Notenliste!H9="X"),"bestanden",IF(Notenliste!D9=0," ",IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",Notenliste!F9))))</f>
+        <f>IF(Notenliste!D9=0," ",IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",IF(OR(Notenliste!P9="x", Notenliste!P9="X"),"bestanden",Notenliste!F9))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E9" s="63" t="str">
@@ -9545,7 +9546,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
@@ -9555,7 +9556,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D10" s="67" t="str">
-        <f>IF(OR(Notenliste!H10="x", Notenliste!H10="X"),"bestanden",IF(Notenliste!D10=0," ",IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",Notenliste!F10))))</f>
+        <f>IF(Notenliste!D10=0," ",IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",IF(OR(Notenliste!P10="x", Notenliste!P10="X"),"bestanden",Notenliste!F10))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E10" s="63" t="str">
@@ -9563,7 +9564,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
@@ -9573,7 +9574,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D11" s="67" t="str">
-        <f>IF(OR(Notenliste!H11="x", Notenliste!H11="X"),"bestanden",IF(Notenliste!D11=0," ",IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",Notenliste!F11))))</f>
+        <f>IF(Notenliste!D11=0," ",IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",IF(OR(Notenliste!P11="x", Notenliste!P11="X"),"bestanden",Notenliste!F11))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E11" s="63" t="str">
@@ -9581,7 +9582,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
@@ -9591,7 +9592,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D12" s="67" t="str">
-        <f>IF(OR(Notenliste!H12="x", Notenliste!H12="X"),"bestanden",IF(Notenliste!D12=0," ",IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",Notenliste!F12))))</f>
+        <f>IF(Notenliste!D12=0," ",IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",IF(OR(Notenliste!P12="x", Notenliste!P12="X"),"bestanden",Notenliste!F12))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E12" s="63" t="str">
@@ -9599,7 +9600,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
@@ -9609,7 +9610,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D13" s="67" t="str">
-        <f>IF(OR(Notenliste!H13="x", Notenliste!H13="X"),"bestanden",IF(Notenliste!D13=0," ",IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",Notenliste!F13))))</f>
+        <f>IF(Notenliste!D13=0," ",IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",IF(OR(Notenliste!P13="x", Notenliste!P13="X"),"bestanden",Notenliste!F13))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E13" s="63" t="str">
@@ -9617,7 +9618,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
@@ -9627,7 +9628,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D14" s="67" t="str">
-        <f>IF(OR(Notenliste!H14="x", Notenliste!H14="X"),"bestanden",IF(Notenliste!D14=0," ",IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",Notenliste!F14))))</f>
+        <f>IF(Notenliste!D14=0," ",IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",IF(OR(Notenliste!P14="x", Notenliste!P14="X"),"bestanden",Notenliste!F14))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="63" t="str">
@@ -9635,7 +9636,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
@@ -9645,7 +9646,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D15" s="67" t="str">
-        <f>IF(OR(Notenliste!H15="x", Notenliste!H15="X"),"bestanden",IF(Notenliste!D15=0," ",IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",Notenliste!F15))))</f>
+        <f>IF(Notenliste!D15=0," ",IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",IF(OR(Notenliste!P15="x", Notenliste!P15="X"),"bestanden",Notenliste!F15))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="63" t="str">
@@ -9653,7 +9654,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
@@ -9663,7 +9664,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D16" s="67" t="str">
-        <f>IF(OR(Notenliste!H16="x", Notenliste!H16="X"),"bestanden",IF(Notenliste!D16=0," ",IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",Notenliste!F16))))</f>
+        <f>IF(Notenliste!D16=0," ",IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",IF(OR(Notenliste!P16="x", Notenliste!P16="X"),"bestanden",Notenliste!F16))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E16" s="63" t="str">
@@ -9671,7 +9672,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
@@ -9681,7 +9682,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D17" s="67" t="str">
-        <f>IF(OR(Notenliste!H17="x", Notenliste!H17="X"),"bestanden",IF(Notenliste!D17=0," ",IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",Notenliste!F17))))</f>
+        <f>IF(Notenliste!D17=0," ",IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",IF(OR(Notenliste!P17="x", Notenliste!P17="X"),"bestanden",Notenliste!F17))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E17" s="63" t="str">
@@ -9689,7 +9690,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
@@ -9699,7 +9700,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D18" s="67" t="str">
-        <f>IF(OR(Notenliste!H18="x", Notenliste!H18="X"),"bestanden",IF(Notenliste!D18=0," ",IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",Notenliste!F18))))</f>
+        <f>IF(Notenliste!D18=0," ",IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",IF(OR(Notenliste!P18="x", Notenliste!P18="X"),"bestanden",Notenliste!F18))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E18" s="63" t="str">
@@ -9707,7 +9708,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
@@ -9717,7 +9718,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D19" s="67" t="str">
-        <f>IF(OR(Notenliste!H19="x", Notenliste!H19="X"),"bestanden",IF(Notenliste!D19=0," ",IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",Notenliste!F19))))</f>
+        <f>IF(Notenliste!D19=0," ",IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",IF(OR(Notenliste!P19="x", Notenliste!P19="X"),"bestanden",Notenliste!F19))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E19" s="63" t="str">
@@ -9725,7 +9726,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
@@ -9735,7 +9736,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D20" s="67" t="str">
-        <f>IF(OR(Notenliste!H20="x", Notenliste!H20="X"),"bestanden",IF(Notenliste!D20=0," ",IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",Notenliste!F20))))</f>
+        <f>IF(Notenliste!D20=0," ",IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",IF(OR(Notenliste!P20="x", Notenliste!P20="X"),"bestanden",Notenliste!F20))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E20" s="63" t="str">
@@ -9743,7 +9744,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
@@ -9753,7 +9754,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D21" s="67" t="str">
-        <f>IF(OR(Notenliste!H21="x", Notenliste!H21="X"),"bestanden",IF(Notenliste!D21=0," ",IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",Notenliste!F21))))</f>
+        <f>IF(Notenliste!D21=0," ",IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",IF(OR(Notenliste!P21="x", Notenliste!P21="X"),"bestanden",Notenliste!F21))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E21" s="63" t="str">
@@ -9761,7 +9762,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
@@ -9771,7 +9772,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D22" s="67" t="str">
-        <f>IF(OR(Notenliste!H22="x", Notenliste!H22="X"),"bestanden",IF(Notenliste!D22=0," ",IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",Notenliste!F22))))</f>
+        <f>IF(Notenliste!D22=0," ",IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",IF(OR(Notenliste!P22="x", Notenliste!P22="X"),"bestanden",Notenliste!F22))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E22" s="63" t="str">
@@ -9779,7 +9780,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
@@ -9789,7 +9790,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D23" s="67" t="str">
-        <f>IF(OR(Notenliste!H23="x", Notenliste!H23="X"),"bestanden",IF(Notenliste!D23=0," ",IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",Notenliste!F23))))</f>
+        <f>IF(Notenliste!D23=0," ",IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",IF(OR(Notenliste!P23="x", Notenliste!P23="X"),"bestanden",Notenliste!F23))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E23" s="63" t="str">
@@ -9797,7 +9798,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
@@ -9807,7 +9808,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D24" s="67" t="str">
-        <f>IF(OR(Notenliste!H24="x", Notenliste!H24="X"),"bestanden",IF(Notenliste!D24=0," ",IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",Notenliste!F24))))</f>
+        <f>IF(Notenliste!D24=0," ",IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",IF(OR(Notenliste!P24="x", Notenliste!P24="X"),"bestanden",Notenliste!F24))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="63" t="str">
@@ -9815,7 +9816,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
@@ -9825,7 +9826,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D25" s="67" t="str">
-        <f>IF(OR(Notenliste!H25="x", Notenliste!H25="X"),"bestanden",IF(Notenliste!D25=0," ",IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",Notenliste!F25))))</f>
+        <f>IF(Notenliste!D25=0," ",IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",IF(OR(Notenliste!P25="x", Notenliste!P25="X"),"bestanden",Notenliste!F25))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="63" t="str">
@@ -9833,7 +9834,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
@@ -9843,7 +9844,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="D26" s="67" t="str">
-        <f>IF(OR(Notenliste!H26="x", Notenliste!H26="X"),"bestanden",IF(Notenliste!D26=0," ",IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",Notenliste!F26))))</f>
+        <f>IF(Notenliste!D26=0," ",IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",IF(OR(Notenliste!P26="x", Notenliste!P26="X"),"bestanden",Notenliste!F26))))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="63" t="str">
@@ -9854,22 +9855,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
   </dataValidations>
@@ -9882,26 +9883,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="20"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="70" t="s">
         <v>7</v>
       </c>
@@ -9918,7 +9919,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>45</v>
       </c>
@@ -9935,7 +9936,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="71" t="s">
         <v>66</v>
       </c>
@@ -9952,7 +9953,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="71" t="s">
         <v>68</v>
       </c>
@@ -9969,7 +9970,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="71" t="s">
         <v>67</v>
       </c>
@@ -9984,7 +9985,7 @@
       </c>
       <c r="H5" s="74"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="71" t="s">
         <v>69</v>
       </c>
@@ -9999,7 +10000,7 @@
       </c>
       <c r="H6" s="74"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="71" t="s">
         <v>70</v>
       </c>
@@ -10014,7 +10015,7 @@
       </c>
       <c r="H7" s="74"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="71" t="s">
         <v>71</v>
       </c>
@@ -10029,7 +10030,7 @@
       </c>
       <c r="H8" s="74"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="71" t="s">
         <v>72</v>
       </c>
@@ -10044,7 +10045,7 @@
       </c>
       <c r="H9" s="74"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="71" t="s">
         <v>108</v>
       </c>
@@ -10059,7 +10060,7 @@
       </c>
       <c r="H10" s="74"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="71" t="s">
         <v>109</v>
       </c>
@@ -10074,7 +10075,7 @@
       </c>
       <c r="H11" s="74"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="71" t="s">
         <v>110</v>
       </c>
@@ -10089,7 +10090,7 @@
       </c>
       <c r="H12" s="74"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="71" t="s">
         <v>111</v>
       </c>
@@ -10104,7 +10105,7 @@
       </c>
       <c r="H13" s="74"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="71"/>
       <c r="B14" s="71"/>
       <c r="D14" s="71" t="s">
@@ -10115,7 +10116,7 @@
       </c>
       <c r="H14" s="74"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="71"/>
       <c r="B15" s="71"/>
       <c r="D15" s="71" t="s">
@@ -10126,7 +10127,7 @@
       </c>
       <c r="H15" s="74"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="71"/>
       <c r="B16" s="71"/>
       <c r="D16" s="71"/>
@@ -10135,7 +10136,7 @@
       </c>
       <c r="H16" s="74"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="71"/>
       <c r="B17" s="71"/>
       <c r="D17" s="71"/>
@@ -10144,7 +10145,7 @@
       </c>
       <c r="H17" s="74"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="71"/>
       <c r="B18" s="71"/>
       <c r="D18" s="71"/>
@@ -10153,14 +10154,14 @@
       </c>
       <c r="H18" s="74"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="71"/>
       <c r="B19" s="71"/>
       <c r="D19" s="71"/>
       <c r="F19" s="71"/>
       <c r="H19" s="74"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="72"/>
       <c r="B20" s="72"/>
       <c r="D20" s="72"/>
